--- a/charts.xlsx
+++ b/charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umanagementru-my.sharepoint.com/personal/az_umanagement_ru/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_52EA34D87E03C3D9F36E9E9CDF7F313EF66FBB18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C94D25AB-BA62-2A4C-96B3-B0BDE0DF0940}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_52EA34D87E03C3D9F36E9E9CDF7F313EF66FBB18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CD46B7B-577D-E249-8393-23BE709395E7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20680" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26328,7 +26328,7 @@
     <t>50, Benedixhion, toxin</t>
   </si>
   <si>
-    <t>50, Алла Пугачева, Тест для аппликейшн</t>
+    <t>50, Алла Пугачева, София Ротару</t>
   </si>
 </sst>
 </file>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -498,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ101"/>
+  <dimension ref="A1:AK101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="AC31" sqref="AC31"/>
@@ -687,6 +687,11 @@
           <t>2021-06-06</t>
         </is>
       </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="32" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
@@ -869,6 +874,11 @@
           <t>1, Джарахов, Markul, Я в моменте</t>
         </is>
       </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>1, Джарахов, Markul, Я в моменте</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="32" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
@@ -1051,6 +1061,11 @@
           <t>2, HammAli &amp; Navai, Птичка</t>
         </is>
       </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>2, HammAli &amp; Navai, Птичка</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="32" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -1233,6 +1248,11 @@
           <t>3, Mekhman, Копия пиратская</t>
         </is>
       </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>3, Mekhman, Копия пиратская</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="32" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -1415,6 +1435,11 @@
           <t>4, Miyagi &amp; Andy Panda feat. TumaniYO, Оттепель</t>
         </is>
       </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>4, Miyagi &amp; Andy Panda feat. TumaniYO, Оттепель</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -1597,6 +1622,11 @@
           <t>5, Ollane feat. Miyagi &amp; Andy Panda, Where Are You</t>
         </is>
       </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>5, Ollane feat. Miyagi &amp; Andy Panda, Where Are You</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="16" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -1779,6 +1809,11 @@
           <t>6, DEAD BLONDE, Мальчик на девятке</t>
         </is>
       </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>6, DEAD BLONDE, Мальчик на девятке</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -1961,6 +1996,11 @@
           <t>7, MORGENSHTERN, ДУЛО</t>
         </is>
       </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>7, MORGENSHTERN, ДУЛО</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="16" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -2143,6 +2183,11 @@
           <t>8, 10AGE, Нету интереса</t>
         </is>
       </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>8, Элджей, Candy Flip</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="16" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -2325,6 +2370,11 @@
           <t>9, Ramil', Сон</t>
         </is>
       </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>9, 10AGE, Нету интереса</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="16" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
@@ -2507,6 +2557,11 @@
           <t>10, Miyagi &amp; Andy Panda, Патрон</t>
         </is>
       </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>10, Ramil', Сон</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="32" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
@@ -2689,6 +2744,11 @@
           <t>11, MORGENSHTERN, SHOW</t>
         </is>
       </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>11, Miyagi &amp; Andy Panda, Патрон</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="32" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
@@ -2871,6 +2931,11 @@
           <t>12, Элджей, Candy Flip</t>
         </is>
       </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>12, MORGENSHTERN, SHOW</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="16" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -3053,6 +3118,11 @@
           <t>13, Султан Лагучев, Горький вкус</t>
         </is>
       </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>13, Султан Лагучев, Горький вкус</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="32" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -3235,6 +3305,11 @@
           <t>14, DEAD BLONDE, Бесприданница</t>
         </is>
       </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>14, DEAD BLONDE, Бесприданница</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="32" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -3417,6 +3492,11 @@
           <t>15, The Hatters feat. Джарахов, Я делаю шаг (feat. Джарахов)</t>
         </is>
       </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>15, GAYAZOV$ BROTHER$, Filatov &amp; Karas, Пошла жара</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="16" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -3599,6 +3679,11 @@
           <t>16, GAYAZOV$ BROTHER$, Filatov &amp; Karas, Пошла жара</t>
         </is>
       </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>16, The Hatters feat. Джарахов, Я делаю шаг (feat. Джарахов)</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="16" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -3781,6 +3866,11 @@
           <t>17, kizaru feat. JABO, Moulin Rouge</t>
         </is>
       </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>17, Måneskin, Beggin'</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="32" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -3963,6 +4053,11 @@
           <t>18, MORGENSHTERN, ARISTOCRAT</t>
         </is>
       </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>18, MORGENSHTERN, Imanbek, Fetty Wap feat. KDDK, Leck</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="32" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -4145,6 +4240,11 @@
           <t>19, MORGENSHTERN, Imanbek, Fetty Wap feat. KDDK, Leck</t>
         </is>
       </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>19, Måneskin, I WANNA BE YOUR SLAVE</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="32" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
@@ -4327,6 +4427,11 @@
           <t>20, Måneskin, I WANNA BE YOUR SLAVE</t>
         </is>
       </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>20, Элджей, Первая Полоса</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="32" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
@@ -4509,6 +4614,11 @@
           <t>21, MORGENSHTERN, OLALA</t>
         </is>
       </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21, MORGENSHTERN, OLALA</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="32" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -4691,6 +4801,11 @@
           <t>22, Элджей, Первая Полоса</t>
         </is>
       </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>22, MORGENSHTERN, ARISTOCRAT</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="16" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -4873,6 +4988,11 @@
           <t>23, Макс Корж, Аттестат</t>
         </is>
       </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>23, Ханза, Ramil', Плачь и Танцуй</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="32" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -5055,6 +5175,11 @@
           <t>24, Скриптонит, Будьте здоровы</t>
         </is>
       </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>24, Скриптонит, Будьте здоровы</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="16" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -5237,6 +5362,11 @@
           <t>25, Ханза, Ramil', Плачь и Танцуй</t>
         </is>
       </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>25, Dabro, На часах ноль-ноль</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="16" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -5419,6 +5549,11 @@
           <t>26, Måneskin, Beggin'</t>
         </is>
       </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>26, Måneskin, ZITTI E BUONI</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="16" customHeight="1">
       <c r="A28" s="2" t="inlineStr">
@@ -5601,6 +5736,11 @@
           <t>27, Artik &amp; Asti, Истеричка</t>
         </is>
       </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>27, NLO, Не грусти</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="32" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
@@ -5783,6 +5923,11 @@
           <t>28, Dabro, На часах ноль-ноль</t>
         </is>
       </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>28, kizaru feat. JABO, Moulin Rouge</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="16" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
@@ -5965,6 +6110,11 @@
           <t>29, NLO, Не грусти</t>
         </is>
       </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>29, Макс Корж, Аттестат</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="16" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
@@ -6147,6 +6297,11 @@
           <t>30, Måneskin, ZITTI E BUONI</t>
         </is>
       </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>30, Artik &amp; Asti, Истеричка</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="16" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
@@ -6329,6 +6484,11 @@
           <t>31, Лилу45, Восемь</t>
         </is>
       </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>31, MORGENSHTERN, SODA LUV, blago white, OG Buda, MAYOT, Cristal &amp; МОЁТ</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="16" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
@@ -6511,6 +6671,11 @@
           <t>32, MORGENSHTERN, SODA LUV, blago white, OG Buda, MAYOT, Cristal &amp; МОЁТ</t>
         </is>
       </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>32, Minelli, Rampampam</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="16" customHeight="1">
       <c r="A34" s="2" t="inlineStr">
@@ -6693,6 +6858,11 @@
           <t>33, Minelli, Rampampam</t>
         </is>
       </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>33, Лилу45, Восемь</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="16" customHeight="1">
       <c r="A35" s="2" t="inlineStr">
@@ -6875,6 +7045,11 @@
           <t>34, MORGENSHTERN, PABLO</t>
         </is>
       </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>34, MAYOT, Снег</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="16" customHeight="1">
       <c r="A36" s="2" t="inlineStr">
@@ -7057,6 +7232,11 @@
           <t>35, MORGENSHTERN, DINERO</t>
         </is>
       </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>35, MORGENSHTERN, PABLO</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="16" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
@@ -7239,6 +7419,11 @@
           <t>36, 104 feat. Miyagi, Скриптонит, НЕ ЖАЛЬ (feat. Miyagi &amp; Скриптонит)</t>
         </is>
       </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>36, 104 feat. Miyagi, Скриптонит, НЕ ЖАЛЬ (feat. Miyagi &amp; Скриптонит)</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="16" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
@@ -7421,6 +7606,11 @@
           <t>37, FEDUK, Песня про лето</t>
         </is>
       </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>37, MORGENSHTERN, DINERO</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="16" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
@@ -7603,6 +7793,11 @@
           <t>38, Masked Wolf, Astronaut In The Ocean</t>
         </is>
       </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>38, SEEMEE feat. SODA LUV, Голодный пёс</t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="16" customHeight="1">
       <c r="A40" s="2" t="inlineStr">
@@ -7785,6 +7980,11 @@
           <t>39, SEEMEE feat. SODA LUV, Голодный пёс</t>
         </is>
       </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>39, Masked Wolf, Astronaut In The Ocean</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="16" customHeight="1">
       <c r="A41" s="2" t="inlineStr">
@@ -7967,6 +8167,11 @@
           <t>40, МОТ, LYRIQ, Не Бруклин</t>
         </is>
       </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>40, МОТ, LYRIQ, Не Бруклин</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="32" customHeight="1">
       <c r="A42" s="2" t="inlineStr">
@@ -8149,6 +8354,11 @@
           <t>41, SODA LUV, WHY BERRY, Бигасс</t>
         </is>
       </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>41, SODA LUV, WHY BERRY, Бигасс</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="48" customHeight="1">
       <c r="A43" s="2" t="inlineStr">
@@ -8331,6 +8541,11 @@
           <t>42, GONE.Fludd, Плохая</t>
         </is>
       </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>42, Султан Лагучев, Между нами война</t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="16" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
@@ -8513,6 +8728,11 @@
           <t>43, Султан Лагучев, Между нами война</t>
         </is>
       </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>43, Miyagi &amp; Andy Panda, Minor</t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="16" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
@@ -8695,6 +8915,11 @@
           <t>44, Miyagi &amp; Andy Panda, Minor</t>
         </is>
       </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>44, SODA LUV feat. SQWOZ BAB, КАЗАНТИП</t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="16" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
@@ -8877,6 +9102,11 @@
           <t>45, SODA LUV feat. SQWOZ BAB, КАЗАНТИП</t>
         </is>
       </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>45, MACAN, Fell in Love</t>
+        </is>
+      </c>
     </row>
     <row r="47" ht="32" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
@@ -9059,6 +9289,11 @@
           <t>46, MAYOT, Снег</t>
         </is>
       </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>46, МОТ, JONY, Лилии</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="16" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
@@ -9241,6 +9476,11 @@
           <t>47, Jamik, PUSSYKILLER, Франция</t>
         </is>
       </c>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t>47, FEDUK, Песня про лето</t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="16" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
@@ -9423,6 +9663,11 @@
           <t>48, MACAN, Fell in Love</t>
         </is>
       </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>48, Jamik, PUSSYKILLER, Франция</t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="16" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
@@ -9605,6 +9850,11 @@
           <t>49, Клава Кока, Руки Вверх, Нокаут</t>
         </is>
       </c>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t>49, ooes, зима</t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="16" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
@@ -9787,6 +10037,11 @@
           <t>50, ooes, зима</t>
         </is>
       </c>
+      <c r="AK51" t="inlineStr">
+        <is>
+          <t>50, RAIKAHO, Soul, Из чёрного мерина (by Atlanta)</t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="16" customHeight="1">
       <c r="A52" s="2" t="inlineStr">
@@ -9969,6 +10224,11 @@
           <t>51, МОТ, JONY, Лилии</t>
         </is>
       </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">51, Moreart feat. IHI, Я буду е***ь </t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="48" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
@@ -10151,6 +10411,11 @@
           <t>52, MORGENSHTERN, HUBLOT</t>
         </is>
       </c>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>52, BODIEV, Крузак 200</t>
+        </is>
+      </c>
     </row>
     <row r="54" ht="48" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
@@ -10333,6 +10598,11 @@
           <t>53, BODIEV, Крузак 200</t>
         </is>
       </c>
+      <c r="AK54" t="inlineStr">
+        <is>
+          <t>53, Miyagi &amp; Andy Panda, Там ревели горы</t>
+        </is>
+      </c>
     </row>
     <row r="55" ht="48" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
@@ -10515,6 +10785,11 @@
           <t>54, SLAVA MARLOW, ТЫ ГОРИШЬ КАК ОГОНЬ</t>
         </is>
       </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>54, Клава Кока, Руки Вверх, Нокаут</t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="16" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
@@ -10697,6 +10972,11 @@
           <t>55, RAIKAHO, Soul, Из чёрного мерина (by Atlanta)</t>
         </is>
       </c>
+      <c r="AK56" t="inlineStr">
+        <is>
+          <t>55, SLAVA MARLOW, ТЫ ГОРИШЬ КАК ОГОНЬ</t>
+        </is>
+      </c>
     </row>
     <row r="57" ht="48" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
@@ -10879,6 +11159,11 @@
           <t>56, Jamik, Движки</t>
         </is>
       </c>
+      <c r="AK57" t="inlineStr">
+        <is>
+          <t>56, Jamik, Движки</t>
+        </is>
+      </c>
     </row>
     <row r="58" ht="48" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
@@ -11061,6 +11346,11 @@
           <t>57, Хабиб, Ягода малинка</t>
         </is>
       </c>
+      <c r="AK58" t="inlineStr">
+        <is>
+          <t>57, MORGENSHTERN, HUBLOT</t>
+        </is>
+      </c>
     </row>
     <row r="59" ht="16" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
@@ -11243,6 +11533,11 @@
           <t>58, Miyagi &amp; Andy Panda, Там ревели горы</t>
         </is>
       </c>
+      <c r="AK59" t="inlineStr">
+        <is>
+          <t>58, DJ Smash, MORGENSHTERN, Новая волна</t>
+        </is>
+      </c>
     </row>
     <row r="60" ht="16" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
@@ -11425,6 +11720,11 @@
           <t xml:space="preserve">59, Moreart feat. IHI, Я буду е***ь </t>
         </is>
       </c>
+      <c r="AK60" t="inlineStr">
+        <is>
+          <t>59, Хабиб, Ягода малинка</t>
+        </is>
+      </c>
     </row>
     <row r="61" ht="16" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
@@ -11607,6 +11907,11 @@
           <t>60, MORGENSHTERN, NOMINALO</t>
         </is>
       </c>
+      <c r="AK61" t="inlineStr">
+        <is>
+          <t>60, GONE.Fludd, Плохая</t>
+        </is>
+      </c>
     </row>
     <row r="62" ht="48" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
@@ -11789,6 +12094,11 @@
           <t>61, DJ Smash, MORGENSHTERN, Новая волна</t>
         </is>
       </c>
+      <c r="AK62" t="inlineStr">
+        <is>
+          <t>61, MORGENSHTERN, NOMINALO</t>
+        </is>
+      </c>
     </row>
     <row r="63" ht="16" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
@@ -11971,6 +12281,11 @@
           <t>62, WhyBaby?, UncleFlexxx, ONLY FANS</t>
         </is>
       </c>
+      <c r="AK63" t="inlineStr">
+        <is>
+          <t>62, Nikitata, ПОЛЮБИ МЕНЯ СИЛЬНЕЙ</t>
+        </is>
+      </c>
     </row>
     <row r="64" ht="32" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
@@ -12153,6 +12468,11 @@
           <t>63, Aarne, The Limba, Markul, Noir</t>
         </is>
       </c>
+      <c r="AK64" t="inlineStr">
+        <is>
+          <t>63, Aarne, The Limba, Markul, Noir</t>
+        </is>
+      </c>
     </row>
     <row r="65" ht="16" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
@@ -12335,6 +12655,11 @@
           <t>64, Nikitata, ПОЛЮБИ МЕНЯ СИЛЬНЕЙ</t>
         </is>
       </c>
+      <c r="AK65" t="inlineStr">
+        <is>
+          <t>64, Måneskin, CORALINE</t>
+        </is>
+      </c>
     </row>
     <row r="66" ht="48" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
@@ -12517,6 +12842,11 @@
           <t>65, SODA LUV, Тысячи рук</t>
         </is>
       </c>
+      <c r="AK66" t="inlineStr">
+        <is>
+          <t>65, WhyBaby?, UncleFlexxx, ONLY FANS</t>
+        </is>
+      </c>
     </row>
     <row r="67" ht="32" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
@@ -12699,6 +13029,11 @@
           <t>66, Анет Сай, NILETTO, Не люблю?</t>
         </is>
       </c>
+      <c r="AK67" t="inlineStr">
+        <is>
+          <t>66, Анет Сай, NILETTO, Не люблю?</t>
+        </is>
+      </c>
     </row>
     <row r="68" ht="16" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
@@ -12881,6 +13216,11 @@
           <t>67, Måneskin, CORALINE</t>
         </is>
       </c>
+      <c r="AK68" t="inlineStr">
+        <is>
+          <t>67, SODA LUV, Тысячи рук</t>
+        </is>
+      </c>
     </row>
     <row r="69" ht="16" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
@@ -13063,6 +13403,11 @@
           <t>68, Manizha, RUSSIAN WOMAN</t>
         </is>
       </c>
+      <c r="AK69" t="inlineStr">
+        <is>
+          <t>68, Niman feat. Truwer, Талия</t>
+        </is>
+      </c>
     </row>
     <row r="70" ht="32" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
@@ -13245,6 +13590,11 @@
           <t>69, By Индия, я не помню</t>
         </is>
       </c>
+      <c r="AK70" t="inlineStr">
+        <is>
+          <t>69, By Индия, я не помню</t>
+        </is>
+      </c>
     </row>
     <row r="71" ht="16" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
@@ -13427,6 +13777,11 @@
           <t>70, MORGENSHTERN, КОГДА НАС ОТПУСТИТ</t>
         </is>
       </c>
+      <c r="AK71" t="inlineStr">
+        <is>
+          <t>70, Manizha, RUSSIAN WOMAN</t>
+        </is>
+      </c>
     </row>
     <row r="72" ht="32" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
@@ -13609,6 +13964,11 @@
           <t>71, Niman feat. Truwer, Талия</t>
         </is>
       </c>
+      <c r="AK72" t="inlineStr">
+        <is>
+          <t>71, MORGENSHTERN, РЕТРО РЕЙВ</t>
+        </is>
+      </c>
     </row>
     <row r="73" ht="16" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
@@ -13791,6 +14151,11 @@
           <t>72, MORGENSHTERN, РЕТРО РЕЙВ</t>
         </is>
       </c>
+      <c r="AK73" t="inlineStr">
+        <is>
+          <t>72, Ваня Дмитриенко, Венера-Юпитер</t>
+        </is>
+      </c>
     </row>
     <row r="74" ht="16" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
@@ -13973,6 +14338,11 @@
           <t>73, VAVAN, Руки Вверх, Ай-яй-яй</t>
         </is>
       </c>
+      <c r="AK74" t="inlineStr">
+        <is>
+          <t>73, WallClan, Пьяные танцы</t>
+        </is>
+      </c>
     </row>
     <row r="75" ht="16" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
@@ -14155,6 +14525,11 @@
           <t>74, MORGENSHTERN, Я КОГДА-НИБУДЬ УЙДУ</t>
         </is>
       </c>
+      <c r="AK75" t="inlineStr">
+        <is>
+          <t>74, LOBODA, Родной</t>
+        </is>
+      </c>
     </row>
     <row r="76" ht="16" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
@@ -14337,6 +14712,11 @@
           <t>75, WallClan, Пьяные танцы</t>
         </is>
       </c>
+      <c r="AK76" t="inlineStr">
+        <is>
+          <t>75, Ramil', Сияй</t>
+        </is>
+      </c>
     </row>
     <row r="77" ht="32" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
@@ -14519,6 +14899,11 @@
           <t>76, LOBODA, Родной</t>
         </is>
       </c>
+      <c r="AK77" t="inlineStr">
+        <is>
+          <t>76, MORGENSHTERN, Я КОГДА-НИБУДЬ УЙДУ</t>
+        </is>
+      </c>
     </row>
     <row r="78" ht="16" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
@@ -14701,6 +15086,11 @@
           <t>77, Ваня Дмитриенко, Венера-Юпитер</t>
         </is>
       </c>
+      <c r="AK78" t="inlineStr">
+        <is>
+          <t>77, VAVAN, Руки Вверх, Ай-яй-яй</t>
+        </is>
+      </c>
     </row>
     <row r="79" ht="32" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
@@ -14883,6 +15273,11 @@
           <t>78, Ramil', Сияй</t>
         </is>
       </c>
+      <c r="AK79" t="inlineStr">
+        <is>
+          <t>78, MORGENSHTERN, КОГДА НАС ОТПУСТИТ</t>
+        </is>
+      </c>
     </row>
     <row r="80" ht="16" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
@@ -15065,6 +15460,11 @@
           <t>79, Yanix, Пошлая Молли, Из ладони в ладонь</t>
         </is>
       </c>
+      <c r="AK80" t="inlineStr">
+        <is>
+          <t>79, Скриптонит, Чистый</t>
+        </is>
+      </c>
     </row>
     <row r="81" ht="32" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
@@ -15247,6 +15647,11 @@
           <t>80, Тимати, Падаем вместе</t>
         </is>
       </c>
+      <c r="AK81" t="inlineStr">
+        <is>
+          <t>80, Тимати, Падаем вместе</t>
+        </is>
+      </c>
     </row>
     <row r="82" ht="32" customHeight="1">
       <c r="A82" s="2" t="inlineStr">
@@ -15429,6 +15834,11 @@
           <t>81, LOVV66, Трап Трап</t>
         </is>
       </c>
+      <c r="AK82" t="inlineStr">
+        <is>
+          <t>81, LOVV66, Трап Трап</t>
+        </is>
+      </c>
     </row>
     <row r="83" ht="32" customHeight="1">
       <c r="A83" s="2" t="inlineStr">
@@ -15611,6 +16021,11 @@
           <t>82, Murovei, Тима Белорусских, Пробегал мимо</t>
         </is>
       </c>
+      <c r="AK83" t="inlineStr">
+        <is>
+          <t>82, Murovei, Тима Белорусских, Пробегал мимо</t>
+        </is>
+      </c>
     </row>
     <row r="84" ht="16" customHeight="1">
       <c r="A84" s="2" t="inlineStr">
@@ -15793,6 +16208,11 @@
           <t>83, MORGENSHTERN, GTA</t>
         </is>
       </c>
+      <c r="AK84" t="inlineStr">
+        <is>
+          <t>83, Miyagi feat. TumaniYO, KADI, Bismarck</t>
+        </is>
+      </c>
     </row>
     <row r="85" ht="32" customHeight="1">
       <c r="A85" s="2" t="inlineStr">
@@ -15975,6 +16395,11 @@
           <t>84, Макс Барских, Zivert, BESTSELLER</t>
         </is>
       </c>
+      <c r="AK85" t="inlineStr">
+        <is>
+          <t>84, MORGENSHTERN, GTA</t>
+        </is>
+      </c>
     </row>
     <row r="86" ht="32" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
@@ -16157,6 +16582,11 @@
           <t>85, Скриптонит, Чистый</t>
         </is>
       </c>
+      <c r="AK86" t="inlineStr">
+        <is>
+          <t>85, Макс Барских, Zivert, BESTSELLER</t>
+        </is>
+      </c>
     </row>
     <row r="87" ht="32" customHeight="1">
       <c r="A87" s="2" t="inlineStr">
@@ -16339,6 +16769,11 @@
           <t>86, Гуф, Murovei feat. V $ X V PRiNCE, Ураган (feat. V $ X V PRiNCE)</t>
         </is>
       </c>
+      <c r="AK87" t="inlineStr">
+        <is>
+          <t>86, Баста feat. Алёна Омаргалиева, Я поднимаюсь над землей (feat. Алёна Омаргалиева)</t>
+        </is>
+      </c>
     </row>
     <row r="88" ht="16" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
@@ -16521,6 +16956,11 @@
           <t>87, MORGENSHTERN, Cristal &amp; МОЁТ</t>
         </is>
       </c>
+      <c r="AK88" t="inlineStr">
+        <is>
+          <t>87, RAIKAHO, Молод и глуп</t>
+        </is>
+      </c>
     </row>
     <row r="89" ht="16" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
@@ -16703,6 +17143,11 @@
           <t>88, Miyagi feat. TumaniYO, KADI, Bismarck</t>
         </is>
       </c>
+      <c r="AK89" t="inlineStr">
+        <is>
+          <t>88, MORGENSHTERN, Cristal &amp; МОЁТ</t>
+        </is>
+      </c>
     </row>
     <row r="90" ht="16" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
@@ -16885,6 +17330,11 @@
           <t>89, Gazan, СУЕТОЛОГ</t>
         </is>
       </c>
+      <c r="AK90" t="inlineStr">
+        <is>
+          <t>89, Ислам Итляшев, Она любила розы</t>
+        </is>
+      </c>
     </row>
     <row r="91" ht="32" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
@@ -17067,6 +17517,11 @@
           <t>90, RAIKAHO, Молод и глуп</t>
         </is>
       </c>
+      <c r="AK91" t="inlineStr">
+        <is>
+          <t>90, Гуф, Murovei feat. V $ X V PRiNCE, Ураган (feat. V $ X V PRiNCE)</t>
+        </is>
+      </c>
     </row>
     <row r="92" ht="32" customHeight="1">
       <c r="A92" s="2" t="inlineStr">
@@ -17249,6 +17704,11 @@
           <t>91, Баста feat. Алёна Омаргалиева, Я поднимаюсь над землей (feat. Алёна Омаргалиева)</t>
         </is>
       </c>
+      <c r="AK92" t="inlineStr">
+        <is>
+          <t>91, Егор Крид, Голос</t>
+        </is>
+      </c>
     </row>
     <row r="93" ht="16" customHeight="1">
       <c r="A93" s="2" t="inlineStr">
@@ -17431,6 +17891,11 @@
           <t>92, Ислам Итляшев, Она любила розы</t>
         </is>
       </c>
+      <c r="AK93" t="inlineStr">
+        <is>
+          <t>92, Gazan, СУЕТОЛОГ</t>
+        </is>
+      </c>
     </row>
     <row r="94" ht="32" customHeight="1">
       <c r="A94" s="2" t="inlineStr">
@@ -17613,6 +18078,11 @@
           <t>93, Tesher, Jalebi Baby</t>
         </is>
       </c>
+      <c r="AK94" t="inlineStr">
+        <is>
+          <t>93, Yanix, Пошлая Молли, Из ладони в ладонь</t>
+        </is>
+      </c>
     </row>
     <row r="95" ht="16" customHeight="1">
       <c r="A95" s="2" t="inlineStr">
@@ -17795,6 +18265,11 @@
           <t>94, Егор Крид, Голос</t>
         </is>
       </c>
+      <c r="AK95" t="inlineStr">
+        <is>
+          <t>94, SALUKI, 104 feat. ANIKV, БИЛИК, Лавэ (feat. ANIKV &amp; БИЛИК)</t>
+        </is>
+      </c>
     </row>
     <row r="96" ht="48" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
@@ -17977,6 +18452,11 @@
           <t>95, MONEYKEN, Грустная на тусе</t>
         </is>
       </c>
+      <c r="AK96" t="inlineStr">
+        <is>
+          <t>95, Tesher, Jalebi Baby</t>
+        </is>
+      </c>
     </row>
     <row r="97" ht="32" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
@@ -18159,6 +18639,11 @@
           <t>96, SALUKI, 104 feat. ANIKV, БИЛИК, Лавэ (feat. ANIKV &amp; БИЛИК)</t>
         </is>
       </c>
+      <c r="AK97" t="inlineStr">
+        <is>
+          <t>96, SLAVA MARLOW, Снова я напиваюсь</t>
+        </is>
+      </c>
     </row>
     <row r="98" ht="16" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
@@ -18341,6 +18826,11 @@
           <t>97, MORGENSHTERN, ПАПИН ТАНК</t>
         </is>
       </c>
+      <c r="AK98" t="inlineStr">
+        <is>
+          <t>97, DOROFEEVA, gorit</t>
+        </is>
+      </c>
     </row>
     <row r="99" ht="16" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
@@ -18523,6 +19013,11 @@
           <t>98, Егор Крид, (Не)идеальна</t>
         </is>
       </c>
+      <c r="AK99" t="inlineStr">
+        <is>
+          <t>98, Егор Крид, (Не)идеальна</t>
+        </is>
+      </c>
     </row>
     <row r="100" ht="32" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
@@ -18705,6 +19200,11 @@
           <t>99, SLAVA MARLOW, Снова я напиваюсь</t>
         </is>
       </c>
+      <c r="AK100" t="inlineStr">
+        <is>
+          <t>99, MONEYKEN, Грустная на тусе</t>
+        </is>
+      </c>
     </row>
     <row r="101" ht="48" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
@@ -18875,6 +19375,11 @@
       <c r="AJ101" t="inlineStr">
         <is>
           <t>100, DOROFEEVA, gorit</t>
+        </is>
+      </c>
+      <c r="AK101" t="inlineStr">
+        <is>
+          <t>100, Скриптонит, Москва любит...</t>
         </is>
       </c>
     </row>
@@ -18890,7 +19395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ101"/>
+  <dimension ref="A1:AK101"/>
   <sheetViews>
     <sheetView topLeftCell="Y1" zoomScale="75" workbookViewId="0">
       <selection activeCell="AG1" sqref="AG1:AG1048576"/>
@@ -19081,6 +19586,11 @@
           <t>2021-06-06</t>
         </is>
       </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="16" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
@@ -19263,6 +19773,11 @@
           <t>1, MORGENSHTERN, MILLION DOLLAR: BUSINESS</t>
         </is>
       </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>1, MORGENSHTERN, MILLION DOLLAR: BUSINESS</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="16" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
@@ -19445,6 +19960,11 @@
           <t>2, MORGENSHTERN, MILLION DOLLAR: HAPPINESS</t>
         </is>
       </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>2, MORGENSHTERN, MILLION DOLLAR: HAPPINESS</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -19627,6 +20147,11 @@
           <t>3, Måneskin, Teatro d'ira - Vol. I</t>
         </is>
       </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>3, Måneskin, Teatro d'ira - Vol. I</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="16" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -19809,6 +20334,11 @@
           <t>4, Miyagi &amp; Andy Panda, YAMAKASI</t>
         </is>
       </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>4, Miyagi &amp; Andy Panda, YAMAKASI</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -19991,6 +20521,11 @@
           <t>5, DEAD BLONDE, ПРОПАГАНДА</t>
         </is>
       </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>5, DEAD BLONDE, ПРОПАГАНДА</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="16" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -20173,6 +20708,11 @@
           <t>6, Miyagi, Buster Keaton</t>
         </is>
       </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>6, Miyagi, Buster Keaton</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -20355,6 +20895,11 @@
           <t>7, Artik &amp; Asti, Миллениум</t>
         </is>
       </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>7, Artik &amp; Asti, Миллениум</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="32" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -20537,6 +21082,11 @@
           <t>8, Скриптонит, Свистки и бумажки</t>
         </is>
       </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>8, Скриптонит, Свистки и бумажки</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="32" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -20719,6 +21269,11 @@
           <t>9, Скриптонит, Праздник на улице 36</t>
         </is>
       </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>9, Måneskin, Chosen</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="32" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
@@ -20901,6 +21456,11 @@
           <t>10, HammAli &amp; Navai, Когда хорошему человеку плохо</t>
         </is>
       </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>10, Скриптонит, Праздник на улице 36</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="16" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
@@ -21083,6 +21643,11 @@
           <t>11, Måneskin, Chosen</t>
         </is>
       </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>11, HammAli &amp; Navai, Когда хорошему человеку плохо</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="16" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
@@ -21265,6 +21830,11 @@
           <t>12, SODA LUV, Viva la vida</t>
         </is>
       </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>12, Скриптонит, 2004</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="16" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -21447,6 +22017,11 @@
           <t>13, OG Buda, FREERIO</t>
         </is>
       </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>13, MAYOT, GHETTO GARDEN</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="16" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -21629,6 +22204,11 @@
           <t>14, Скриптонит, 2004</t>
         </is>
       </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>14, SODA LUV, Viva la vida</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="16" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -21811,6 +22391,11 @@
           <t>15, SODA LUV, Ничего личного</t>
         </is>
       </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>15, OG Buda, FREERIO</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="16" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -21993,6 +22578,11 @@
           <t>16, Тимати, Шипы и розы</t>
         </is>
       </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>16, SODA LUV, Ничего личного</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="16" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -22175,6 +22765,11 @@
           <t>17, Ramil', Сияй</t>
         </is>
       </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>17, Ramil', Сияй</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="32" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -22357,6 +22952,11 @@
           <t>18, Скриптонит, Уроборос: Улица 36</t>
         </is>
       </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>18, Скриптонит, Уроборос: Улица 36</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="32" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -22539,6 +23139,11 @@
           <t>19, LOVV66, ФИЗИКАЛ ПЭЙН</t>
         </is>
       </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>19, Канги, Том I. «Жить не запретишь»</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="16" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
@@ -22721,6 +23326,11 @@
           <t>20, Скриптонит, Дом с нормальными явлениями</t>
         </is>
       </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>20, Miyagi &amp; Эндшпиль, Неизданное, Pt. 1</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="16" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
@@ -22903,6 +23513,11 @@
           <t>21, Artik &amp; Asti, 7 (Part 2)</t>
         </is>
       </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21, Скриптонит, Дом с нормальными явлениями</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="16" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -23085,6 +23700,11 @@
           <t>22, JONY, Небесные розы</t>
         </is>
       </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>22, Artik &amp; Asti, 7 (Part 2)</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="16" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -23267,6 +23887,11 @@
           <t>23, Miyagi &amp; Эндшпиль, Неизданное, Pt. 1</t>
         </is>
       </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>23, JONY, Небесные розы</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="16" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -23449,6 +24074,11 @@
           <t>24, Канги, Том I. «Жить не запретишь»</t>
         </is>
       </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>24, LOVV66, ФИЗИКАЛ ПЭЙН</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="16" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -23631,6 +24261,11 @@
           <t>25, MAYOT, GHETTO GARDEN</t>
         </is>
       </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>25, Тимати, Шипы и розы</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="16" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -23813,6 +24448,11 @@
           <t>26, SLAVA MARLOW, АРТЁМ</t>
         </is>
       </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>26, SLAVA MARLOW, АРТЁМ</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="16" customHeight="1">
       <c r="A28" s="2" t="inlineStr">
@@ -23995,6 +24635,11 @@
           <t>27, Макс Корж, Жить в кайф</t>
         </is>
       </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>27, JONY, Список твоих мыслей</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="16" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
@@ -24177,6 +24822,11 @@
           <t>28, SALUKI, 104, СТЫД ИЛИ СЛАВА</t>
         </is>
       </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>28, SALUKI, 104, СТЫД ИЛИ СЛАВА</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="16" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
@@ -24359,6 +25009,11 @@
           <t>29, By Индия, Хочу спать сладко</t>
         </is>
       </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>29, Макс Корж, Жить в кайф</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="32" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
@@ -24541,6 +25196,11 @@
           <t>30, JONY, Список твоих мыслей</t>
         </is>
       </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>30, Miyagi &amp; Эндшпиль, Hajime, Pt. 3</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="32" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
@@ -24723,6 +25383,11 @@
           <t>31, The Hatters, V</t>
         </is>
       </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>31, Miyagi &amp; Эндшпиль, Неизданное, Pt. 2</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="32" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
@@ -24905,6 +25570,11 @@
           <t>32, Miyagi &amp; Эндшпиль, Hajime, Pt. 3</t>
         </is>
       </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>32, The Hatters, V</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="16" customHeight="1">
       <c r="A34" s="2" t="inlineStr">
@@ -25087,6 +25757,11 @@
           <t>33, Miyagi &amp; Эндшпиль, Неизданное, Pt. 2</t>
         </is>
       </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>33, By Индия, Хочу спать сладко</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="16" customHeight="1">
       <c r="A35" s="2" t="inlineStr">
@@ -25269,6 +25944,11 @@
           <t>34, Zivert, Vinyl #1</t>
         </is>
       </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>34, Zivert, Vinyl #1</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="16" customHeight="1">
       <c r="A36" s="2" t="inlineStr">
@@ -25451,6 +26131,11 @@
           <t>35, Гуф, Murovei, Дом, который построил Алик</t>
         </is>
       </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>35, Гуф, Murovei, Дом, который построил Алик</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="16" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
@@ -25633,6 +26318,11 @@
           <t>36, Jah Khalib, Мудрец</t>
         </is>
       </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>36, Jah Khalib, Мудрец</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="16" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
@@ -25815,6 +26505,11 @@
           <t>37, Три дня дождя, Когда ты откроешь глаза</t>
         </is>
       </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>37, Miyagi &amp; Эндшпиль, Hajime, Pt. 2</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="16" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
@@ -25997,6 +26692,11 @@
           <t>38, Баста, Баста 5, Часть 2</t>
         </is>
       </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>38, Xcho, CROSS</t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="16" customHeight="1">
       <c r="A40" s="2" t="inlineStr">
@@ -26179,6 +26879,11 @@
           <t>39, Miyagi &amp; Эндшпиль, Hajime, Pt. 2</t>
         </is>
       </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>39, Mary Gu, хорошее и плохое</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="16" customHeight="1">
       <c r="A41" s="2" t="inlineStr">
@@ -26361,6 +27066,11 @@
           <t>40, Mary Gu, хорошее и плохое</t>
         </is>
       </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>40, Баста, Баста 5, Часть 2</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="16" customHeight="1">
       <c r="A42" s="2" t="inlineStr">
@@ -26543,6 +27253,11 @@
           <t>41, Xcho, CROSS</t>
         </is>
       </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>41, Miyagi &amp; Эндшпиль, Hajime, Pt. 1</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="16" customHeight="1">
       <c r="A43" s="2" t="inlineStr">
@@ -26725,6 +27440,11 @@
           <t>42, просто Лера, ПОГОДА ЛЮБИТЬ</t>
         </is>
       </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>42, Три дня дождя, Когда ты откроешь глаза</t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="16" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
@@ -26907,6 +27627,11 @@
           <t>43, Miyagi &amp; Эндшпиль, Hajime, Pt. 1</t>
         </is>
       </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>43, Макс Корж, Малый повзрослел, Ч. 2</t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="16" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
@@ -27089,6 +27814,11 @@
           <t>44, Макс Корж, Малый повзрослел, Ч. 2</t>
         </is>
       </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>44, 104, КИНО БЕЗ СИГАРЕТ</t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="16" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
@@ -27271,6 +28001,11 @@
           <t>45, kizaru, BORN TO TRAP</t>
         </is>
       </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>45, GAYAZOV$ BROTHER$, Кредо</t>
+        </is>
+      </c>
     </row>
     <row r="47" ht="16" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
@@ -27453,6 +28188,11 @@
           <t>46, 104, КИНО БЕЗ СИГАРЕТ</t>
         </is>
       </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>46, kizaru, BORN TO TRAP</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="16" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
@@ -27635,6 +28375,11 @@
           <t>47, GAYAZOV$ BROTHER$, Кредо</t>
         </is>
       </c>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t>47, SHAMI, гости</t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="16" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
@@ -27817,6 +28562,11 @@
           <t>48, SHAMI, гости</t>
         </is>
       </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>48, просто Лера, ПОГОДА ЛЮБИТЬ</t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="32" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
@@ -27999,6 +28749,11 @@
           <t>49, MORGENSHTERN, ЛЕГЕНДАРНАЯ ПЫЛЬ</t>
         </is>
       </c>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t>49, MACAN, 2002+18</t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="32" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
@@ -28181,6 +28936,11 @@
           <t>50, Король и Шут, Акустический альбом</t>
         </is>
       </c>
+      <c r="AK51" t="inlineStr">
+        <is>
+          <t>50, MORGENSHTERN, ЛЕГЕНДАРНАЯ ПЫЛЬ</t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="32" customHeight="1">
       <c r="A52" s="2" t="inlineStr">
@@ -28363,6 +29123,11 @@
           <t>51, MACAN, 2002+18</t>
         </is>
       </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>51, Король и Шут, Акустический альбом</t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="32" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
@@ -28545,6 +29310,11 @@
           <t>52, VERBEE, Выдыхай</t>
         </is>
       </c>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>52, kizaru, Karmageddon</t>
+        </is>
+      </c>
     </row>
     <row r="54" ht="32" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
@@ -28727,6 +29497,11 @@
           <t>53, kizaru, Karmageddon</t>
         </is>
       </c>
+      <c r="AK54" t="inlineStr">
+        <is>
+          <t>53, Måneskin, Il ballo della vita</t>
+        </is>
+      </c>
     </row>
     <row r="55" ht="16" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
@@ -28909,6 +29684,11 @@
           <t>54, Måneskin, Il ballo della vita</t>
         </is>
       </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>54, Andy Panda, King Kong</t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="16" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
@@ -29091,6 +29871,11 @@
           <t>55, Егор Крид, 58</t>
         </is>
       </c>
+      <c r="AK56" t="inlineStr">
+        <is>
+          <t>55, VERBEE, Выдыхай</t>
+        </is>
+      </c>
     </row>
     <row r="57" ht="32" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
@@ -29273,6 +30058,11 @@
           <t>56, Andro, MOON FLAME</t>
         </is>
       </c>
+      <c r="AK57" t="inlineStr">
+        <is>
+          <t>56, Егор Крид, 58</t>
+        </is>
+      </c>
     </row>
     <row r="58" ht="16" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
@@ -29455,6 +30245,11 @@
           <t>57, ФОГЕЛЬ, ЛЮБОЛЬ, Pt. 1</t>
         </is>
       </c>
+      <c r="AK58" t="inlineStr">
+        <is>
+          <t>57, XXXTENTACION, ?</t>
+        </is>
+      </c>
     </row>
     <row r="59" ht="16" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
@@ -29637,6 +30432,11 @@
           <t>58, Andy Panda, King Kong</t>
         </is>
       </c>
+      <c r="AK59" t="inlineStr">
+        <is>
+          <t>58, ФОГЕЛЬ, ЛЮБОЛЬ, Pt. 1</t>
+        </is>
+      </c>
     </row>
     <row r="60" ht="16" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
@@ -29819,6 +30619,11 @@
           <t>59, XXXTENTACION, ?</t>
         </is>
       </c>
+      <c r="AK60" t="inlineStr">
+        <is>
+          <t>59, Andro, MOON FLAME</t>
+        </is>
+      </c>
     </row>
     <row r="61" ht="32" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
@@ -30001,6 +30806,11 @@
           <t>60, Artik &amp; Asti, 7 (Part 1)</t>
         </is>
       </c>
+      <c r="AK61" t="inlineStr">
+        <is>
+          <t>60, Мари Краймбрери, Нас узнает весь мир (Part 1)</t>
+        </is>
+      </c>
     </row>
     <row r="62" ht="16" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
@@ -30183,6 +30993,11 @@
           <t>61, HammAli &amp; Navai, JANAVI</t>
         </is>
       </c>
+      <c r="AK62" t="inlineStr">
+        <is>
+          <t>61, Santiz, 52 Герца</t>
+        </is>
+      </c>
     </row>
     <row r="63" ht="32" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
@@ -30365,6 +31180,11 @@
           <t>62, Rauf &amp; Faik, Я люблю тебя</t>
         </is>
       </c>
+      <c r="AK63" t="inlineStr">
+        <is>
+          <t>62, Artik &amp; Asti, 7 (Part 1)</t>
+        </is>
+      </c>
     </row>
     <row r="64" ht="16" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
@@ -30547,6 +31367,11 @@
           <t>63, Big Baby Tape, Dragonborn</t>
         </is>
       </c>
+      <c r="AK64" t="inlineStr">
+        <is>
+          <t>63, HammAli &amp; Navai, JANAVI</t>
+        </is>
+      </c>
     </row>
     <row r="65" ht="16" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
@@ -30729,6 +31554,11 @@
           <t>64, Мари Краймбрери, Нас узнает весь мир (Part 1)</t>
         </is>
       </c>
+      <c r="AK65" t="inlineStr">
+        <is>
+          <t>64, Big Baby Tape, Dragonborn</t>
+        </is>
+      </c>
     </row>
     <row r="66" ht="32" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
@@ -30911,6 +31741,11 @@
           <t>65, Santiz, 52 Герца</t>
         </is>
       </c>
+      <c r="AK66" t="inlineStr">
+        <is>
+          <t>65, Тимати, Транзит</t>
+        </is>
+      </c>
     </row>
     <row r="67" ht="32" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
@@ -31093,6 +31928,11 @@
           <t>66, Тимати, Транзит</t>
         </is>
       </c>
+      <c r="AK67" t="inlineStr">
+        <is>
+          <t>66, Boulevard Depo, OLD BLOOD</t>
+        </is>
+      </c>
     </row>
     <row r="68" ht="32" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
@@ -31275,6 +32115,11 @@
           <t>67, Boulevard Depo, OLD BLOOD</t>
         </is>
       </c>
+      <c r="AK68" t="inlineStr">
+        <is>
+          <t>67, Rauf &amp; Faik, Я люблю тебя</t>
+        </is>
+      </c>
     </row>
     <row r="69" ht="32" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
@@ -31457,6 +32302,11 @@
           <t>68, Пошлая Молли, 8 способов как бросить…</t>
         </is>
       </c>
+      <c r="AK69" t="inlineStr">
+        <is>
+          <t>68, Markul, Great Depression</t>
+        </is>
+      </c>
     </row>
     <row r="70" ht="32" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
@@ -31639,6 +32489,11 @@
           <t>69, Jah Khalib, Если Че Я Баха</t>
         </is>
       </c>
+      <c r="AK70" t="inlineStr">
+        <is>
+          <t>69, Баста, Баста 3</t>
+        </is>
+      </c>
     </row>
     <row r="71" ht="16" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
@@ -31821,6 +32676,11 @@
           <t>70, Юрий Хой, Сектор Газа, Вой на Луну. Лучшее и неизданное</t>
         </is>
       </c>
+      <c r="AK71" t="inlineStr">
+        <is>
+          <t>70, Кино, Легенда</t>
+        </is>
+      </c>
     </row>
     <row r="72" ht="32" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
@@ -32003,6 +32863,11 @@
           <t>71, Markul, Great Depression</t>
         </is>
       </c>
+      <c r="AK72" t="inlineStr">
+        <is>
+          <t>71, Порнофильмы, В диапазоне между отчаянием и надеждой</t>
+        </is>
+      </c>
     </row>
     <row r="73" ht="16" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
@@ -32185,6 +33050,11 @@
           <t>72, Кино, Легенда</t>
         </is>
       </c>
+      <c r="AK73" t="inlineStr">
+        <is>
+          <t>72, Юрий Хой, Сектор Газа, Вой на Луну. Лучшее и неизданное</t>
+        </is>
+      </c>
     </row>
     <row r="74" ht="16" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
@@ -32367,6 +33237,11 @@
           <t>73, Баста, Баста 3</t>
         </is>
       </c>
+      <c r="AK74" t="inlineStr">
+        <is>
+          <t>73, АК-47, Третий</t>
+        </is>
+      </c>
     </row>
     <row r="75" ht="32" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
@@ -32549,6 +33424,11 @@
           <t>74, Порнофильмы, В диапазоне между отчаянием и надеждой</t>
         </is>
       </c>
+      <c r="AK75" t="inlineStr">
+        <is>
+          <t>74, Boulevard Depo, JEEMBO, ОМОФОР</t>
+        </is>
+      </c>
     </row>
     <row r="76" ht="16" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
@@ -32731,6 +33611,11 @@
           <t>75, Баста, 40</t>
         </is>
       </c>
+      <c r="AK76" t="inlineStr">
+        <is>
+          <t>75, OG Buda, SEXY DRILL</t>
+        </is>
+      </c>
     </row>
     <row r="77" ht="32" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
@@ -32913,6 +33798,11 @@
           <t>76, Boulevard Depo, JEEMBO, ОМОФОР</t>
         </is>
       </c>
+      <c r="AK77" t="inlineStr">
+        <is>
+          <t>76, Ramil', Всё, что есть у меня - это голод</t>
+        </is>
+      </c>
     </row>
     <row r="78" ht="32" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
@@ -33095,6 +33985,11 @@
           <t>77, Ramil', Всё, что есть у меня - это голод</t>
         </is>
       </c>
+      <c r="AK78" t="inlineStr">
+        <is>
+          <t>77, Баста, 40</t>
+        </is>
+      </c>
     </row>
     <row r="79" ht="32" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
@@ -33277,6 +34172,11 @@
           <t>78, АК-47, Третий</t>
         </is>
       </c>
+      <c r="AK79" t="inlineStr">
+        <is>
+          <t>78, Jah Khalib, Если Че Я Баха</t>
+        </is>
+      </c>
     </row>
     <row r="80" ht="32" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
@@ -33459,6 +34359,11 @@
           <t>79, Бриллиантовый Ти, Альбом номер 1</t>
         </is>
       </c>
+      <c r="AK80" t="inlineStr">
+        <is>
+          <t>79, PHARAOH, Million Dollar Depression</t>
+        </is>
+      </c>
     </row>
     <row r="81" ht="16" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
@@ -33641,6 +34546,11 @@
           <t>80, V $ X V PRiNCE, NERVЫ</t>
         </is>
       </c>
+      <c r="AK81" t="inlineStr">
+        <is>
+          <t>80, Jah Khalib, E.G.O.</t>
+        </is>
+      </c>
     </row>
     <row r="82" ht="16" customHeight="1">
       <c r="A82" s="2" t="inlineStr">
@@ -33823,6 +34733,11 @@
           <t>81, Jah Khalib, E.G.O.</t>
         </is>
       </c>
+      <c r="AK82" t="inlineStr">
+        <is>
+          <t>81, Пошлая Молли, 8 способов как бросить…</t>
+        </is>
+      </c>
     </row>
     <row r="83" ht="16" customHeight="1">
       <c r="A83" s="2" t="inlineStr">
@@ -34005,6 +34920,11 @@
           <t>82, OG Buda, SEXY DRILL</t>
         </is>
       </c>
+      <c r="AK83" t="inlineStr">
+        <is>
+          <t>82, Ramil', Хочешь со мной</t>
+        </is>
+      </c>
     </row>
     <row r="84" ht="16" customHeight="1">
       <c r="A84" s="2" t="inlineStr">
@@ -34187,6 +35107,11 @@
           <t>83, Ramil', Хочешь со мной</t>
         </is>
       </c>
+      <c r="AK84" t="inlineStr">
+        <is>
+          <t>83, LOVV66, PUZZLES</t>
+        </is>
+      </c>
     </row>
     <row r="85" ht="16" customHeight="1">
       <c r="A85" s="2" t="inlineStr">
@@ -34369,6 +35294,11 @@
           <t>84, Billie Eilish, WHEN WE ALL FALL ASLEEP, WHERE DO WE GO?</t>
         </is>
       </c>
+      <c r="AK85" t="inlineStr">
+        <is>
+          <t>84, MACAN, 1000 км до мечты</t>
+        </is>
+      </c>
     </row>
     <row r="86" ht="16" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
@@ -34551,6 +35481,11 @@
           <t>85, OG Buda, ОПГ СИТИ</t>
         </is>
       </c>
+      <c r="AK86" t="inlineStr">
+        <is>
+          <t>85, Billie Eilish, WHEN WE ALL FALL ASLEEP, WHERE DO WE GO?</t>
+        </is>
+      </c>
     </row>
     <row r="87" ht="16" customHeight="1">
       <c r="A87" s="2" t="inlineStr">
@@ -34733,6 +35668,11 @@
           <t>86, LOVV66, PUZZLES</t>
         </is>
       </c>
+      <c r="AK87" t="inlineStr">
+        <is>
+          <t>86, TARAS, В режиме полёта</t>
+        </is>
+      </c>
     </row>
     <row r="88" ht="32" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
@@ -34915,6 +35855,11 @@
           <t>87, PHARAOH, Million Dollar Depression</t>
         </is>
       </c>
+      <c r="AK88" t="inlineStr">
+        <is>
+          <t>87, Navai, Три песни</t>
+        </is>
+      </c>
     </row>
     <row r="89" ht="16" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
@@ -35097,6 +36042,11 @@
           <t>88, Платина, Опиаты Круг</t>
         </is>
       </c>
+      <c r="AK89" t="inlineStr">
+        <is>
+          <t>88, OG Buda, ОПГ СИТИ</t>
+        </is>
+      </c>
     </row>
     <row r="90" ht="16" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
@@ -35279,6 +36229,11 @@
           <t>89, TARAS, В режиме полёта</t>
         </is>
       </c>
+      <c r="AK90" t="inlineStr">
+        <is>
+          <t>89, ELMAN, Муза</t>
+        </is>
+      </c>
     </row>
     <row r="91" ht="16" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
@@ -35461,6 +36416,11 @@
           <t>90, MACAN, 1000 км до мечты</t>
         </is>
       </c>
+      <c r="AK91" t="inlineStr">
+        <is>
+          <t>90, Jah Khalib, Все что мы любим</t>
+        </is>
+      </c>
     </row>
     <row r="92" ht="16" customHeight="1">
       <c r="A92" s="2" t="inlineStr">
@@ -35643,6 +36603,11 @@
           <t>91, Макс Корж, Домашний (Полная версия)</t>
         </is>
       </c>
+      <c r="AK92" t="inlineStr">
+        <is>
+          <t>91, LIZER, Не Ангел</t>
+        </is>
+      </c>
     </row>
     <row r="93" ht="32" customHeight="1">
       <c r="A93" s="2" t="inlineStr">
@@ -35825,6 +36790,11 @@
           <t>92, Леша Свик, Инсомния</t>
         </is>
       </c>
+      <c r="AK93" t="inlineStr">
+        <is>
+          <t>92, Платина, Опиаты Круг</t>
+        </is>
+      </c>
     </row>
     <row r="94" ht="32" customHeight="1">
       <c r="A94" s="2" t="inlineStr">
@@ -36007,6 +36977,11 @@
           <t>93, Navai, Три песни</t>
         </is>
       </c>
+      <c r="AK94" t="inlineStr">
+        <is>
+          <t>93, Леша Свик, Инсомния</t>
+        </is>
+      </c>
     </row>
     <row r="95" ht="32" customHeight="1">
       <c r="A95" s="2" t="inlineStr">
@@ -36189,6 +37164,11 @@
           <t>94, LIZER, Не Ангел</t>
         </is>
       </c>
+      <c r="AK95" t="inlineStr">
+        <is>
+          <t>94, Бриллиантовый Ти, Альбом номер 1</t>
+        </is>
+      </c>
     </row>
     <row r="96" ht="32" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
@@ -36371,6 +37351,11 @@
           <t>95, Егор Крид, Что они знают?</t>
         </is>
       </c>
+      <c r="AK96" t="inlineStr">
+        <is>
+          <t>95, MONATIK, LOVE IT ритм</t>
+        </is>
+      </c>
     </row>
     <row r="97" ht="32" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
@@ -36553,6 +37538,11 @@
           <t>96, ELMAN, Муза</t>
         </is>
       </c>
+      <c r="AK97" t="inlineStr">
+        <is>
+          <t>96, T-Fest, Иностранец</t>
+        </is>
+      </c>
     </row>
     <row r="98" ht="32" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
@@ -36735,6 +37725,11 @@
           <t>97, Тима Белорусских, Твой первый диск - моя кассета</t>
         </is>
       </c>
+      <c r="AK98" t="inlineStr">
+        <is>
+          <t>97, Егор Крид, Что они знают?</t>
+        </is>
+      </c>
     </row>
     <row r="99" ht="32" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
@@ -36917,6 +37912,11 @@
           <t>98, Little Big, COVERS</t>
         </is>
       </c>
+      <c r="AK99" t="inlineStr">
+        <is>
+          <t>98, Каспийский Груз, Сторона А сторона Б</t>
+        </is>
+      </c>
     </row>
     <row r="100" ht="32" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
@@ -37099,6 +38099,11 @@
           <t>99, Каспийский Груз, Сторона А сторона Б</t>
         </is>
       </c>
+      <c r="AK100" t="inlineStr">
+        <is>
+          <t>99, Little Big, COVERS</t>
+        </is>
+      </c>
     </row>
     <row r="101" ht="32" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
@@ -37279,6 +38284,11 @@
       <c r="AJ101" t="inlineStr">
         <is>
           <t>100, МАКSИМ, ТРУДНЫЙ ВОЗРАСТ</t>
+        </is>
+      </c>
+      <c r="AK101" t="inlineStr">
+        <is>
+          <t>100, lil krystalll, NO LABEL</t>
         </is>
       </c>
     </row>
@@ -37293,7 +38303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ101"/>
+  <dimension ref="A1:AK101"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" zoomScale="91" workbookViewId="0">
       <selection activeCell="AG1" sqref="AG1:AG1048576"/>
@@ -37484,6 +38494,11 @@
           <t>2021-06-06</t>
         </is>
       </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="16" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
@@ -37666,6 +38681,11 @@
           <t xml:space="preserve">1, HammAli &amp; Navai,   Птичка </t>
         </is>
       </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1, HammAli &amp; Navai,   Птичка </t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="64" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
@@ -37848,6 +38868,11 @@
           <t xml:space="preserve">2, Джарахов, Markul,   Я в моменте </t>
         </is>
       </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2, Джарахов, Markul,   Я в моменте </t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -38030,6 +39055,11 @@
           <t xml:space="preserve">3, Masked Wolf,   Astronaut In The Ocean </t>
         </is>
       </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3, Masked Wolf,   Astronaut In The Ocean </t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="64" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -38212,6 +39242,11 @@
           <t xml:space="preserve">4, ХАБИБ,   Ягода малинка </t>
         </is>
       </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4, DEAD BLONDE,   Мальчик на девятке </t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="32" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -38394,6 +39429,11 @@
           <t xml:space="preserve">5, DEAD BLONDE,   Мальчик на девятке </t>
         </is>
       </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5, GAYAZOV$ BROTHER$, Filatov &amp; Karas,   Пошла жара </t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="48" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -38576,6 +39616,11 @@
           <t xml:space="preserve">6, Султан Лагучев,   Горький вкус </t>
         </is>
       </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6, ХАБИБ,   Ягода малинка </t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="32" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -38758,6 +39803,11 @@
           <t xml:space="preserve">7, Artik &amp; Asti,   Истеричка </t>
         </is>
       </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7, Artik &amp; Asti,   Истеричка </t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="32" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -38940,6 +39990,11 @@
           <t xml:space="preserve">8, Little Big,   Everybody (Little Big Are Back) </t>
         </is>
       </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8, Султан Лагучев,   Горький вкус </t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="16" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -39122,6 +40177,11 @@
           <t xml:space="preserve">9, Minelli,   Rampampam </t>
         </is>
       </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9, Minelli,   Rampampam </t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="64" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
@@ -39304,6 +40364,11 @@
           <t xml:space="preserve">10, MORGENSHTERN,   ДУЛО </t>
         </is>
       </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10, Little Big,   Everybody (Little Big Are Back) </t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="32" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
@@ -39486,6 +40551,11 @@
           <t>11, Måneskin,   ZITTI E BUONI Италия. Победитель на «Евровидении-2021»</t>
         </is>
       </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>11, Måneskin,   ZITTI E BUONI Италия. Победитель на «Евровидении-2021»</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="32" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
@@ -39668,6 +40738,11 @@
           <t xml:space="preserve">12, Ramil',   Сон </t>
         </is>
       </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12, Miyagi &amp; Andy Panda, TumaniYO,   Оттепель </t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="16" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -39850,6 +40925,11 @@
           <t xml:space="preserve">13, Ваня Дмитриенко,   Венера-Юпитер </t>
         </is>
       </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13, MORGENSHTERN,   ДУЛО </t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="16" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -40032,6 +41112,11 @@
           <t xml:space="preserve">14, Клава Кока &amp; Руки Вверх!,   Нокаут </t>
         </is>
       </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14, Ramil',   Сон </t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="32" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -40214,6 +41299,11 @@
           <t xml:space="preserve">15, Dabro,   Юность </t>
         </is>
       </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15, Клава Кока &amp; Руки Вверх!,   Нокаут </t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="32" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -40396,6 +41486,11 @@
           <t xml:space="preserve">16, Dabro,   На часах ноль-ноль </t>
         </is>
       </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16, Ваня Дмитриенко,   Венера-Юпитер </t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="32" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -40578,6 +41673,11 @@
           <t xml:space="preserve">17, SLAVA MARLOW,   ТЫ ГОРИШЬ КАК ОГОНЬ </t>
         </is>
       </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17, Måneskin,   I WANNA BE YOUR SLAVE </t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="64" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -40760,6 +41860,11 @@
           <t xml:space="preserve">18, Макс Барских, Zivert,   BESTSELLER </t>
         </is>
       </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18, Dabro,   На часах ноль-ноль </t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="32" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -40942,6 +42047,11 @@
           <t xml:space="preserve">19, Måneskin,   I WANNA BE YOUR SLAVE </t>
         </is>
       </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19, SLAVA MARLOW,   ТЫ ГОРИШЬ КАК ОГОНЬ </t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="32" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
@@ -41124,6 +42234,11 @@
           <t xml:space="preserve">20, MORGENSHTERN,   SHOW </t>
         </is>
       </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20, Dabro,   Юность </t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="64" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
@@ -41306,6 +42421,11 @@
           <t xml:space="preserve">21, Miyagi &amp; Andy Panda,   Патрон </t>
         </is>
       </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21, Макс Барских, Zivert,   BESTSELLER </t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="32" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -41488,6 +42608,11 @@
           <t xml:space="preserve">22, Король и Шут,   Кукла колдуна </t>
         </is>
       </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22, MORGENSHTERN,   SHOW </t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="16" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -41670,6 +42795,11 @@
           <t xml:space="preserve">23, MOT, LYRIQ,   Не Бруклин </t>
         </is>
       </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23, Miyagi &amp; Andy Panda,   Патрон </t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="32" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -41852,6 +42982,11 @@
           <t xml:space="preserve">24, The Weeknd,   Blinding Lights </t>
         </is>
       </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24, MOT, LYRIQ,   Не Бруклин </t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="32" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -42034,6 +43169,11 @@
           <t xml:space="preserve">25, Клава Кока &amp; NILETTO,   Краш </t>
         </is>
       </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25, DEAD BLONDE,   Бесприданница </t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="32" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -42216,6 +43356,11 @@
           <t xml:space="preserve">26, JONY,   Комета </t>
         </is>
       </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26, Король и Шут,   Кукла колдуна </t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="32" customHeight="1">
       <c r="A28" s="2" t="inlineStr">
@@ -42398,6 +43543,11 @@
           <t xml:space="preserve">27, LOBODA,   Родной </t>
         </is>
       </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">27, The Weeknd,   Blinding Lights </t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="16" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
@@ -42580,6 +43730,11 @@
           <t xml:space="preserve">28, GAYAZOV$ BROTHER$, Filatov &amp; Karas,   Пошла жара </t>
         </is>
       </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28, JONY,   Комета </t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="48" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
@@ -42762,6 +43917,11 @@
           <t xml:space="preserve">29, Rauf &amp; Faik, NILETTO,   Если тебе будет грустно </t>
         </is>
       </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">29, VAVAN, Лилая,   АМУР </t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="32" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
@@ -42944,6 +44104,11 @@
           <t xml:space="preserve">30, Анет Сай, NILETTO,   Не люблю? </t>
         </is>
       </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30, Анет Сай, NILETTO,   Не люблю? </t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="64" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
@@ -43126,6 +44291,11 @@
           <t xml:space="preserve">31, Miyagi &amp; Andy Panda, TumaniYO,   Оттепель </t>
         </is>
       </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">31, LOBODA,   Родной </t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="32" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
@@ -43308,6 +44478,11 @@
           <t xml:space="preserve">32, VAVAN, Лилая,   АМУР </t>
         </is>
       </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">32, Rauf &amp; Faik, NILETTO,   Если тебе будет грустно </t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="32" customHeight="1">
       <c r="A34" s="2" t="inlineStr">
@@ -43490,6 +44665,11 @@
           <t xml:space="preserve">33, DEAD BLONDE,   Бесприданница </t>
         </is>
       </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33, Клава Кока &amp; NILETTO,   Краш </t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="64" customHeight="1">
       <c r="A35" s="2" t="inlineStr">
@@ -43672,6 +44852,11 @@
           <t xml:space="preserve">34, Ramil',   Сияй </t>
         </is>
       </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">34, Mekhman,   Копия пиратская </t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="32" customHeight="1">
       <c r="A36" s="2" t="inlineStr">
@@ -43854,6 +45039,11 @@
           <t xml:space="preserve">35, Gaullin, Julian Perretta,   Seven Nation Army </t>
         </is>
       </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">35, Nebezao,   Безумно любил </t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="32" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
@@ -44036,6 +45226,11 @@
           <t xml:space="preserve">36, Miyagi &amp; Andy Panda,   Minor </t>
         </is>
       </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36, Ramil',   Сияй </t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="16" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
@@ -44218,6 +45413,11 @@
           <t xml:space="preserve">37, Lil Nas X,   MONTERO (Call Me By Your Name) </t>
         </is>
       </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>37, Masked Wolf, Alok,   Astronaut In The Ocean Alok Remix</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="32" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
@@ -44400,6 +45600,11 @@
           <t xml:space="preserve">38, Zivert,   Beverly Hills </t>
         </is>
       </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">38, Gaullin, Julian Perretta,   Seven Nation Army </t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="16" customHeight="1">
       <c r="A40" s="2" t="inlineStr">
@@ -44582,6 +45787,11 @@
           <t xml:space="preserve">39, NILETTO,   Любимка </t>
         </is>
       </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>39, David Guetta, MORTEN, John Martin,   Impossible feat. John Martin</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="16" customHeight="1">
       <c r="A41" s="2" t="inlineStr">
@@ -44764,6 +45974,11 @@
           <t xml:space="preserve">40, Zivert,   Life </t>
         </is>
       </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40, Miyagi &amp; Andy Panda,   Minor </t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="32" customHeight="1">
       <c r="A42" s="2" t="inlineStr">
@@ -44946,6 +46161,11 @@
           <t xml:space="preserve">41, Mekhman,   Копия пиратская </t>
         </is>
       </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">41, Lil Nas X,   MONTERO (Call Me By Your Name) </t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="32" customHeight="1">
       <c r="A43" s="2" t="inlineStr">
@@ -45128,6 +46348,11 @@
           <t xml:space="preserve">42, Artik &amp; Asti,   Девочка, танцуй </t>
         </is>
       </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">42, Zivert,   Beverly Hills </t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="32" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
@@ -45310,6 +46535,11 @@
           <t>43, Masked Wolf, Alok,   Astronaut In The Ocean Alok Remix</t>
         </is>
       </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">43, Billie Eilish,   Lost Cause </t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="32" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
@@ -45492,6 +46722,11 @@
           <t xml:space="preserve">44, VAVAN, Руки Вверх!,   Ай-яй-яй </t>
         </is>
       </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">44, Zivert,   Life </t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="48" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
@@ -45674,6 +46909,11 @@
           <t>45, Filatov &amp; Karas, Minelli,   Rampampam Filatov &amp; Karas Remix</t>
         </is>
       </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45, Miyagi &amp; Andy Panda,   Там ревели горы </t>
+        </is>
+      </c>
     </row>
     <row r="47" ht="32" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
@@ -45856,6 +47096,11 @@
           <t xml:space="preserve">46, Tiësto,   The Business </t>
         </is>
       </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>46, Filatov &amp; Karas, Minelli,   Rampampam Filatov &amp; Karas Remix</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="48" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
@@ -46038,6 +47283,11 @@
           <t xml:space="preserve">47, Miyagi &amp; Andy Panda,   Там ревели горы </t>
         </is>
       </c>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">47, Mary Gu,   Косички </t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="32" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
@@ -46220,6 +47470,11 @@
           <t xml:space="preserve">48, HammAli &amp; Navai,   Прятки </t>
         </is>
       </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">48, MOT, JONY,   Лилии </t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="32" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
@@ -46402,6 +47657,11 @@
           <t xml:space="preserve">49, Mary Gu,   Косички </t>
         </is>
       </c>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">49, Monoir, Eneli,   3 to 1 </t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="32" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
@@ -46584,6 +47844,11 @@
           <t xml:space="preserve">50, SLAVA MARLOW,   Снова я напиваюсь </t>
         </is>
       </c>
+      <c r="AK51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">50, 10AGE,   Нету интереса </t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="16" customHeight="1">
       <c r="A52" s="2" t="inlineStr">
@@ -46766,6 +48031,11 @@
           <t xml:space="preserve">51, MOT, JONY,   Лилии </t>
         </is>
       </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">51, NILETTO,   Любимка </t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="32" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
@@ -46948,6 +48218,11 @@
           <t xml:space="preserve">52, Monoir, Eneli,   3 to 1 </t>
         </is>
       </c>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">52, INNA,   Flashbacks </t>
+        </is>
+      </c>
     </row>
     <row r="54" ht="32" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
@@ -47130,6 +48405,11 @@
           <t xml:space="preserve">53, MORGENSHTERN, Элджей,   Cadillac </t>
         </is>
       </c>
+      <c r="AK54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">53, The Kiffness,   Alugalug Cat </t>
+        </is>
+      </c>
     </row>
     <row r="55" ht="32" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
@@ -47312,6 +48592,11 @@
           <t xml:space="preserve">54, 10AGE,   Нету интереса </t>
         </is>
       </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">54, HammAli &amp; Navai,   Прятки </t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="32" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
@@ -47494,6 +48779,11 @@
           <t xml:space="preserve">55, MORGENSHTERN,   ARISTOCRAT </t>
         </is>
       </c>
+      <c r="AK56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55, Tiësto,   The Business </t>
+        </is>
+      </c>
     </row>
     <row r="57" ht="32" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
@@ -47676,6 +48966,11 @@
           <t xml:space="preserve">56, Король и Шут,   Лесник </t>
         </is>
       </c>
+      <c r="AK57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">56, Artik &amp; Asti,   Девочка, танцуй </t>
+        </is>
+      </c>
     </row>
     <row r="58" ht="32" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
@@ -47858,6 +49153,11 @@
           <t xml:space="preserve">57, Artik &amp; Asti, Артём Качер,   Грустный дэнс </t>
         </is>
       </c>
+      <c r="AK58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">57, VAVAN, Руки Вверх!,   Ай-яй-яй </t>
+        </is>
+      </c>
     </row>
     <row r="59" ht="32" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
@@ -48040,6 +49340,11 @@
           <t xml:space="preserve">58, INNA,   Flashbacks </t>
         </is>
       </c>
+      <c r="AK59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">58, ter.bium,   Ты далеко </t>
+        </is>
+      </c>
     </row>
     <row r="60" ht="32" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
@@ -48222,6 +49527,11 @@
           <t>59, Manizha,   RUSSIAN WOMAN Россия на «Евровидении-2021»</t>
         </is>
       </c>
+      <c r="AK60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59, SLAVA MARLOW,   Снова я напиваюсь </t>
+        </is>
+      </c>
     </row>
     <row r="61" ht="16" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
@@ -48404,6 +49714,11 @@
           <t xml:space="preserve">60, Zivert,   ЯТЛ </t>
         </is>
       </c>
+      <c r="AK61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">60, MORGENSHTERN,   ARISTOCRAT </t>
+        </is>
+      </c>
     </row>
     <row r="62" ht="32" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
@@ -48586,6 +49901,11 @@
           <t xml:space="preserve">61, DOROFEEVA,   gorit </t>
         </is>
       </c>
+      <c r="AK62" t="inlineStr">
+        <is>
+          <t>61, Manizha,   RUSSIAN WOMAN Россия на «Евровидении-2021»</t>
+        </is>
+      </c>
     </row>
     <row r="63" ht="32" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
@@ -48768,6 +50088,11 @@
           <t xml:space="preserve">62, Slider &amp; Magnit,   Down Low </t>
         </is>
       </c>
+      <c r="AK63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">62, Лилу45,   Восемь </t>
+        </is>
+      </c>
     </row>
     <row r="64" ht="32" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
@@ -48950,6 +50275,11 @@
           <t xml:space="preserve">63, Miyagi &amp; Эндшпиль, Рем Дигга,   I Got Love </t>
         </is>
       </c>
+      <c r="AK64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">63, MORGENSHTERN, Элджей,   Cadillac </t>
+        </is>
+      </c>
     </row>
     <row r="65" ht="16" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
@@ -49132,6 +50462,11 @@
           <t xml:space="preserve">64, Zivert,   Credo </t>
         </is>
       </c>
+      <c r="AK65" t="inlineStr">
+        <is>
+          <t>64, Minelli, KEAN DYSSO,   Rampampam Kean Dysso Remix</t>
+        </is>
+      </c>
     </row>
     <row r="66" ht="32" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
@@ -49314,6 +50649,11 @@
           <t xml:space="preserve">65, Linkin Park,   Numb </t>
         </is>
       </c>
+      <c r="AK66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">65, Скриптонит,   Будьте здоровы </t>
+        </is>
+      </c>
     </row>
     <row r="67" ht="32" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
@@ -49496,6 +50836,11 @@
           <t xml:space="preserve">66, Лилу45,   Восемь </t>
         </is>
       </c>
+      <c r="AK67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">66, Zivert,   ЯТЛ </t>
+        </is>
+      </c>
     </row>
     <row r="68" ht="16" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
@@ -49678,6 +51023,11 @@
           <t xml:space="preserve">67, Скриптонит,   Будьте здоровы </t>
         </is>
       </c>
+      <c r="AK68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">67, Miyagi &amp; Эндшпиль, Рем Дигга,   I Got Love </t>
+        </is>
+      </c>
     </row>
     <row r="69" ht="16" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
@@ -49860,6 +51210,11 @@
           <t xml:space="preserve">68, GAYAZOV$ BROTHER$,   Увезите меня на Дип-хаус </t>
         </is>
       </c>
+      <c r="AK69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">68, DOROFEEVA,   gorit </t>
+        </is>
+      </c>
     </row>
     <row r="70" ht="32" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
@@ -50042,6 +51397,11 @@
           <t xml:space="preserve">69, Элджей,   Первая Полоса </t>
         </is>
       </c>
+      <c r="AK70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">69, Artik &amp; Asti, Артём Качер,   Грустный дэнс </t>
+        </is>
+      </c>
     </row>
     <row r="71" ht="16" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
@@ -50224,6 +51584,11 @@
           <t xml:space="preserve">70, Тимати,   Падаем вместе </t>
         </is>
       </c>
+      <c r="AK71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">70, Король и Шут,   Лесник </t>
+        </is>
+      </c>
     </row>
     <row r="72" ht="32" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
@@ -50406,6 +51771,11 @@
           <t xml:space="preserve">71, Клава Кока,   Покинула чат </t>
         </is>
       </c>
+      <c r="AK72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">71, Zivert,   Credo </t>
+        </is>
+      </c>
     </row>
     <row r="73" ht="32" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
@@ -50588,6 +51958,11 @@
           <t xml:space="preserve">72, HENSY,   Поболело и прошло </t>
         </is>
       </c>
+      <c r="AK73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">72, Slider &amp; Magnit,   Down Low </t>
+        </is>
+      </c>
     </row>
     <row r="74" ht="48" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
@@ -50770,6 +52145,11 @@
           <t xml:space="preserve">73, Artik &amp; Asti,   Все мимо </t>
         </is>
       </c>
+      <c r="AK74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">73, Else,   Paris </t>
+        </is>
+      </c>
     </row>
     <row r="75" ht="16" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
@@ -50952,6 +52332,11 @@
           <t xml:space="preserve">74, Else,   Paris </t>
         </is>
       </c>
+      <c r="AK75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">74, Linkin Park,   Numb </t>
+        </is>
+      </c>
     </row>
     <row r="76" ht="32" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
@@ -51134,6 +52519,11 @@
           <t xml:space="preserve">75, Султан Лагучев,   Между нами война </t>
         </is>
       </c>
+      <c r="AK76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">75, Måneskin,   Beggin' </t>
+        </is>
+      </c>
     </row>
     <row r="77" ht="32" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
@@ -51316,6 +52706,11 @@
           <t xml:space="preserve">76, Клава Кока,   Пьяную домой </t>
         </is>
       </c>
+      <c r="AK77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76, Элджей,   Первая Полоса </t>
+        </is>
+      </c>
     </row>
     <row r="78" ht="32" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
@@ -51498,6 +52893,11 @@
           <t xml:space="preserve">77, Артур Пирожков,   #туДЫМ-сюДЫМ </t>
         </is>
       </c>
+      <c r="AK78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">77, Basstrologe,   Somebody To Love </t>
+        </is>
+      </c>
     </row>
     <row r="79" ht="32" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
@@ -51680,6 +53080,11 @@
           <t xml:space="preserve">78, MORGENSHTERN,   Cristal &amp; МОЁТ </t>
         </is>
       </c>
+      <c r="AK79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">78, HENSY,   Поболело и прошло </t>
+        </is>
+      </c>
     </row>
     <row r="80" ht="16" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
@@ -51862,6 +53267,11 @@
           <t xml:space="preserve">79, Basstrologe,   Somebody To Love </t>
         </is>
       </c>
+      <c r="AK80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79, Mia Boyka &amp; ЕГОР ШИП,   Пикачу </t>
+        </is>
+      </c>
     </row>
     <row r="81" ht="32" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
@@ -52044,6 +53454,11 @@
           <t xml:space="preserve">80, Timran, ZELL, Batrai, Aslai,   Не пускайте танцевать </t>
         </is>
       </c>
+      <c r="AK81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">80, Nessa Barrett, jxdn,   la di die </t>
+        </is>
+      </c>
     </row>
     <row r="82" ht="32" customHeight="1">
       <c r="A82" s="2" t="inlineStr">
@@ -52226,6 +53641,11 @@
           <t xml:space="preserve">81, Тайпан, Agunda,   Луна не знает пути </t>
         </is>
       </c>
+      <c r="AK82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">81, Тимати,   Падаем вместе </t>
+        </is>
+      </c>
     </row>
     <row r="83" ht="32" customHeight="1">
       <c r="A83" s="2" t="inlineStr">
@@ -52408,6 +53828,11 @@
           <t xml:space="preserve">82, Mia Boyka &amp; ЕГОР ШИП,   Пикачу </t>
         </is>
       </c>
+      <c r="AK83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">82, Клава Кока,   Покинула чат </t>
+        </is>
+      </c>
     </row>
     <row r="84" ht="32" customHeight="1">
       <c r="A84" s="2" t="inlineStr">
@@ -52590,6 +54015,11 @@
           <t xml:space="preserve">83, дора,   Втюрилась </t>
         </is>
       </c>
+      <c r="AK84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">83, Artik &amp; Asti,   Все мимо </t>
+        </is>
+      </c>
     </row>
     <row r="85" ht="32" customHeight="1">
       <c r="A85" s="2" t="inlineStr">
@@ -52772,6 +54202,11 @@
           <t xml:space="preserve">84, Zivert, Баста,   неболей </t>
         </is>
       </c>
+      <c r="AK85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">84, MORGENSHTERN,   Cristal &amp; МОЁТ </t>
+        </is>
+      </c>
     </row>
     <row r="86" ht="32" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
@@ -52954,6 +54389,11 @@
           <t xml:space="preserve">85, Nessa Barrett, jxdn,   la di die </t>
         </is>
       </c>
+      <c r="AK86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85, дора,   Втюрилась </t>
+        </is>
+      </c>
     </row>
     <row r="87" ht="48" customHeight="1">
       <c r="A87" s="2" t="inlineStr">
@@ -53136,6 +54576,11 @@
           <t xml:space="preserve">86, PIZZA,   Улыбка </t>
         </is>
       </c>
+      <c r="AK87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">86, Timran, ZELL, Batrai, Aslai,   Не пускайте танцевать </t>
+        </is>
+      </c>
     </row>
     <row r="88" ht="48" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
@@ -53318,6 +54763,11 @@
           <t xml:space="preserve">87, The Kiffness,   Alugalug Cat </t>
         </is>
       </c>
+      <c r="AK88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">87, Султан Лагучев,   Между нами война </t>
+        </is>
+      </c>
     </row>
     <row r="89" ht="16" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
@@ -53500,6 +54950,11 @@
           <t xml:space="preserve">88, Imagine Dragons,   Believer </t>
         </is>
       </c>
+      <c r="AK89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">88, Клава Кока,   Пьяную домой </t>
+        </is>
+      </c>
     </row>
     <row r="90" ht="32" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
@@ -53682,6 +55137,11 @@
           <t xml:space="preserve">89, Cream Soda, Хлеб,   Плачу на техно </t>
         </is>
       </c>
+      <c r="AK90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89, GAYAZOV$ BROTHER$,   Увезите меня на Дип-хаус </t>
+        </is>
+      </c>
     </row>
     <row r="91" ht="32" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
@@ -53864,6 +55324,11 @@
           <t xml:space="preserve">90, Billie Eilish,   Lost Cause </t>
         </is>
       </c>
+      <c r="AK91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">90, FEDUK,   Песня про лето </t>
+        </is>
+      </c>
     </row>
     <row r="92" ht="32" customHeight="1">
       <c r="A92" s="2" t="inlineStr">
@@ -54046,6 +55511,11 @@
           <t xml:space="preserve">91, Звери,   Районы-кварталы </t>
         </is>
       </c>
+      <c r="AK92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">91, Imagine Dragons,   Believer </t>
+        </is>
+      </c>
     </row>
     <row r="93" ht="16" customHeight="1">
       <c r="A93" s="2" t="inlineStr">
@@ -54228,6 +55698,11 @@
           <t xml:space="preserve">92, Intelligency,   August </t>
         </is>
       </c>
+      <c r="AK93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">92, Тайпан, Agunda,   Луна не знает пути </t>
+        </is>
+      </c>
     </row>
     <row r="94" ht="16" customHeight="1">
       <c r="A94" s="2" t="inlineStr">
@@ -54410,6 +55885,11 @@
           <t xml:space="preserve">93, GAYAZOV$ BROTHER$,   Я, ТЫ и МОРЕ </t>
         </is>
       </c>
+      <c r="AK94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">93, PIZZA,   Улыбка </t>
+        </is>
+      </c>
     </row>
     <row r="95" ht="32" customHeight="1">
       <c r="A95" s="2" t="inlineStr">
@@ -54592,6 +56072,11 @@
           <t>94, Go_A,   SHUM Украина на «Евровидении-2021»</t>
         </is>
       </c>
+      <c r="AK95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">94, Zivert, Баста,   неболей </t>
+        </is>
+      </c>
     </row>
     <row r="96" ht="32" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
@@ -54774,6 +56259,11 @@
           <t xml:space="preserve">95, Klaas, Freischwimmer, Sary,   Take My Hand </t>
         </is>
       </c>
+      <c r="AK96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">95, Артур Пирожков,   #туДЫМ-сюДЫМ </t>
+        </is>
+      </c>
     </row>
     <row r="97" ht="32" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
@@ -54956,6 +56446,11 @@
           <t>96, Анет Сай,   СЛЁЗЫ OST «Пацанки»</t>
         </is>
       </c>
+      <c r="AK97" t="inlineStr">
+        <is>
+          <t>96, Анет Сай,   СЛЁЗЫ OST «Пацанки»</t>
+        </is>
+      </c>
     </row>
     <row r="98" ht="32" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
@@ -55138,6 +56633,11 @@
           <t xml:space="preserve">97, Король и Шут,   Дурак и молния </t>
         </is>
       </c>
+      <c r="AK98" t="inlineStr">
+        <is>
+          <t>97, Go_A,   SHUM Украина на «Евровидении-2021»</t>
+        </is>
+      </c>
     </row>
     <row r="99" ht="32" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
@@ -55320,6 +56820,11 @@
           <t xml:space="preserve">98, ter.bium,   Ты далеко </t>
         </is>
       </c>
+      <c r="AK99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">98, Ollane, Miyagi &amp; Andy Panda,   Where Are You </t>
+        </is>
+      </c>
     </row>
     <row r="100" ht="32" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
@@ -55502,6 +57007,11 @@
           <t xml:space="preserve">99, #2Маши,   Босая </t>
         </is>
       </c>
+      <c r="AK100" t="inlineStr">
+        <is>
+          <t>99, The Hatters, Джарахов,   Я делаю шаг Live 2021</t>
+        </is>
+      </c>
     </row>
     <row r="101" ht="32" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
@@ -55682,6 +57192,11 @@
       <c r="AJ101" t="inlineStr">
         <is>
           <t xml:space="preserve">100, Земфира,   Искала </t>
+        </is>
+      </c>
+      <c r="AK101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">100, Intelligency,   August </t>
         </is>
       </c>
     </row>
@@ -55696,7 +57211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ101"/>
+  <dimension ref="A1:AK101"/>
   <sheetViews>
     <sheetView topLeftCell="AB17" zoomScale="223" workbookViewId="0">
       <selection activeCell="AB21" sqref="AB21"/>
@@ -55887,6 +57402,11 @@
           <t>2021-06-06</t>
         </is>
       </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="48" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
@@ -56069,6 +57589,11 @@
           <t>1, HammAli&amp;Navai, Птичка</t>
         </is>
       </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>1, Джарахов,Markul, Я в моменте</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="48" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
@@ -56251,6 +57776,11 @@
           <t>2, Джарахов,Markul, Я в моменте</t>
         </is>
       </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>2, HammAli&amp;Navai, Птичка</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="48" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -56433,6 +57963,11 @@
           <t>3, Måneskin, I WANNA BE YOUR SLAVE</t>
         </is>
       </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>3, Måneskin, I WANNA BE YOUR SLAVE</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="48" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -56615,6 +58150,11 @@
           <t>4, Мот,LYRIQ, Не Бруклин</t>
         </is>
       </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>4, Мот,LYRIQ, Не Бруклин</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="32" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -56797,6 +58337,11 @@
           <t>5, Скриптонит, Будьте здоровы</t>
         </is>
       </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>5, Скриптонит, Будьте здоровы</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="32" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -56979,6 +58524,11 @@
           <t>6, Ramil', Сон</t>
         </is>
       </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>6, Ramil', Сон</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="32" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -57161,6 +58711,11 @@
           <t>7, Måneskin, ZITTI E BUONI</t>
         </is>
       </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>7, Måneskin, ZITTI E BUONI</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="32" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -57343,6 +58898,11 @@
           <t>8, Mekhman, Копия пиратская</t>
         </is>
       </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>8, FEDUK, Песня про лето</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="32" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -57525,6 +59085,11 @@
           <t>9, FEDUK, Песня про лето</t>
         </is>
       </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>9, Mekhman, Копия пиратская</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="32" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
@@ -57707,6 +59272,11 @@
           <t>10, Minelli, Rampampam</t>
         </is>
       </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>10, Minelli, Rampampam</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="32" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
@@ -57889,6 +59459,11 @@
           <t>11, Miyagi&amp;AndyPanda, Патрон</t>
         </is>
       </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>11, Miyagi&amp;AndyPanda, Патрон</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="32" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
@@ -58071,6 +59646,11 @@
           <t>12, MORGENSHTERN, ARISTOCRAT</t>
         </is>
       </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>12, Miyagi&amp;AndyPanda, Оттепель (feat. TumaniYO)</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="16" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -58253,6 +59833,11 @@
           <t>13, МаксБарских,Zivert, BESTSELLER</t>
         </is>
       </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>13, MORGENSHTERN, ARISTOCRAT</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="16" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -58435,6 +60020,11 @@
           <t>14, Artik&amp;Asti, Истеричка</t>
         </is>
       </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>14, Måneskin, Beggin</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="32" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -58617,6 +60207,11 @@
           <t>15, DEADBLONDE, Мальчик на девятке</t>
         </is>
       </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>15, МаксБарских,Zivert, BESTSELLER</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="32" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -58799,6 +60394,11 @@
           <t>16, Miyagi&amp;AndyPanda, Оттепель (feat. TumaniYO)</t>
         </is>
       </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>16, Artik&amp;Asti, Истеричка</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="32" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -58981,6 +60581,11 @@
           <t>17, MORGENSHTERN, SHOW</t>
         </is>
       </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>17, DEADBLONDE, Мальчик на девятке</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="32" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -59163,6 +60768,11 @@
           <t>18, MaskedWolf, Astronaut In The Ocean</t>
         </is>
       </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>18, MORGENSHTERN, SHOW</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="16" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -59345,6 +60955,11 @@
           <t>19, Måneskin, Beggin</t>
         </is>
       </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>19, MaskedWolf, Astronaut In The Ocean</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="32" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
@@ -59527,6 +61142,11 @@
           <t>20, Элджей, Candy Flip</t>
         </is>
       </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>20, Элджей, Candy Flip</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="32" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
@@ -59709,6 +61329,11 @@
           <t>21, КлаваКока,РукиВверх, Нокаут</t>
         </is>
       </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21, Мот,JONY, Лилии</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="32" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -59891,6 +61516,11 @@
           <t>22, MORGENSHTERN, ДУЛО</t>
         </is>
       </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>22, КлаваКока,РукиВверх, Нокаут</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="32" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -60073,6 +61703,11 @@
           <t>23, Мот,JONY, Лилии</t>
         </is>
       </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>23, MORGENSHTERN, ДУЛО</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="32" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -60255,6 +61890,11 @@
           <t>24, СултанЛагучев, Горький вкус</t>
         </is>
       </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>24, СултанЛагучев, Горький вкус</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="32" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -60437,6 +62077,11 @@
           <t>25, LOBODA, Родной</t>
         </is>
       </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>25, LOBODA, Родной</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="32" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -60619,6 +62264,11 @@
           <t>26, MORGENSHTERN, OLALA</t>
         </is>
       </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>26, 10AGE, Нету интереса</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="32" customHeight="1">
       <c r="A28" s="2" t="inlineStr">
@@ -60801,6 +62451,11 @@
           <t>27, 10AGE, Нету интереса</t>
         </is>
       </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>27, MORGENSHTERN, OLALA</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="32" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
@@ -60983,6 +62638,11 @@
           <t>28, MORGENSHTERN,Imanbek,FettyWap, Leck (feat. KDDK)</t>
         </is>
       </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>28, MORGENSHTERN,SODALUV,blagowhite,OGBuda,MAYOT, Cristal &amp; МОЁТ (Remix)</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="32" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
@@ -61165,6 +62825,11 @@
           <t>29, Manizha, RUSSIAN WOMAN</t>
         </is>
       </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>29, Manizha, RUSSIAN WOMAN</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="32" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
@@ -61347,6 +63012,11 @@
           <t>30, Тимати, Падаем вместе</t>
         </is>
       </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>30, MORGENSHTERN,Imanbek,FettyWap, Leck (feat. KDDK)</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="32" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
@@ -61529,6 +63199,11 @@
           <t>31, MORGENSHTERN,SODALUV,blagowhite,OGBuda,MAYOT, Cristal &amp; МОЁТ (Remix)</t>
         </is>
       </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>31, Måneskin, CORALINE</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="32" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
@@ -61711,6 +63386,11 @@
           <t>32, MORGENSHTERN, HUBLOT</t>
         </is>
       </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>32, BillieEilish, Lost Cause</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="32" customHeight="1">
       <c r="A34" s="2" t="inlineStr">
@@ -61893,6 +63573,11 @@
           <t>33, Måneskin, CORALINE</t>
         </is>
       </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>33, Тимати, Падаем вместе</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="16" customHeight="1">
       <c r="A35" s="2" t="inlineStr">
@@ -62075,6 +63760,11 @@
           <t>34, LilNasX, MONTERO (Call Me By Your Name)</t>
         </is>
       </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>34, LilNasX, MONTERO (Call Me By Your Name)</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="32" customHeight="1">
       <c r="A36" s="2" t="inlineStr">
@@ -62257,6 +63947,11 @@
           <t>35, kizaru, Moulin Rouge (feat. JABO)</t>
         </is>
       </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>35, MAYOT, Снег</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="32" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
@@ -62439,6 +64134,11 @@
           <t>36, BillieEilish, Lost Cause</t>
         </is>
       </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>36, kizaru, Moulin Rouge (feat. JABO)</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="32" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
@@ -62621,6 +64321,11 @@
           <t>37, MORGENSHTERN, DINERO</t>
         </is>
       </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>37, MORGENSHTERN, HUBLOT</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="32" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
@@ -62803,6 +64508,11 @@
           <t>38, MaskedWolf, Astronaut in the Ocean (Remix) [feat. Egor Kreed]</t>
         </is>
       </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>38, DEADBLONDE, Бесприданница</t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="32" customHeight="1">
       <c r="A40" s="2" t="inlineStr">
@@ -62985,6 +64695,11 @@
           <t>39, ВаняДмитриенко, Венера-Юпитер</t>
         </is>
       </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>39, LittleBig, Everybody (Little Big Are Back)</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="32" customHeight="1">
       <c r="A41" s="2" t="inlineStr">
@@ -63167,6 +64882,11 @@
           <t>40, DEADBLONDE, Бесприданница</t>
         </is>
       </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>40, Элджей, Первая полоса</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="32" customHeight="1">
       <c r="A42" s="2" t="inlineStr">
@@ -63349,6 +65069,11 @@
           <t>41, Элджей, Первая полоса</t>
         </is>
       </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>41, ВаняДмитриенко, Венера-Юпитер</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="16" customHeight="1">
       <c r="A43" s="2" t="inlineStr">
@@ -63531,6 +65256,11 @@
           <t>42, ELMAN,JONY, Балкон</t>
         </is>
       </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>42, MORGENSHTERN, DINERO</t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="32" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
@@ -63713,6 +65443,11 @@
           <t>43, JONY, Камнепад</t>
         </is>
       </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>43, ELMAN,JONY, Балкон</t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="32" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
@@ -63895,6 +65630,11 @@
           <t>44, LittleBig, Everybody (Little Big Are Back)</t>
         </is>
       </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>44, Miyagi&amp;AndyPanda, Minor</t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="32" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
@@ -64077,6 +65817,11 @@
           <t>45, Ramil', Сияй</t>
         </is>
       </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>45, Ramil', Сияй</t>
+        </is>
+      </c>
     </row>
     <row r="47" ht="32" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
@@ -64259,6 +66004,11 @@
           <t>46, Miyagi&amp;AndyPanda, Minor</t>
         </is>
       </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>46, JONY, Камнепад</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="16" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
@@ -64441,6 +66191,11 @@
           <t>47, SLAVAMARLOW, ТЫ ГОРИШЬ КАК ОГОНЬ</t>
         </is>
       </c>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t>47, MaskedWolf, Astronaut in the Ocean (Remix) [feat. Egor Kreed]</t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="32" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
@@ -64623,6 +66378,11 @@
           <t>48, АнетСай,NILETTO, Не люблю?</t>
         </is>
       </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>48, JONY, Комета</t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="48" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
@@ -64805,6 +66565,11 @@
           <t>49, ЕгорКрид, (Не)идеальна</t>
         </is>
       </c>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t>49, АнетСай,NILETTO, Не люблю?</t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="32" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
@@ -64987,6 +66752,11 @@
           <t>50, JONY, Комета</t>
         </is>
       </c>
+      <c r="AK51" t="inlineStr">
+        <is>
+          <t>50, SLAVAMARLOW, ТЫ ГОРИШЬ КАК ОГОНЬ</t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="48" customHeight="1">
       <c r="A52" s="2" t="inlineStr">
@@ -65169,6 +66939,11 @@
           <t>51, MORGENSHTERN, NOMINALO</t>
         </is>
       </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>51, ЕгорКрид, (Не)идеальна</t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="48" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
@@ -65351,6 +67126,11 @@
           <t>52, MORGENSHTERN, КОГДА НАС ОТПУСТИТ</t>
         </is>
       </c>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>52, Ollane, Where Are You (feat. Miyagi &amp; Andy Panda)</t>
+        </is>
+      </c>
     </row>
     <row r="54" ht="32" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
@@ -65533,6 +67313,11 @@
           <t>53, MonaSongz, Салют, Вера</t>
         </is>
       </c>
+      <c r="AK54" t="inlineStr">
+        <is>
+          <t>53, MORGENSHTERN, NOMINALO</t>
+        </is>
+      </c>
     </row>
     <row r="55" ht="32" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
@@ -65715,6 +67500,11 @@
           <t>54, Ollane, Where Are You (feat. Miyagi &amp; Andy Panda)</t>
         </is>
       </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>54, MonaSongz, Салют, Вера</t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="32" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
@@ -65897,6 +67687,11 @@
           <t>55, Artik&amp;Asti, Лампочки</t>
         </is>
       </c>
+      <c r="AK56" t="inlineStr">
+        <is>
+          <t>55, Artik&amp;Asti, Лампочки</t>
+        </is>
+      </c>
     </row>
     <row r="57" ht="32" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
@@ -66079,6 +67874,11 @@
           <t>56, Ханза,Ramil', Плачь и Танцуй</t>
         </is>
       </c>
+      <c r="AK57" t="inlineStr">
+        <is>
+          <t>56, TheHatters, Я делаю шаг (feat. Эльдар Джарахов) [Live 2021]</t>
+        </is>
+      </c>
     </row>
     <row r="58" ht="32" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
@@ -66261,6 +68061,11 @@
           <t>57, Баста,Zivert, неболей</t>
         </is>
       </c>
+      <c r="AK58" t="inlineStr">
+        <is>
+          <t>57, Miyagi&amp;Эндшпиль, I Got Love (feat. Рем Дигга)</t>
+        </is>
+      </c>
     </row>
     <row r="59" ht="32" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
@@ -66443,6 +68248,11 @@
           <t>58, TheHatters, Я делаю шаг (feat. Эльдар Джарахов) [Live 2021]</t>
         </is>
       </c>
+      <c r="AK59" t="inlineStr">
+        <is>
+          <t>58, Баста,Zivert, неболей</t>
+        </is>
+      </c>
     </row>
     <row r="60" ht="48" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
@@ -66625,6 +68435,11 @@
           <t>59, Miyagi&amp;Эндшпиль, I Got Love (feat. Рем Дигга)</t>
         </is>
       </c>
+      <c r="AK60" t="inlineStr">
+        <is>
+          <t>59, ЕгорКрид, Голос</t>
+        </is>
+      </c>
     </row>
     <row r="61" ht="32" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
@@ -66807,6 +68622,11 @@
           <t>60, ЕгорКрид, Голос</t>
         </is>
       </c>
+      <c r="AK61" t="inlineStr">
+        <is>
+          <t>60, MORGENSHTERN, PABLO</t>
+        </is>
+      </c>
     </row>
     <row r="62" ht="32" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
@@ -66989,6 +68809,11 @@
           <t>61, MORGENSHTERN, PABLO</t>
         </is>
       </c>
+      <c r="AK62" t="inlineStr">
+        <is>
+          <t>61, SODALUV, Тысячи рук</t>
+        </is>
+      </c>
     </row>
     <row r="63" ht="32" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
@@ -67171,6 +68996,11 @@
           <t>62, MAYOT, Снег</t>
         </is>
       </c>
+      <c r="AK63" t="inlineStr">
+        <is>
+          <t>62, Ханза,Ramil', Плачь и Танцуй</t>
+        </is>
+      </c>
     </row>
     <row r="64" ht="32" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
@@ -67353,6 +69183,11 @@
           <t>63, МаксКорж, Аттестат</t>
         </is>
       </c>
+      <c r="AK64" t="inlineStr">
+        <is>
+          <t>63, DojaCat, Kiss Me More (feat. SZA)</t>
+        </is>
+      </c>
     </row>
     <row r="65" ht="32" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
@@ -67535,6 +69370,11 @@
           <t>64, MORGENSHTERN,Элджей, Cadillac</t>
         </is>
       </c>
+      <c r="AK65" t="inlineStr">
+        <is>
+          <t>64, МаксКорж, Аттестат</t>
+        </is>
+      </c>
     </row>
     <row r="66" ht="32" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
@@ -67717,6 +69557,11 @@
           <t>65, DojaCat, Kiss Me More (feat. SZA)</t>
         </is>
       </c>
+      <c r="AK66" t="inlineStr">
+        <is>
+          <t>65, Miyagi&amp;AndyPanda, Там ревели горы</t>
+        </is>
+      </c>
     </row>
     <row r="67" ht="32" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
@@ -67899,6 +69744,11 @@
           <t>66, SODALUV, Тысячи рук</t>
         </is>
       </c>
+      <c r="AK67" t="inlineStr">
+        <is>
+          <t>66, MORGENSHTERN, КОГДА НАС ОТПУСТИТ</t>
+        </is>
+      </c>
     </row>
     <row r="68" ht="48" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
@@ -68081,6 +69931,11 @@
           <t>67, Aarne,TheLimba,Markul, Noir</t>
         </is>
       </c>
+      <c r="AK68" t="inlineStr">
+        <is>
+          <t>67, MORGENSHTERN,Элджей, Cadillac</t>
+        </is>
+      </c>
     </row>
     <row r="69" ht="32" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
@@ -68263,6 +70118,11 @@
           <t>68, Miyagi&amp;AndyPanda, Там ревели горы</t>
         </is>
       </c>
+      <c r="AK69" t="inlineStr">
+        <is>
+          <t>68, SEEMEE, Голодный пёс (feat. SODA LUV)</t>
+        </is>
+      </c>
     </row>
     <row r="70" ht="32" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
@@ -68445,6 +70305,11 @@
           <t>69, Måneskin, ZITTI E BUONI (Eurovision Version)</t>
         </is>
       </c>
+      <c r="AK70" t="inlineStr">
+        <is>
+          <t>69, Aarne,TheLimba,Markul, Noir</t>
+        </is>
+      </c>
     </row>
     <row r="71" ht="32" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
@@ -68627,6 +70492,11 @@
           <t>70, SEEMEE, Голодный пёс (feat. SODA LUV)</t>
         </is>
       </c>
+      <c r="AK71" t="inlineStr">
+        <is>
+          <t>70, Tiësto, The Business</t>
+        </is>
+      </c>
     </row>
     <row r="72" ht="32" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
@@ -68809,6 +70679,11 @@
           <t>71, Go_A, SHUM</t>
         </is>
       </c>
+      <c r="AK72" t="inlineStr">
+        <is>
+          <t>71, Go_A, SHUM</t>
+        </is>
+      </c>
     </row>
     <row r="73" ht="32" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
@@ -68991,6 +70866,11 @@
           <t>72, Скриптонит, Чистый (OST «Псих»)</t>
         </is>
       </c>
+      <c r="AK73" t="inlineStr">
+        <is>
+          <t>72, Скриптонит, Чистый (OST «Псих»)</t>
+        </is>
+      </c>
     </row>
     <row r="74" ht="32" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
@@ -69173,6 +71053,11 @@
           <t>73, Tiësto, The Business</t>
         </is>
       </c>
+      <c r="AK74" t="inlineStr">
+        <is>
+          <t>73, Inna, Flashbacks</t>
+        </is>
+      </c>
     </row>
     <row r="75" ht="32" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
@@ -69355,6 +71240,11 @@
           <t>74, SODALUV,WHY,BERRY, Бигасс</t>
         </is>
       </c>
+      <c r="AK75" t="inlineStr">
+        <is>
+          <t>74, Скриптонит, Положение</t>
+        </is>
+      </c>
     </row>
     <row r="76" ht="32" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
@@ -69537,6 +71427,11 @@
           <t>75, MaryGu, Косички</t>
         </is>
       </c>
+      <c r="AK76" t="inlineStr">
+        <is>
+          <t>75, Måneskin, ZITTI E BUONI (Eurovision Version)</t>
+        </is>
+      </c>
     </row>
     <row r="77" ht="16" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
@@ -69719,6 +71614,11 @@
           <t>76, LOVV66, Трап Трап</t>
         </is>
       </c>
+      <c r="AK77" t="inlineStr">
+        <is>
+          <t>76, MORGENSHTERN, Я КОГДА-НИБУДЬ УЙДУ</t>
+        </is>
+      </c>
     </row>
     <row r="78" ht="16" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
@@ -69901,6 +71801,11 @@
           <t>77, Хабиб, Ягода малинка</t>
         </is>
       </c>
+      <c r="AK78" t="inlineStr">
+        <is>
+          <t>77, SODALUV,WHY,BERRY, Бигасс</t>
+        </is>
+      </c>
     </row>
     <row r="79" ht="32" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
@@ -70083,6 +71988,11 @@
           <t>78, MORGENSHTERN, Я КОГДА-НИБУДЬ УЙДУ</t>
         </is>
       </c>
+      <c r="AK79" t="inlineStr">
+        <is>
+          <t>78, CalvinHarris, By Your Side (feat. Tom Grennan)</t>
+        </is>
+      </c>
     </row>
     <row r="80" ht="32" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
@@ -70265,6 +72175,11 @@
           <t>79, Yanix,ПошлаяМолли, Из ладони в ладонь</t>
         </is>
       </c>
+      <c r="AK80" t="inlineStr">
+        <is>
+          <t>79, LOVV66, Трап Трап</t>
+        </is>
+      </c>
     </row>
     <row r="81" ht="32" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
@@ -70447,6 +72362,11 @@
           <t>80, Tesher, Jalebi Baby</t>
         </is>
       </c>
+      <c r="AK81" t="inlineStr">
+        <is>
+          <t>80, Tesher, Jalebi Baby</t>
+        </is>
+      </c>
     </row>
     <row r="82" ht="32" customHeight="1">
       <c r="A82" s="2" t="inlineStr">
@@ -70629,6 +72549,11 @@
           <t>81, Скриптонит, Положение</t>
         </is>
       </c>
+      <c r="AK82" t="inlineStr">
+        <is>
+          <t>81, Yanix,ПошлаяМолли, Из ладони в ладонь</t>
+        </is>
+      </c>
     </row>
     <row r="83" ht="32" customHeight="1">
       <c r="A83" s="2" t="inlineStr">
@@ -70811,6 +72736,11 @@
           <t>82, Тимати, Чокер</t>
         </is>
       </c>
+      <c r="AK83" t="inlineStr">
+        <is>
+          <t>82, MaryGu, Косички</t>
+        </is>
+      </c>
     </row>
     <row r="84" ht="32" customHeight="1">
       <c r="A84" s="2" t="inlineStr">
@@ -70993,6 +72923,11 @@
           <t>83, MORGENSHTERN, GTA</t>
         </is>
       </c>
+      <c r="AK84" t="inlineStr">
+        <is>
+          <t>83, TheWeeknd, Blinding Lights</t>
+        </is>
+      </c>
     </row>
     <row r="85" ht="32" customHeight="1">
       <c r="A85" s="2" t="inlineStr">
@@ -71175,6 +73110,11 @@
           <t>84, TheWeeknd, Blinding Lights</t>
         </is>
       </c>
+      <c r="AK85" t="inlineStr">
+        <is>
+          <t>84, Хабиб, Ягода малинка</t>
+        </is>
+      </c>
     </row>
     <row r="86" ht="32" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
@@ -71357,6 +73297,11 @@
           <t>85, HammAli&amp;Navai, Я весь мир обошёл</t>
         </is>
       </c>
+      <c r="AK86" t="inlineStr">
+        <is>
+          <t>85, HammAli&amp;Navai, Я весь мир обошёл</t>
+        </is>
+      </c>
     </row>
     <row r="87" ht="32" customHeight="1">
       <c r="A87" s="2" t="inlineStr">
@@ -71539,6 +73484,11 @@
           <t>86, Лилу45, Восемь</t>
         </is>
       </c>
+      <c r="AK87" t="inlineStr">
+        <is>
+          <t>86, Скриптонит, Жить как я живу</t>
+        </is>
+      </c>
     </row>
     <row r="88" ht="32" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
@@ -71721,6 +73671,11 @@
           <t>87, Dabro, Юность</t>
         </is>
       </c>
+      <c r="AK88" t="inlineStr">
+        <is>
+          <t>87, MaryGu, +1</t>
+        </is>
+      </c>
     </row>
     <row r="89" ht="32" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
@@ -71903,6 +73858,11 @@
           <t>88, MaryGu, +1</t>
         </is>
       </c>
+      <c r="AK89" t="inlineStr">
+        <is>
+          <t>88, Лилу45, Восемь</t>
+        </is>
+      </c>
     </row>
     <row r="90" ht="32" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
@@ -72085,6 +74045,11 @@
           <t>89, Inna, Flashbacks</t>
         </is>
       </c>
+      <c r="AK90" t="inlineStr">
+        <is>
+          <t>89, Тимати, Чокер</t>
+        </is>
+      </c>
     </row>
     <row r="91" ht="32" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
@@ -72267,6 +74232,11 @@
           <t>90, Скриптонит, Жить как я живу</t>
         </is>
       </c>
+      <c r="AK91" t="inlineStr">
+        <is>
+          <t>90, Idris&amp;Leos, Образ</t>
+        </is>
+      </c>
     </row>
     <row r="92" ht="32" customHeight="1">
       <c r="A92" s="2" t="inlineStr">
@@ -72449,6 +74419,11 @@
           <t>91, NK, Красное Вино</t>
         </is>
       </c>
+      <c r="AK92" t="inlineStr">
+        <is>
+          <t>91, Скриптонит, Москва любит...</t>
+        </is>
+      </c>
     </row>
     <row r="93" ht="32" customHeight="1">
       <c r="A93" s="2" t="inlineStr">
@@ -72631,6 +74606,11 @@
           <t>92, CalvinHarris, By Your Side (feat. Tom Grennan)</t>
         </is>
       </c>
+      <c r="AK93" t="inlineStr">
+        <is>
+          <t>92, Dabro, Юность</t>
+        </is>
+      </c>
     </row>
     <row r="94" ht="32" customHeight="1">
       <c r="A94" s="2" t="inlineStr">
@@ -72813,6 +74793,11 @@
           <t>93, DomLaNena, Batuque (Jeremy Sole &amp; Atropolis Remix)</t>
         </is>
       </c>
+      <c r="AK94" t="inlineStr">
+        <is>
+          <t>93, MORGENSHTERN, GTA</t>
+        </is>
+      </c>
     </row>
     <row r="95" ht="32" customHeight="1">
       <c r="A95" s="2" t="inlineStr">
@@ -72995,6 +74980,11 @@
           <t>94, Скриптонит, Москва любит...</t>
         </is>
       </c>
+      <c r="AK95" t="inlineStr">
+        <is>
+          <t>94, OliviaRodrigo, good 4 u</t>
+        </is>
+      </c>
     </row>
     <row r="96" ht="48" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
@@ -73177,6 +75167,11 @@
           <t>95, Idris&amp;Leos, Образ</t>
         </is>
       </c>
+      <c r="AK96" t="inlineStr">
+        <is>
+          <t>95, DomLaNena, Batuque (Jeremy Sole &amp; Atropolis Remix)</t>
+        </is>
+      </c>
     </row>
     <row r="97" ht="32" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
@@ -73359,6 +75354,11 @@
           <t>96, Dabro, На часах ноль-ноль</t>
         </is>
       </c>
+      <c r="AK97" t="inlineStr">
+        <is>
+          <t>96, Dabro, На часах ноль-ноль</t>
+        </is>
+      </c>
     </row>
     <row r="98" ht="32" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
@@ -73541,6 +75541,11 @@
           <t>97, MACAN, Fell in Love</t>
         </is>
       </c>
+      <c r="AK98" t="inlineStr">
+        <is>
+          <t>97, 104, НЕ ЖАЛЬ (feat. Miyagi &amp; Скриптонит)</t>
+        </is>
+      </c>
     </row>
     <row r="99" ht="48" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
@@ -73723,6 +75728,11 @@
           <t>98, 104, НЕ ЖАЛЬ (feat. Miyagi &amp; Скриптонит)</t>
         </is>
       </c>
+      <c r="AK99" t="inlineStr">
+        <is>
+          <t>98, MACAN, Fell in Love</t>
+        </is>
+      </c>
     </row>
     <row r="100" ht="32" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
@@ -73905,6 +75915,11 @@
           <t>99, Zivert, Многоточия (Radio Edit)</t>
         </is>
       </c>
+      <c r="AK100" t="inlineStr">
+        <is>
+          <t>99, Zivert, Многоточия (Radio Edit)</t>
+        </is>
+      </c>
     </row>
     <row r="101" ht="32" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
@@ -74085,6 +76100,11 @@
       <c r="AJ101" t="inlineStr">
         <is>
           <t>100, OliviaRodrigo, good 4 u</t>
+        </is>
+      </c>
+      <c r="AK101" t="inlineStr">
+        <is>
+          <t>100, NK, Красное Вино</t>
         </is>
       </c>
     </row>
@@ -74099,7 +76119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1048576"/>
@@ -74128,6 +76148,11 @@
           <t>2021-06-06</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -74150,6 +76175,11 @@
           <t>1, MORGENSHTERN , MILLION DOLLAR: BUSINESS</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1, MORGENSHTERN , MILLION DOLLAR: BUSINESS</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -74172,6 +76202,11 @@
           <t>2, Måneskin , Teatro d'Ira - Vol. I</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2, MORGENSHTERN , MILLION DOLLAR: HAPPINESS</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -74194,6 +76229,11 @@
           <t>3, MORGENSHTERN , MILLION DOLLAR: HAPPINESS</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3, Måneskin , Teatro d'Ira - Vol. I</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -74216,6 +76256,11 @@
           <t>4, Little Big , COVERS - EP</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4, Little Big , COVERS - EP</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -74238,6 +76283,11 @@
           <t>5, Скриптонит , Свистки и бумажки</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5, Скриптонит , Свистки и бумажки</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -74260,6 +76310,11 @@
           <t>6, Тимати , Шипы и розы - EP</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>6, OG Buda , FREERIO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -74282,6 +76337,11 @@
           <t>7, OG Buda , FREERIO</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7, Тимати , Шипы и розы - EP</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -74304,6 +76364,11 @@
           <t>8, LOVV66 , ФИЗИКАЛ ПЭЙН</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8, LOVV66 , ФИЗИКАЛ ПЭЙН</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -74326,6 +76391,11 @@
           <t>9, Artik &amp; Asti , Миллениум - EP</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9, Artik &amp; Asti , Миллениум - EP</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -74348,6 +76418,11 @@
           <t>10, Lil Baby &amp; Lil Durk , The Voice of the Heroes</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10, Miyagi &amp; Andy Panda , YAMAKASI</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -74370,6 +76445,11 @@
           <t>11, Три дня дождя , Когда ты откроешь глаза</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>11, Lil Baby &amp; Lil Durk , The Voice of the Heroes</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -74392,6 +76472,11 @@
           <t>12, Miyagi &amp; Andy Panda , YAMAKASI</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12, Måneskin , Il ballo della vita</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -74414,6 +76499,11 @@
           <t>13, Billie Eilish , Happier Than Ever</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>13, MAYOT , GHETTO GARDEN</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -74436,6 +76526,11 @@
           <t>14, Måneskin , Il ballo della vita</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>14, Три дня дождя , Когда ты откроешь глаза</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -74458,6 +76553,11 @@
           <t>15, Boulevard Depo &amp; JEEMBO , ОМОФОР - EP</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15, Детские сны Звезда Academy , Детские сны - Музыка для малышей и детей, колыбельные музыка, успокаивающие звуки для глубокого расслабления и сна</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -74480,6 +76580,11 @@
           <t>16, SALUKI &amp; 104 , СТЫД ИЛИ СЛАВА</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>16, Billie Eilish , Happier Than Ever</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -74502,6 +76607,11 @@
           <t>17, twenty one pilots , Scaled And Icy</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>17, белый шум для детей , Белые шумы для сна детей - EP</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -74524,6 +76634,11 @@
           <t>18, Земфира , бордерлайн</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>18, Boulevard Depo &amp; JEEMBO , ОМОФОР - EP</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -74546,6 +76661,11 @@
           <t>19, Детские сны Звезда Academy , Детские сны - Музыка для малышей и детей, колыбельные музыка, успокаивающие звуки для глубокого расслабления и сна</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>19, SALUKI &amp; 104 , СТЫД ИЛИ СЛАВА</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -74568,6 +76688,11 @@
           <t>20, белый шум для детей , Белые шумы для сна детей - EP</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20, Анна Седокова , Эгоистка - EP</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -74590,6 +76715,11 @@
           <t>21, SODA LUV , Viva la vida</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21, twenty one pilots , Scaled And Icy</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -74612,6 +76742,11 @@
           <t>22, MAYOT , GHETTO GARDEN</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22, Земфира , бордерлайн</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -74634,6 +76769,11 @@
           <t>23, Måneskin , Chosen</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23, SODA LUV , Viva la vida</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -74656,6 +76796,11 @@
           <t>24, Olivia Rodrigo , SOUR</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24, Olivia Rodrigo , SOUR</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -74678,6 +76823,11 @@
           <t>25, Анна Седокова , Эгоистка - EP</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25, Måneskin , Chosen</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -74700,6 +76850,11 @@
           <t>26, Леонид Агутин , Включите свет</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26, HammAli &amp; Navai , Когда хорошему человеку плохо</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -74722,6 +76877,11 @@
           <t>27, HammAli &amp; Navai , Когда хорошему человеку плохо</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>27, Леонид Агутин , Включите свет</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -74744,6 +76904,11 @@
           <t>28, OBLADAET , PLAYERS CLUB</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28, PHARAOH , Million Dollar Depression</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -74766,6 +76931,11 @@
           <t>29, PHARAOH , Million Dollar Depression</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29, OBLADAET , PLAYERS CLUB</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -74788,6 +76958,11 @@
           <t>30, V $ X V PRiNCE , NERVЫ</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>30, Moby , Reprise</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -74810,6 +76985,11 @@
           <t>31, Moby , Reprise</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>31, Скриптонит , Праздник на улице 36</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -74832,6 +77012,11 @@
           <t>32, OG Buda , SEXY DRILL</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>32, V $ X V PRiNCE , NERVЫ</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -74854,6 +77039,11 @@
           <t>33, Скриптонит , Праздник на улице 36</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>33, OG Buda , SEXY DRILL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -74876,6 +77066,11 @@
           <t>34, Елена Темникова , TEMNIKOVA 5 PARIS</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>34, Елена Темникова , TEMNIKOVA 5 PARIS</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -74898,6 +77093,11 @@
           <t>35, Miyagi , Buster Keaton</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>35, Miyagi , Buster Keaton</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -74920,6 +77120,11 @@
           <t>36, The Weeknd , After Hours (Deluxe Video Album)</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>36, Скриптонит , 2004</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -74942,6 +77147,11 @@
           <t>37, Скриптонит , Дом с нормальными явлениями</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>37, Скриптонит , Уроборос: Улица 36</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -74964,6 +77174,11 @@
           <t>38, J. Cole , The Off-Season</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>38, The Weeknd , After Hours (Deluxe Video Album)</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -74986,6 +77201,11 @@
           <t>39, Скриптонит , Уроборос: Улица 36</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>39, Dua Lipa , Future Nostalgia</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -75008,6 +77228,11 @@
           <t>40, Dua Lipa , Future Nostalgia</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>40, Скриптонит , Дом с нормальными явлениями</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -75030,6 +77255,11 @@
           <t>41, Разные артисты, Мир! Дружба! Жвачка! Часть 2 (Музыка к сериалу)</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>41, J. Cole , The Off-Season</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -75052,6 +77282,11 @@
           <t>42, Скриптонит , 2004</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>42, TOMORROW X TOGETHER , The Chaos Chapter : FREEZE</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -75074,6 +77309,11 @@
           <t>43, L'One , Восход 1</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>43, Mary Gu , плохое и хорошее - EP</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -75096,6 +77336,11 @@
           <t>44, Mary Gu , плохое и хорошее - EP</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>44, Разные артисты, Cruella (Original Motion Picture Soundtrack)</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -75118,6 +77363,11 @@
           <t>45, LOVV66 , PUZZLES</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>45, Алсу , Фея добрых снов. Колыбельные для малышей</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -75140,6 +77390,11 @@
           <t>46, Artik &amp; Asti , 7 (Part 2)</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>46, L'One , Восход 1</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -75162,6 +77417,11 @@
           <t>47, kizaru , BORN TO TRAP</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>47, kizaru , BORN TO TRAP</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -75184,6 +77444,11 @@
           <t>48, Mary Gu , хорошее и плохое - EP</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>48, LOVV66 , PUZZLES</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -75206,6 +77471,11 @@
           <t>49, TOMORROW X TOGETHER , The Chaos Chapter : FREEZE</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>49, Artik &amp; Asti , 7 (Part 2)</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -75224,6 +77494,11 @@
         </is>
       </c>
       <c r="D51" t="inlineStr">
+        <is>
+          <t>50, Мари Краймбрери , Нас узнает весь мир, Pt. 1</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>50, Мари Краймбрери , Нас узнает весь мир, Pt. 1</t>
         </is>
@@ -75240,7 +77515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView topLeftCell="A30" zoomScale="200" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
@@ -75273,6 +77548,11 @@
           <t>2021-06-06</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>2021-06-07</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -75295,6 +77575,11 @@
           <t>1, Måneskin, ZITTI E BUONI</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1, Måneskin, ZITTI E BUONI</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -75317,6 +77602,11 @@
           <t>2, Dzharakhov, Я в моменте</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2, Dzharakhov, Я в моменте</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -75339,6 +77629,11 @@
           <t>3, Måneskin, I WANNA BE YOUR SLAVE</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3, Måneskin, I WANNA BE YOUR SLAVE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -75361,6 +77656,11 @@
           <t>4, kizaru, Moulin Rouge (feat. JABO)</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4, MORGENSHTERN, SHOW</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -75383,6 +77683,11 @@
           <t>5, MORGENSHTERN, SHOW</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5, MORGENSHTERN, Cristal &amp; МОЁТ (feat. SODA LUV &amp; blago white &amp; OG Buda &amp; MAYOT) - Remix</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -75405,6 +77710,11 @@
           <t>6, MORGENSHTERN, Cristal &amp; МОЁТ (feat. SODA LUV &amp; blago white &amp; OG Buda &amp; MAYOT) - Remix</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>6, DEAD BLONDE, Мальчик на девятке</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -75427,6 +77737,11 @@
           <t>7, GONE.Fludd, Плохая Сука</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7, Måneskin, CORALINE</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -75449,6 +77764,11 @@
           <t>8, DEAD BLONDE, Мальчик на девятке</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8, Måneskin, Beggin'</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -75471,6 +77791,11 @@
           <t>9, Måneskin, CORALINE</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9, MORGENSHTERN, ARISTOCRAT</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -75493,6 +77818,11 @@
           <t>10, LOVV66, Трап Трап</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10, LOVV66, Трап Трап</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -75515,6 +77845,11 @@
           <t>11, BTS, Butter</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>11, BTS, Butter</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -75537,6 +77872,11 @@
           <t>12, MORGENSHTERN, ARISTOCRAT</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12, MORGENSHTERN, ДУЛО</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -75559,6 +77899,11 @@
           <t>13, Miyagi &amp; Andy Panda, Оттепель</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>13, GONE.Fludd, Плохая Сука</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -75581,6 +77926,11 @@
           <t>14, Måneskin, Beggin'</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>14, kizaru, Moulin Rouge (feat. JABO)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -75603,6 +77953,11 @@
           <t>15, Max Korzh, Аттестат</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15, HammAli &amp; Navai, Птичка</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -75625,6 +77980,11 @@
           <t>16, MORGENSHTERN, ДУЛО</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>16, Miyagi &amp; Andy Panda, Патрон</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -75647,6 +78007,11 @@
           <t>17, HammAli &amp; Navai, Птичка</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>17, DEAD BLONDE, Бесприданница</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -75669,6 +78034,11 @@
           <t>18, DEAD BLONDE, Бесприданница</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>18, SODA LUV, Тысячи рук</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -75691,6 +78061,11 @@
           <t>19, SODA LUV, Тысячи рук</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>19, MORGENSHTERN, OLALA</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -75713,6 +78088,11 @@
           <t>20, Miyagi &amp; Andy Panda, Патрон</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20, Lil Nas X, MONTERO (Call Me By Your Name)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -75735,6 +78115,11 @@
           <t>21, 10AGE, Нету интереса</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21, 10AGE, Нету интереса</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -75757,6 +78142,11 @@
           <t>22, Lil Nas X, MONTERO (Call Me By Your Name)</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22, Masked Wolf, Astronaut In The Ocean</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -75779,6 +78169,11 @@
           <t>23, ooes, зима</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23, ooes, зима</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -75801,6 +78196,11 @@
           <t>24, Masked Wolf, Astronaut In The Ocean</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24, Miyagi &amp; Andy Panda, Оттепель</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -75823,6 +78223,11 @@
           <t>25, MORGENSHTERN, PABLO</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25, MORGENSHTERN, PABLO</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -75845,6 +78250,11 @@
           <t>26, MORGENSHTERN, OLALA</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26, SODA LUV, Бигасс</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -75867,6 +78277,11 @@
           <t>27, Yanix, Из ладони в ладонь</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>27, SEEMEE, Голодный пёс [prod. by Pretty Scream]</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -75889,6 +78304,11 @@
           <t>28, SODA LUV, Бигасс</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28, MORGENSHTERN, DINERO</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -75911,6 +78331,11 @@
           <t>29, SEEMEE, Голодный пёс [prod. by Pretty Scream]</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29, MORGENSHTERN, HUBLOT</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -75933,6 +78358,11 @@
           <t>30, MORGENSHTERN, DINERO</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>30, fem.love, Фотографирую закат</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -75955,6 +78385,11 @@
           <t>31, MORGENSHTERN, HUBLOT</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>31, MORGENSHTERN, Leck</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -75977,6 +78412,11 @@
           <t>32, fem.love, Фотографирую закат</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>32, SLAVA MARLOW, ТЫ ГОРИШЬ КАК ОГОНЬ</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -75999,6 +78439,11 @@
           <t>33, Go_A, SHUM</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>33, Max Korzh, Аттестат</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -76021,6 +78466,11 @@
           <t>34, Billie Eilish, Lost Cause</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>34, Go_A, SHUM</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -76043,6 +78493,11 @@
           <t>35, MORGENSHTERN, Leck</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>35, kizaru, Дежавю</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -76065,6 +78520,11 @@
           <t>36, kizaru, Дежавю</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>36, OG Buda, ГАНЬГ Аутро (feat. Bushido Zho, Scally Milano, MAYOT, Magnum Opus, SEEMEE, YUNGWAY)</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -76087,6 +78547,11 @@
           <t>37, Scriptonite, Будьте здоровы</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>37, PlayaPhonk, PHONKY TOWN</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -76109,6 +78574,11 @@
           <t>38, MORGENSHTERN, NOMINALO</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>38, MORGENSHTERN, NOMINALO</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -76131,6 +78601,11 @@
           <t>39, PlayaPhonk, PHONKY TOWN</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>39, OG Buda, Старшие (feat. Polyana)</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -76153,6 +78628,11 @@
           <t>40, OG Buda, ГАНЬГ Аутро (feat. Bushido Zho, Scally Milano, MAYOT, Magnum Opus, SEEMEE, YUNGWAY)</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>40, Korol i Shut, Кукла колдуна</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -76175,6 +78655,11 @@
           <t>41, OG Buda, Старшие (feat. Polyana)</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>41, Scriptonite, Будьте здоровы</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -76197,6 +78682,11 @@
           <t>42, Mekhman, Копия пиратская</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>42, Mekhman, Копия пиратская</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -76219,6 +78709,11 @@
           <t>43, OG Buda, Добро Пожаловать (Prod. by wex &amp; treepside)</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>43, OG Buda, Добро Пожаловать (Prod. by wex &amp; treepside)</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -76241,6 +78736,11 @@
           <t>44, SLAVA MARLOW, ТЫ ГОРИШЬ КАК ОГОНЬ</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>44, MORGENSHTERN, Cristal &amp; МОЁТ</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -76263,6 +78763,11 @@
           <t>45, Korol i Shut, Кукла колдуна</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>45, Doja Cat, Kiss Me More (feat. SZA)</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -76285,6 +78790,11 @@
           <t>46, FEDUK, Песня про лето</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>46, Ramil', Сон</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -76307,6 +78817,11 @@
           <t>47, Ramil', Сон</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>47, MORGENSHTERN, GTA</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -76329,6 +78844,11 @@
           <t>48, Doja Cat, Kiss Me More (feat. SZA)</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>48, Billie Eilish, Lost Cause</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -76347,6 +78867,11 @@
         </is>
       </c>
       <c r="D50" t="inlineStr">
+        <is>
+          <t>49, kizaru, Stick Out</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>49, kizaru, Stick Out</t>
         </is>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="1" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20680" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20680" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Потрековый чарт ВК" sheetId="1" state="visible" r:id="rId1"/>
@@ -498,16 +498,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK101"/>
+  <dimension ref="A1:AL101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="AC31" sqref="AC31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.1640625" defaultRowHeight="15"/>
   <cols>
-    <col width="37.1640625" customWidth="1" style="2" min="1" max="19"/>
-    <col width="37.1640625" customWidth="1" style="2" min="20" max="16384"/>
+    <col width="37.1640625" customWidth="1" style="2" min="1" max="20"/>
+    <col width="37.1640625" customWidth="1" style="2" min="21" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -692,6 +692,11 @@
           <t>2021-06-07</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="32" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
@@ -879,6 +884,11 @@
           <t>1, Джарахов, Markul, Я в моменте</t>
         </is>
       </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>1, Джарахов, Markul, Я в моменте</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="32" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
@@ -1066,6 +1076,11 @@
           <t>2, HammAli &amp; Navai, Птичка</t>
         </is>
       </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>2, HammAli &amp; Navai, Птичка</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="32" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -1253,6 +1268,11 @@
           <t>3, Mekhman, Копия пиратская</t>
         </is>
       </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>3, Mekhman, Копия пиратская</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="32" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -1440,6 +1460,11 @@
           <t>4, Miyagi &amp; Andy Panda feat. TumaniYO, Оттепель</t>
         </is>
       </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>4, Miyagi &amp; Andy Panda feat. TumaniYO, Оттепель</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -1627,6 +1652,11 @@
           <t>5, Ollane feat. Miyagi &amp; Andy Panda, Where Are You</t>
         </is>
       </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>5, Элджей, Candy Flip</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="16" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -1814,6 +1844,11 @@
           <t>6, DEAD BLONDE, Мальчик на девятке</t>
         </is>
       </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>6, Ollane feat. Miyagi &amp; Andy Panda, Where Are You</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -2001,6 +2036,11 @@
           <t>7, MORGENSHTERN, ДУЛО</t>
         </is>
       </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>7, DEAD BLONDE, Мальчик на девятке</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="16" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -2188,6 +2228,11 @@
           <t>8, Элджей, Candy Flip</t>
         </is>
       </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>8, MORGENSHTERN, ДУЛО</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="16" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -2375,6 +2420,11 @@
           <t>9, 10AGE, Нету интереса</t>
         </is>
       </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>9, 10AGE, Нету интереса</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="16" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
@@ -2562,6 +2612,11 @@
           <t>10, Ramil', Сон</t>
         </is>
       </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>10, Miyagi &amp; Andy Panda, Патрон</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="32" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
@@ -2749,6 +2804,11 @@
           <t>11, Miyagi &amp; Andy Panda, Патрон</t>
         </is>
       </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>11, Ramil', Сон</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="32" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
@@ -2936,6 +2996,11 @@
           <t>12, MORGENSHTERN, SHOW</t>
         </is>
       </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>12, MORGENSHTERN, SHOW</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="16" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -3123,6 +3188,11 @@
           <t>13, Султан Лагучев, Горький вкус</t>
         </is>
       </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>13, GAYAZOV$ BROTHER$, Filatov &amp; Karas, Пошла жара</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="32" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -3310,6 +3380,11 @@
           <t>14, DEAD BLONDE, Бесприданница</t>
         </is>
       </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>14, Måneskin, Beggin'</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="32" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -3497,6 +3572,11 @@
           <t>15, GAYAZOV$ BROTHER$, Filatov &amp; Karas, Пошла жара</t>
         </is>
       </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>15, DEAD BLONDE, Бесприданница</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="16" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -3684,6 +3764,11 @@
           <t>16, The Hatters feat. Джарахов, Я делаю шаг (feat. Джарахов)</t>
         </is>
       </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>16, Баста, Ты была права</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="16" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -3871,6 +3956,11 @@
           <t>17, Måneskin, Beggin'</t>
         </is>
       </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>17, Султан Лагучев, Горький вкус</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="32" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -4058,6 +4148,11 @@
           <t>18, MORGENSHTERN, Imanbek, Fetty Wap feat. KDDK, Leck</t>
         </is>
       </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>18, Måneskin, I WANNA BE YOUR SLAVE</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="32" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -4245,6 +4340,11 @@
           <t>19, Måneskin, I WANNA BE YOUR SLAVE</t>
         </is>
       </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>19, The Hatters feat. Джарахов, Я делаю шаг (feat. Джарахов)</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="32" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
@@ -4432,6 +4532,11 @@
           <t>20, Элджей, Первая Полоса</t>
         </is>
       </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>20, Элджей, Первая Полоса</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="32" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
@@ -4619,6 +4724,11 @@
           <t>21, MORGENSHTERN, OLALA</t>
         </is>
       </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>21, MORGENSHTERN, Imanbek, Fetty Wap feat. KDDK, Leck</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="32" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -4806,6 +4916,11 @@
           <t>22, MORGENSHTERN, ARISTOCRAT</t>
         </is>
       </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>22, Måneskin, ZITTI E BUONI</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="16" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -4993,6 +5108,11 @@
           <t>23, Ханза, Ramil', Плачь и Танцуй</t>
         </is>
       </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>23, MORGENSHTERN, OLALA</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="32" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -5180,6 +5300,11 @@
           <t>24, Скриптонит, Будьте здоровы</t>
         </is>
       </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>24, MORGENSHTERN, ARISTOCRAT</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="16" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -5367,6 +5492,11 @@
           <t>25, Dabro, На часах ноль-ноль</t>
         </is>
       </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>25, Скриптонит, Будьте здоровы</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="16" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -5554,6 +5684,11 @@
           <t>26, Måneskin, ZITTI E BUONI</t>
         </is>
       </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>26, Ханза, Ramil', Плачь и Танцуй</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="16" customHeight="1">
       <c r="A28" s="2" t="inlineStr">
@@ -5741,6 +5876,11 @@
           <t>27, NLO, Не грусти</t>
         </is>
       </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>27, Dabro, На часах ноль-ноль</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="32" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
@@ -5928,6 +6068,11 @@
           <t>28, kizaru feat. JABO, Moulin Rouge</t>
         </is>
       </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>28, MAYOT, Снег</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="16" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
@@ -6115,6 +6260,11 @@
           <t>29, Макс Корж, Аттестат</t>
         </is>
       </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>29, Minelli, Rampampam</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="16" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
@@ -6302,6 +6452,11 @@
           <t>30, Artik &amp; Asti, Истеричка</t>
         </is>
       </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>30, MORGENSHTERN, SODA LUV, blago white, OG Buda, MAYOT, Cristal &amp; МОЁТ</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="16" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
@@ -6489,6 +6644,11 @@
           <t>31, MORGENSHTERN, SODA LUV, blago white, OG Buda, MAYOT, Cristal &amp; МОЁТ</t>
         </is>
       </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>31, Goro, Дорогу молодым</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="16" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
@@ -6676,6 +6836,11 @@
           <t>32, Minelli, Rampampam</t>
         </is>
       </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>32, NLO, Не грусти</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="16" customHeight="1">
       <c r="A34" s="2" t="inlineStr">
@@ -6863,6 +7028,11 @@
           <t>33, Лилу45, Восемь</t>
         </is>
       </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>33, Макс Корж, Аттестат</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="16" customHeight="1">
       <c r="A35" s="2" t="inlineStr">
@@ -7050,6 +7220,11 @@
           <t>34, MAYOT, Снег</t>
         </is>
       </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>34, Лилу45, Восемь</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="16" customHeight="1">
       <c r="A36" s="2" t="inlineStr">
@@ -7237,6 +7412,11 @@
           <t>35, MORGENSHTERN, PABLO</t>
         </is>
       </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>35, kizaru feat. JABO, Moulin Rouge</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="16" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
@@ -7424,6 +7604,11 @@
           <t>36, 104 feat. Miyagi, Скриптонит, НЕ ЖАЛЬ (feat. Miyagi &amp; Скриптонит)</t>
         </is>
       </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>36, Artik &amp; Asti, Истеричка</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="16" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
@@ -7611,6 +7796,11 @@
           <t>37, MORGENSHTERN, DINERO</t>
         </is>
       </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>37, 104 feat. Miyagi, Скриптонит, НЕ ЖАЛЬ (feat. Miyagi &amp; Скриптонит)</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="16" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
@@ -7798,6 +7988,11 @@
           <t>38, SEEMEE feat. SODA LUV, Голодный пёс</t>
         </is>
       </c>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>38, MORGENSHTERN, PABLO</t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="16" customHeight="1">
       <c r="A40" s="2" t="inlineStr">
@@ -7985,6 +8180,11 @@
           <t>39, Masked Wolf, Astronaut In The Ocean</t>
         </is>
       </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>39, SEEMEE feat. SODA LUV, Голодный пёс</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="16" customHeight="1">
       <c r="A41" s="2" t="inlineStr">
@@ -8172,6 +8372,11 @@
           <t>40, МОТ, LYRIQ, Не Бруклин</t>
         </is>
       </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>40, MORGENSHTERN, DINERO</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="32" customHeight="1">
       <c r="A42" s="2" t="inlineStr">
@@ -8359,6 +8564,11 @@
           <t>41, SODA LUV, WHY BERRY, Бигасс</t>
         </is>
       </c>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>41, МОТ, LYRIQ, Не Бруклин</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="48" customHeight="1">
       <c r="A43" s="2" t="inlineStr">
@@ -8546,6 +8756,11 @@
           <t>42, Султан Лагучев, Между нами война</t>
         </is>
       </c>
+      <c r="AL43" t="inlineStr">
+        <is>
+          <t>42, SODA LUV, WHY BERRY, Бигасс</t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="16" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
@@ -8733,6 +8948,11 @@
           <t>43, Miyagi &amp; Andy Panda, Minor</t>
         </is>
       </c>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>43, Асия, Как ты там</t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="16" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
@@ -8920,6 +9140,11 @@
           <t>44, SODA LUV feat. SQWOZ BAB, КАЗАНТИП</t>
         </is>
       </c>
+      <c r="AL45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">44, Moreart feat. IHI, Я буду е***ь </t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="16" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
@@ -9107,6 +9332,11 @@
           <t>45, MACAN, Fell in Love</t>
         </is>
       </c>
+      <c r="AL46" t="inlineStr">
+        <is>
+          <t>45, SODA LUV feat. SQWOZ BAB, КАЗАНТИП</t>
+        </is>
+      </c>
     </row>
     <row r="47" ht="32" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
@@ -9294,6 +9524,11 @@
           <t>46, МОТ, JONY, Лилии</t>
         </is>
       </c>
+      <c r="AL47" t="inlineStr">
+        <is>
+          <t>46, Masked Wolf, Astronaut In The Ocean</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="16" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
@@ -9481,6 +9716,11 @@
           <t>47, FEDUK, Песня про лето</t>
         </is>
       </c>
+      <c r="AL48" t="inlineStr">
+        <is>
+          <t>47, ooes, зима</t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="16" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
@@ -9668,6 +9908,11 @@
           <t>48, Jamik, PUSSYKILLER, Франция</t>
         </is>
       </c>
+      <c r="AL49" t="inlineStr">
+        <is>
+          <t>48, MACAN, Fell in Love</t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="16" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
@@ -9855,6 +10100,11 @@
           <t>49, ooes, зима</t>
         </is>
       </c>
+      <c r="AL50" t="inlineStr">
+        <is>
+          <t>49, FEDUK, Песня про лето</t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="16" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
@@ -10042,6 +10292,11 @@
           <t>50, RAIKAHO, Soul, Из чёрного мерина (by Atlanta)</t>
         </is>
       </c>
+      <c r="AL51" t="inlineStr">
+        <is>
+          <t>50, Miyagi &amp; Andy Panda, Minor</t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="16" customHeight="1">
       <c r="A52" s="2" t="inlineStr">
@@ -10229,6 +10484,11 @@
           <t xml:space="preserve">51, Moreart feat. IHI, Я буду е***ь </t>
         </is>
       </c>
+      <c r="AL52" t="inlineStr">
+        <is>
+          <t>51, Султан Лагучев, Между нами война</t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="48" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
@@ -10416,6 +10676,11 @@
           <t>52, BODIEV, Крузак 200</t>
         </is>
       </c>
+      <c r="AL53" t="inlineStr">
+        <is>
+          <t>52, МОТ, JONY, Лилии</t>
+        </is>
+      </c>
     </row>
     <row r="54" ht="48" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
@@ -10603,6 +10868,11 @@
           <t>53, Miyagi &amp; Andy Panda, Там ревели горы</t>
         </is>
       </c>
+      <c r="AL54" t="inlineStr">
+        <is>
+          <t>53, RAIKAHO, Soul, Из чёрного мерина (by Atlanta)</t>
+        </is>
+      </c>
     </row>
     <row r="55" ht="48" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
@@ -10790,6 +11060,11 @@
           <t>54, Клава Кока, Руки Вверх, Нокаут</t>
         </is>
       </c>
+      <c r="AL55" t="inlineStr">
+        <is>
+          <t>54, Jamik, Движки</t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="16" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
@@ -10977,6 +11252,11 @@
           <t>55, SLAVA MARLOW, ТЫ ГОРИШЬ КАК ОГОНЬ</t>
         </is>
       </c>
+      <c r="AL56" t="inlineStr">
+        <is>
+          <t>55, Nikitata, ПОЛЮБИ МЕНЯ СИЛЬНЕЙ</t>
+        </is>
+      </c>
     </row>
     <row r="57" ht="48" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
@@ -11164,6 +11444,11 @@
           <t>56, Jamik, Движки</t>
         </is>
       </c>
+      <c r="AL57" t="inlineStr">
+        <is>
+          <t>56, Jamik, PUSSYKILLER, Франция</t>
+        </is>
+      </c>
     </row>
     <row r="58" ht="48" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
@@ -11351,6 +11636,11 @@
           <t>57, MORGENSHTERN, HUBLOT</t>
         </is>
       </c>
+      <c r="AL58" t="inlineStr">
+        <is>
+          <t>57, Клава Кока, Руки Вверх, Нокаут</t>
+        </is>
+      </c>
     </row>
     <row r="59" ht="16" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
@@ -11538,6 +11828,11 @@
           <t>58, DJ Smash, MORGENSHTERN, Новая волна</t>
         </is>
       </c>
+      <c r="AL59" t="inlineStr">
+        <is>
+          <t>58, BODIEV, Крузак 200</t>
+        </is>
+      </c>
     </row>
     <row r="60" ht="16" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
@@ -11725,6 +12020,11 @@
           <t>59, Хабиб, Ягода малинка</t>
         </is>
       </c>
+      <c r="AL60" t="inlineStr">
+        <is>
+          <t>59, GONE.Fludd, Плохая</t>
+        </is>
+      </c>
     </row>
     <row r="61" ht="16" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
@@ -11912,6 +12212,11 @@
           <t>60, GONE.Fludd, Плохая</t>
         </is>
       </c>
+      <c r="AL61" t="inlineStr">
+        <is>
+          <t>60, Miyagi &amp; Andy Panda, Там ревели горы</t>
+        </is>
+      </c>
     </row>
     <row r="62" ht="48" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
@@ -12099,6 +12404,11 @@
           <t>61, MORGENSHTERN, NOMINALO</t>
         </is>
       </c>
+      <c r="AL62" t="inlineStr">
+        <is>
+          <t>61, Måneskin, CORALINE</t>
+        </is>
+      </c>
     </row>
     <row r="63" ht="16" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
@@ -12286,6 +12596,11 @@
           <t>62, Nikitata, ПОЛЮБИ МЕНЯ СИЛЬНЕЙ</t>
         </is>
       </c>
+      <c r="AL63" t="inlineStr">
+        <is>
+          <t>62, MORGENSHTERN, HUBLOT</t>
+        </is>
+      </c>
     </row>
     <row r="64" ht="32" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
@@ -12473,6 +12788,11 @@
           <t>63, Aarne, The Limba, Markul, Noir</t>
         </is>
       </c>
+      <c r="AL64" t="inlineStr">
+        <is>
+          <t>63, Aarne, The Limba, Markul, Noir</t>
+        </is>
+      </c>
     </row>
     <row r="65" ht="16" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
@@ -12660,6 +12980,11 @@
           <t>64, Måneskin, CORALINE</t>
         </is>
       </c>
+      <c r="AL65" t="inlineStr">
+        <is>
+          <t>64, SODA LUV, Тысячи рук</t>
+        </is>
+      </c>
     </row>
     <row r="66" ht="48" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
@@ -12847,6 +13172,11 @@
           <t>65, WhyBaby?, UncleFlexxx, ONLY FANS</t>
         </is>
       </c>
+      <c r="AL66" t="inlineStr">
+        <is>
+          <t>65, WhyBaby?, UncleFlexxx, ONLY FANS</t>
+        </is>
+      </c>
     </row>
     <row r="67" ht="32" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
@@ -13034,6 +13364,11 @@
           <t>66, Анет Сай, NILETTO, Не люблю?</t>
         </is>
       </c>
+      <c r="AL67" t="inlineStr">
+        <is>
+          <t>66, MORGENSHTERN, NOMINALO</t>
+        </is>
+      </c>
     </row>
     <row r="68" ht="16" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
@@ -13221,6 +13556,11 @@
           <t>67, SODA LUV, Тысячи рук</t>
         </is>
       </c>
+      <c r="AL68" t="inlineStr">
+        <is>
+          <t>67, DJ Smash, MORGENSHTERN, Новая волна</t>
+        </is>
+      </c>
     </row>
     <row r="69" ht="16" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
@@ -13408,6 +13748,11 @@
           <t>68, Niman feat. Truwer, Талия</t>
         </is>
       </c>
+      <c r="AL69" t="inlineStr">
+        <is>
+          <t>68, SLAVA MARLOW, ТЫ ГОРИШЬ КАК ОГОНЬ</t>
+        </is>
+      </c>
     </row>
     <row r="70" ht="32" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
@@ -13595,6 +13940,11 @@
           <t>69, By Индия, я не помню</t>
         </is>
       </c>
+      <c r="AL70" t="inlineStr">
+        <is>
+          <t>69, By Индия, я не помню</t>
+        </is>
+      </c>
     </row>
     <row r="71" ht="16" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
@@ -13782,6 +14132,11 @@
           <t>70, Manizha, RUSSIAN WOMAN</t>
         </is>
       </c>
+      <c r="AL71" t="inlineStr">
+        <is>
+          <t>70, Анет Сай, NILETTO, Не люблю?</t>
+        </is>
+      </c>
     </row>
     <row r="72" ht="32" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
@@ -13969,6 +14324,11 @@
           <t>71, MORGENSHTERN, РЕТРО РЕЙВ</t>
         </is>
       </c>
+      <c r="AL72" t="inlineStr">
+        <is>
+          <t>71, Manizha, RUSSIAN WOMAN</t>
+        </is>
+      </c>
     </row>
     <row r="73" ht="16" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
@@ -14156,6 +14516,11 @@
           <t>72, Ваня Дмитриенко, Венера-Юпитер</t>
         </is>
       </c>
+      <c r="AL73" t="inlineStr">
+        <is>
+          <t>72, MORGENSHTERN, РЕТРО РЕЙВ</t>
+        </is>
+      </c>
     </row>
     <row r="74" ht="16" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
@@ -14343,6 +14708,11 @@
           <t>73, WallClan, Пьяные танцы</t>
         </is>
       </c>
+      <c r="AL74" t="inlineStr">
+        <is>
+          <t>73, Niman feat. Truwer, Талия</t>
+        </is>
+      </c>
     </row>
     <row r="75" ht="16" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
@@ -14530,6 +14900,11 @@
           <t>74, LOBODA, Родной</t>
         </is>
       </c>
+      <c r="AL75" t="inlineStr">
+        <is>
+          <t>74, HENSY, PIZZA, Неидеальная</t>
+        </is>
+      </c>
     </row>
     <row r="76" ht="16" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
@@ -14717,6 +15092,11 @@
           <t>75, Ramil', Сияй</t>
         </is>
       </c>
+      <c r="AL76" t="inlineStr">
+        <is>
+          <t>75, LOVV66, Трап Трап</t>
+        </is>
+      </c>
     </row>
     <row r="77" ht="32" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
@@ -14904,6 +15284,11 @@
           <t>76, MORGENSHTERN, Я КОГДА-НИБУДЬ УЙДУ</t>
         </is>
       </c>
+      <c r="AL77" t="inlineStr">
+        <is>
+          <t>76, WallClan, Пьяные танцы</t>
+        </is>
+      </c>
     </row>
     <row r="78" ht="16" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
@@ -15091,6 +15476,11 @@
           <t>77, VAVAN, Руки Вверх, Ай-яй-яй</t>
         </is>
       </c>
+      <c r="AL78" t="inlineStr">
+        <is>
+          <t>77, MORGENSHTERN, Я КОГДА-НИБУДЬ УЙДУ</t>
+        </is>
+      </c>
     </row>
     <row r="79" ht="32" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
@@ -15278,6 +15668,11 @@
           <t>78, MORGENSHTERN, КОГДА НАС ОТПУСТИТ</t>
         </is>
       </c>
+      <c r="AL79" t="inlineStr">
+        <is>
+          <t>78, Хабиб, Ягода малинка</t>
+        </is>
+      </c>
     </row>
     <row r="80" ht="16" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
@@ -15465,6 +15860,11 @@
           <t>79, Скриптонит, Чистый</t>
         </is>
       </c>
+      <c r="AL80" t="inlineStr">
+        <is>
+          <t>79, LOBODA, Родной</t>
+        </is>
+      </c>
     </row>
     <row r="81" ht="32" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
@@ -15652,6 +16052,11 @@
           <t>80, Тимати, Падаем вместе</t>
         </is>
       </c>
+      <c r="AL81" t="inlineStr">
+        <is>
+          <t>80, MORGENSHTERN, КОГДА НАС ОТПУСТИТ</t>
+        </is>
+      </c>
     </row>
     <row r="82" ht="32" customHeight="1">
       <c r="A82" s="2" t="inlineStr">
@@ -15839,6 +16244,11 @@
           <t>81, LOVV66, Трап Трап</t>
         </is>
       </c>
+      <c r="AL82" t="inlineStr">
+        <is>
+          <t>81, Ваня Дмитриенко, Венера-Юпитер</t>
+        </is>
+      </c>
     </row>
     <row r="83" ht="32" customHeight="1">
       <c r="A83" s="2" t="inlineStr">
@@ -16026,6 +16436,11 @@
           <t>82, Murovei, Тима Белорусских, Пробегал мимо</t>
         </is>
       </c>
+      <c r="AL83" t="inlineStr">
+        <is>
+          <t>82, Murovei, Тима Белорусских, Пробегал мимо</t>
+        </is>
+      </c>
     </row>
     <row r="84" ht="16" customHeight="1">
       <c r="A84" s="2" t="inlineStr">
@@ -16213,6 +16628,11 @@
           <t>83, Miyagi feat. TumaniYO, KADI, Bismarck</t>
         </is>
       </c>
+      <c r="AL84" t="inlineStr">
+        <is>
+          <t>83, Остап Парфёнов, ТЫ НЕ КОРОЛЕВА</t>
+        </is>
+      </c>
     </row>
     <row r="85" ht="32" customHeight="1">
       <c r="A85" s="2" t="inlineStr">
@@ -16400,6 +16820,11 @@
           <t>84, MORGENSHTERN, GTA</t>
         </is>
       </c>
+      <c r="AL85" t="inlineStr">
+        <is>
+          <t>84, Ramil', Сияй</t>
+        </is>
+      </c>
     </row>
     <row r="86" ht="32" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
@@ -16587,6 +17012,11 @@
           <t>85, Макс Барских, Zivert, BESTSELLER</t>
         </is>
       </c>
+      <c r="AL86" t="inlineStr">
+        <is>
+          <t>85, Тимати, Падаем вместе</t>
+        </is>
+      </c>
     </row>
     <row r="87" ht="32" customHeight="1">
       <c r="A87" s="2" t="inlineStr">
@@ -16774,6 +17204,11 @@
           <t>86, Баста feat. Алёна Омаргалиева, Я поднимаюсь над землей (feat. Алёна Омаргалиева)</t>
         </is>
       </c>
+      <c r="AL87" t="inlineStr">
+        <is>
+          <t>86, Скриптонит, Чистый</t>
+        </is>
+      </c>
     </row>
     <row r="88" ht="16" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
@@ -16961,6 +17396,11 @@
           <t>87, RAIKAHO, Молод и глуп</t>
         </is>
       </c>
+      <c r="AL88" t="inlineStr">
+        <is>
+          <t>87, Баста feat. Алёна Омаргалиева, Я поднимаюсь над землей (feat. Алёна Омаргалиева)</t>
+        </is>
+      </c>
     </row>
     <row r="89" ht="16" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
@@ -17148,6 +17588,11 @@
           <t>88, MORGENSHTERN, Cristal &amp; МОЁТ</t>
         </is>
       </c>
+      <c r="AL89" t="inlineStr">
+        <is>
+          <t>88, Miyagi feat. TumaniYO, KADI, Bismarck</t>
+        </is>
+      </c>
     </row>
     <row r="90" ht="16" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
@@ -17335,6 +17780,11 @@
           <t>89, Ислам Итляшев, Она любила розы</t>
         </is>
       </c>
+      <c r="AL90" t="inlineStr">
+        <is>
+          <t>89, SALUKI, 104 feat. ANIKV, БИЛИК, Лавэ (feat. ANIKV &amp; БИЛИК)</t>
+        </is>
+      </c>
     </row>
     <row r="91" ht="32" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
@@ -17522,6 +17972,11 @@
           <t>90, Гуф, Murovei feat. V $ X V PRiNCE, Ураган (feat. V $ X V PRiNCE)</t>
         </is>
       </c>
+      <c r="AL91" t="inlineStr">
+        <is>
+          <t>90, MORGENSHTERN, GTA</t>
+        </is>
+      </c>
     </row>
     <row r="92" ht="32" customHeight="1">
       <c r="A92" s="2" t="inlineStr">
@@ -17709,6 +18164,11 @@
           <t>91, Егор Крид, Голос</t>
         </is>
       </c>
+      <c r="AL92" t="inlineStr">
+        <is>
+          <t>91, VAVAN, Руки Вверх, Ай-яй-яй</t>
+        </is>
+      </c>
     </row>
     <row r="93" ht="16" customHeight="1">
       <c r="A93" s="2" t="inlineStr">
@@ -17896,6 +18356,11 @@
           <t>92, Gazan, СУЕТОЛОГ</t>
         </is>
       </c>
+      <c r="AL93" t="inlineStr">
+        <is>
+          <t>92, Yanix, Пошлая Молли, Из ладони в ладонь</t>
+        </is>
+      </c>
     </row>
     <row r="94" ht="32" customHeight="1">
       <c r="A94" s="2" t="inlineStr">
@@ -18083,6 +18548,11 @@
           <t>93, Yanix, Пошлая Молли, Из ладони в ладонь</t>
         </is>
       </c>
+      <c r="AL94" t="inlineStr">
+        <is>
+          <t>93, Tesher, Jalebi Baby</t>
+        </is>
+      </c>
     </row>
     <row r="95" ht="16" customHeight="1">
       <c r="A95" s="2" t="inlineStr">
@@ -18270,6 +18740,11 @@
           <t>94, SALUKI, 104 feat. ANIKV, БИЛИК, Лавэ (feat. ANIKV &amp; БИЛИК)</t>
         </is>
       </c>
+      <c r="AL95" t="inlineStr">
+        <is>
+          <t>94, Макс Барских, Zivert, BESTSELLER</t>
+        </is>
+      </c>
     </row>
     <row r="96" ht="48" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
@@ -18457,6 +18932,11 @@
           <t>95, Tesher, Jalebi Baby</t>
         </is>
       </c>
+      <c r="AL96" t="inlineStr">
+        <is>
+          <t>95, MORGENSHTERN, Cristal &amp; МОЁТ</t>
+        </is>
+      </c>
     </row>
     <row r="97" ht="32" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
@@ -18644,6 +19124,11 @@
           <t>96, SLAVA MARLOW, Снова я напиваюсь</t>
         </is>
       </c>
+      <c r="AL97" t="inlineStr">
+        <is>
+          <t>96, Скриптонит, Москва любит...</t>
+        </is>
+      </c>
     </row>
     <row r="98" ht="16" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
@@ -18831,6 +19316,11 @@
           <t>97, DOROFEEVA, gorit</t>
         </is>
       </c>
+      <c r="AL98" t="inlineStr">
+        <is>
+          <t>97, RAIKAHO, Молод и глуп</t>
+        </is>
+      </c>
     </row>
     <row r="99" ht="16" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
@@ -19018,6 +19508,11 @@
           <t>98, Егор Крид, (Не)идеальна</t>
         </is>
       </c>
+      <c r="AL99" t="inlineStr">
+        <is>
+          <t>98, Gazan, СУЕТОЛОГ</t>
+        </is>
+      </c>
     </row>
     <row r="100" ht="32" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
@@ -19205,6 +19700,11 @@
           <t>99, MONEYKEN, Грустная на тусе</t>
         </is>
       </c>
+      <c r="AL100" t="inlineStr">
+        <is>
+          <t>99, Егор Крид, Голос</t>
+        </is>
+      </c>
     </row>
     <row r="101" ht="48" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
@@ -19380,6 +19880,11 @@
       <c r="AK101" t="inlineStr">
         <is>
           <t>100, Скриптонит, Москва любит...</t>
+        </is>
+      </c>
+      <c r="AL101" t="inlineStr">
+        <is>
+          <t>100, Гуф, Murovei feat. V $ X V PRiNCE, Ураган (feat. V $ X V PRiNCE)</t>
         </is>
       </c>
     </row>
@@ -19395,7 +19900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK101"/>
+  <dimension ref="A1:AL101"/>
   <sheetViews>
     <sheetView topLeftCell="Y1" zoomScale="75" workbookViewId="0">
       <selection activeCell="AG1" sqref="AG1:AG1048576"/>
@@ -19403,8 +19908,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37" defaultRowHeight="15"/>
   <cols>
-    <col width="37" customWidth="1" style="2" min="1" max="19"/>
-    <col width="37" customWidth="1" style="2" min="20" max="16384"/>
+    <col width="37" customWidth="1" style="2" min="1" max="20"/>
+    <col width="37" customWidth="1" style="2" min="21" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -19591,6 +20096,11 @@
           <t>2021-06-07</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="16" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
@@ -19778,6 +20288,11 @@
           <t>1, MORGENSHTERN, MILLION DOLLAR: BUSINESS</t>
         </is>
       </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>1, MORGENSHTERN, MILLION DOLLAR: BUSINESS</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="16" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
@@ -19965,6 +20480,11 @@
           <t>2, MORGENSHTERN, MILLION DOLLAR: HAPPINESS</t>
         </is>
       </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>2, MORGENSHTERN, MILLION DOLLAR: HAPPINESS</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -20152,6 +20672,11 @@
           <t>3, Måneskin, Teatro d'ira - Vol. I</t>
         </is>
       </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>3, Måneskin, Teatro d'ira - Vol. I</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="16" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -20339,6 +20864,11 @@
           <t>4, Miyagi &amp; Andy Panda, YAMAKASI</t>
         </is>
       </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>4, Miyagi &amp; Andy Panda, YAMAKASI</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -20526,6 +21056,11 @@
           <t>5, DEAD BLONDE, ПРОПАГАНДА</t>
         </is>
       </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>5, DEAD BLONDE, ПРОПАГАНДА</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="16" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -20713,6 +21248,11 @@
           <t>6, Miyagi, Buster Keaton</t>
         </is>
       </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>6, Miyagi, Buster Keaton</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -20900,6 +21440,11 @@
           <t>7, Artik &amp; Asti, Миллениум</t>
         </is>
       </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>7, Artik &amp; Asti, Миллениум</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="32" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -21087,6 +21632,11 @@
           <t>8, Скриптонит, Свистки и бумажки</t>
         </is>
       </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>8, Скриптонит, Свистки и бумажки</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="32" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -21274,6 +21824,11 @@
           <t>9, Måneskin, Chosen</t>
         </is>
       </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>9, Måneskin, Chosen</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="32" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
@@ -21461,6 +22016,11 @@
           <t>10, Скриптонит, Праздник на улице 36</t>
         </is>
       </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>10, Скриптонит, Праздник на улице 36</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="16" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
@@ -21648,6 +22208,11 @@
           <t>11, HammAli &amp; Navai, Когда хорошему человеку плохо</t>
         </is>
       </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>11, HammAli &amp; Navai, Когда хорошему человеку плохо</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="16" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
@@ -21835,6 +22400,11 @@
           <t>12, Скриптонит, 2004</t>
         </is>
       </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>12, Скриптонит, 2004</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="16" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -22022,6 +22592,11 @@
           <t>13, MAYOT, GHETTO GARDEN</t>
         </is>
       </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>13, MAYOT, GHETTO GARDEN</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="16" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -22209,6 +22784,11 @@
           <t>14, SODA LUV, Viva la vida</t>
         </is>
       </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>14, SODA LUV, Viva la vida</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="16" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -22396,6 +22976,11 @@
           <t>15, OG Buda, FREERIO</t>
         </is>
       </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>15, OG Buda, FREERIO</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="16" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -22583,6 +23168,11 @@
           <t>16, SODA LUV, Ничего личного</t>
         </is>
       </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>16, SODA LUV, Ничего личного</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="16" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -22770,6 +23360,11 @@
           <t>17, Ramil', Сияй</t>
         </is>
       </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>17, Ramil', Сияй</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="32" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -22957,6 +23552,11 @@
           <t>18, Скриптонит, Уроборос: Улица 36</t>
         </is>
       </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>18, Скриптонит, Уроборос: Улица 36</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="32" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -23144,6 +23744,11 @@
           <t>19, Канги, Том I. «Жить не запретишь»</t>
         </is>
       </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>19, Канги, Том I. «Жить не запретишь»</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="16" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
@@ -23331,6 +23936,11 @@
           <t>20, Miyagi &amp; Эндшпиль, Неизданное, Pt. 1</t>
         </is>
       </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>20, Miyagi &amp; Эндшпиль, Неизданное, Pt. 1</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="16" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
@@ -23518,6 +24128,11 @@
           <t>21, Скриптонит, Дом с нормальными явлениями</t>
         </is>
       </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>21, Скриптонит, Дом с нормальными явлениями</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="16" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -23705,6 +24320,11 @@
           <t>22, Artik &amp; Asti, 7 (Part 2)</t>
         </is>
       </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>22, Artik &amp; Asti, 7 (Part 2)</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="16" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -23892,6 +24512,11 @@
           <t>23, JONY, Небесные розы</t>
         </is>
       </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>23, JONY, Небесные розы</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="16" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -24079,6 +24704,11 @@
           <t>24, LOVV66, ФИЗИКАЛ ПЭЙН</t>
         </is>
       </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>24, LOVV66, ФИЗИКАЛ ПЭЙН</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="16" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -24266,6 +24896,11 @@
           <t>25, Тимати, Шипы и розы</t>
         </is>
       </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>25, Тимати, Шипы и розы</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="16" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -24453,6 +25088,11 @@
           <t>26, SLAVA MARLOW, АРТЁМ</t>
         </is>
       </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>26, SLAVA MARLOW, АРТЁМ</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="16" customHeight="1">
       <c r="A28" s="2" t="inlineStr">
@@ -24640,6 +25280,11 @@
           <t>27, JONY, Список твоих мыслей</t>
         </is>
       </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>27, JONY, Список твоих мыслей</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="16" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
@@ -24827,6 +25472,11 @@
           <t>28, SALUKI, 104, СТЫД ИЛИ СЛАВА</t>
         </is>
       </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>28, SALUKI, 104, СТЫД ИЛИ СЛАВА</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="16" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
@@ -25014,6 +25664,11 @@
           <t>29, Макс Корж, Жить в кайф</t>
         </is>
       </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>29, Макс Корж, Жить в кайф</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="32" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
@@ -25201,6 +25856,11 @@
           <t>30, Miyagi &amp; Эндшпиль, Hajime, Pt. 3</t>
         </is>
       </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>30, Miyagi &amp; Эндшпиль, Hajime, Pt. 3</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="32" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
@@ -25388,6 +26048,11 @@
           <t>31, Miyagi &amp; Эндшпиль, Неизданное, Pt. 2</t>
         </is>
       </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>31, Miyagi &amp; Эндшпиль, Неизданное, Pt. 2</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="32" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
@@ -25575,6 +26240,11 @@
           <t>32, The Hatters, V</t>
         </is>
       </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>32, The Hatters, V</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="16" customHeight="1">
       <c r="A34" s="2" t="inlineStr">
@@ -25762,6 +26432,11 @@
           <t>33, By Индия, Хочу спать сладко</t>
         </is>
       </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>33, By Индия, Хочу спать сладко</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="16" customHeight="1">
       <c r="A35" s="2" t="inlineStr">
@@ -25949,6 +26624,11 @@
           <t>34, Zivert, Vinyl #1</t>
         </is>
       </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>34, Zivert, Vinyl #1</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="16" customHeight="1">
       <c r="A36" s="2" t="inlineStr">
@@ -26136,6 +26816,11 @@
           <t>35, Гуф, Murovei, Дом, который построил Алик</t>
         </is>
       </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>35, Гуф, Murovei, Дом, который построил Алик</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="16" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
@@ -26323,6 +27008,11 @@
           <t>36, Jah Khalib, Мудрец</t>
         </is>
       </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>36, Jah Khalib, Мудрец</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="16" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
@@ -26510,6 +27200,11 @@
           <t>37, Miyagi &amp; Эндшпиль, Hajime, Pt. 2</t>
         </is>
       </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>37, Miyagi &amp; Эндшпиль, Hajime, Pt. 2</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="16" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
@@ -26697,6 +27392,11 @@
           <t>38, Xcho, CROSS</t>
         </is>
       </c>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>38, Xcho, CROSS</t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="16" customHeight="1">
       <c r="A40" s="2" t="inlineStr">
@@ -26884,6 +27584,11 @@
           <t>39, Mary Gu, хорошее и плохое</t>
         </is>
       </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>39, Mary Gu, хорошее и плохое</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="16" customHeight="1">
       <c r="A41" s="2" t="inlineStr">
@@ -27071,6 +27776,11 @@
           <t>40, Баста, Баста 5, Часть 2</t>
         </is>
       </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>40, Баста, Баста 5, Часть 2</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="16" customHeight="1">
       <c r="A42" s="2" t="inlineStr">
@@ -27258,6 +27968,11 @@
           <t>41, Miyagi &amp; Эндшпиль, Hajime, Pt. 1</t>
         </is>
       </c>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>41, Miyagi &amp; Эндшпиль, Hajime, Pt. 1</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="16" customHeight="1">
       <c r="A43" s="2" t="inlineStr">
@@ -27445,6 +28160,11 @@
           <t>42, Три дня дождя, Когда ты откроешь глаза</t>
         </is>
       </c>
+      <c r="AL43" t="inlineStr">
+        <is>
+          <t>42, Три дня дождя, Когда ты откроешь глаза</t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="16" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
@@ -27632,6 +28352,11 @@
           <t>43, Макс Корж, Малый повзрослел, Ч. 2</t>
         </is>
       </c>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>43, Макс Корж, Малый повзрослел, Ч. 2</t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="16" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
@@ -27819,6 +28544,11 @@
           <t>44, 104, КИНО БЕЗ СИГАРЕТ</t>
         </is>
       </c>
+      <c r="AL45" t="inlineStr">
+        <is>
+          <t>44, 104, КИНО БЕЗ СИГАРЕТ</t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="16" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
@@ -28006,6 +28736,11 @@
           <t>45, GAYAZOV$ BROTHER$, Кредо</t>
         </is>
       </c>
+      <c r="AL46" t="inlineStr">
+        <is>
+          <t>45, GAYAZOV$ BROTHER$, Кредо</t>
+        </is>
+      </c>
     </row>
     <row r="47" ht="16" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
@@ -28193,6 +28928,11 @@
           <t>46, kizaru, BORN TO TRAP</t>
         </is>
       </c>
+      <c r="AL47" t="inlineStr">
+        <is>
+          <t>46, kizaru, BORN TO TRAP</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="16" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
@@ -28380,6 +29120,11 @@
           <t>47, SHAMI, гости</t>
         </is>
       </c>
+      <c r="AL48" t="inlineStr">
+        <is>
+          <t>47, SHAMI, гости</t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="16" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
@@ -28567,6 +29312,11 @@
           <t>48, просто Лера, ПОГОДА ЛЮБИТЬ</t>
         </is>
       </c>
+      <c r="AL49" t="inlineStr">
+        <is>
+          <t>48, просто Лера, ПОГОДА ЛЮБИТЬ</t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="32" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
@@ -28754,6 +29504,11 @@
           <t>49, MACAN, 2002+18</t>
         </is>
       </c>
+      <c r="AL50" t="inlineStr">
+        <is>
+          <t>49, MACAN, 2002+18</t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="32" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
@@ -28941,6 +29696,11 @@
           <t>50, MORGENSHTERN, ЛЕГЕНДАРНАЯ ПЫЛЬ</t>
         </is>
       </c>
+      <c r="AL51" t="inlineStr">
+        <is>
+          <t>50, MORGENSHTERN, ЛЕГЕНДАРНАЯ ПЫЛЬ</t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="32" customHeight="1">
       <c r="A52" s="2" t="inlineStr">
@@ -29128,6 +29888,11 @@
           <t>51, Король и Шут, Акустический альбом</t>
         </is>
       </c>
+      <c r="AL52" t="inlineStr">
+        <is>
+          <t>51, Король и Шут, Акустический альбом</t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="32" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
@@ -29315,6 +30080,11 @@
           <t>52, kizaru, Karmageddon</t>
         </is>
       </c>
+      <c r="AL53" t="inlineStr">
+        <is>
+          <t>52, kizaru, Karmageddon</t>
+        </is>
+      </c>
     </row>
     <row r="54" ht="32" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
@@ -29502,6 +30272,11 @@
           <t>53, Måneskin, Il ballo della vita</t>
         </is>
       </c>
+      <c r="AL54" t="inlineStr">
+        <is>
+          <t>53, Måneskin, Il ballo della vita</t>
+        </is>
+      </c>
     </row>
     <row r="55" ht="16" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
@@ -29689,6 +30464,11 @@
           <t>54, Andy Panda, King Kong</t>
         </is>
       </c>
+      <c r="AL55" t="inlineStr">
+        <is>
+          <t>54, Andy Panda, King Kong</t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="16" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
@@ -29876,6 +30656,11 @@
           <t>55, VERBEE, Выдыхай</t>
         </is>
       </c>
+      <c r="AL56" t="inlineStr">
+        <is>
+          <t>55, VERBEE, Выдыхай</t>
+        </is>
+      </c>
     </row>
     <row r="57" ht="32" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
@@ -30063,6 +30848,11 @@
           <t>56, Егор Крид, 58</t>
         </is>
       </c>
+      <c r="AL57" t="inlineStr">
+        <is>
+          <t>56, Егор Крид, 58</t>
+        </is>
+      </c>
     </row>
     <row r="58" ht="16" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
@@ -30250,6 +31040,11 @@
           <t>57, XXXTENTACION, ?</t>
         </is>
       </c>
+      <c r="AL58" t="inlineStr">
+        <is>
+          <t>57, XXXTENTACION, ?</t>
+        </is>
+      </c>
     </row>
     <row r="59" ht="16" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
@@ -30437,6 +31232,11 @@
           <t>58, ФОГЕЛЬ, ЛЮБОЛЬ, Pt. 1</t>
         </is>
       </c>
+      <c r="AL59" t="inlineStr">
+        <is>
+          <t>58, ФОГЕЛЬ, ЛЮБОЛЬ, Pt. 1</t>
+        </is>
+      </c>
     </row>
     <row r="60" ht="16" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
@@ -30624,6 +31424,11 @@
           <t>59, Andro, MOON FLAME</t>
         </is>
       </c>
+      <c r="AL60" t="inlineStr">
+        <is>
+          <t>59, Andro, MOON FLAME</t>
+        </is>
+      </c>
     </row>
     <row r="61" ht="32" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
@@ -30811,6 +31616,11 @@
           <t>60, Мари Краймбрери, Нас узнает весь мир (Part 1)</t>
         </is>
       </c>
+      <c r="AL61" t="inlineStr">
+        <is>
+          <t>60, Мари Краймбрери, Нас узнает весь мир (Part 1)</t>
+        </is>
+      </c>
     </row>
     <row r="62" ht="16" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
@@ -30998,6 +31808,11 @@
           <t>61, Santiz, 52 Герца</t>
         </is>
       </c>
+      <c r="AL62" t="inlineStr">
+        <is>
+          <t>61, Santiz, 52 Герца</t>
+        </is>
+      </c>
     </row>
     <row r="63" ht="32" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
@@ -31185,6 +32000,11 @@
           <t>62, Artik &amp; Asti, 7 (Part 1)</t>
         </is>
       </c>
+      <c r="AL63" t="inlineStr">
+        <is>
+          <t>62, Artik &amp; Asti, 7 (Part 1)</t>
+        </is>
+      </c>
     </row>
     <row r="64" ht="16" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
@@ -31372,6 +32192,11 @@
           <t>63, HammAli &amp; Navai, JANAVI</t>
         </is>
       </c>
+      <c r="AL64" t="inlineStr">
+        <is>
+          <t>63, HammAli &amp; Navai, JANAVI</t>
+        </is>
+      </c>
     </row>
     <row r="65" ht="16" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
@@ -31559,6 +32384,11 @@
           <t>64, Big Baby Tape, Dragonborn</t>
         </is>
       </c>
+      <c r="AL65" t="inlineStr">
+        <is>
+          <t>64, Big Baby Tape, Dragonborn</t>
+        </is>
+      </c>
     </row>
     <row r="66" ht="32" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
@@ -31746,6 +32576,11 @@
           <t>65, Тимати, Транзит</t>
         </is>
       </c>
+      <c r="AL66" t="inlineStr">
+        <is>
+          <t>65, Тимати, Транзит</t>
+        </is>
+      </c>
     </row>
     <row r="67" ht="32" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
@@ -31933,6 +32768,11 @@
           <t>66, Boulevard Depo, OLD BLOOD</t>
         </is>
       </c>
+      <c r="AL67" t="inlineStr">
+        <is>
+          <t>66, Boulevard Depo, OLD BLOOD</t>
+        </is>
+      </c>
     </row>
     <row r="68" ht="32" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
@@ -32120,6 +32960,11 @@
           <t>67, Rauf &amp; Faik, Я люблю тебя</t>
         </is>
       </c>
+      <c r="AL68" t="inlineStr">
+        <is>
+          <t>67, Rauf &amp; Faik, Я люблю тебя</t>
+        </is>
+      </c>
     </row>
     <row r="69" ht="32" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
@@ -32307,6 +33152,11 @@
           <t>68, Markul, Great Depression</t>
         </is>
       </c>
+      <c r="AL69" t="inlineStr">
+        <is>
+          <t>68, Markul, Great Depression</t>
+        </is>
+      </c>
     </row>
     <row r="70" ht="32" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
@@ -32494,6 +33344,11 @@
           <t>69, Баста, Баста 3</t>
         </is>
       </c>
+      <c r="AL70" t="inlineStr">
+        <is>
+          <t>69, Баста, Баста 3</t>
+        </is>
+      </c>
     </row>
     <row r="71" ht="16" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
@@ -32681,6 +33536,11 @@
           <t>70, Кино, Легенда</t>
         </is>
       </c>
+      <c r="AL71" t="inlineStr">
+        <is>
+          <t>70, Кино, Легенда</t>
+        </is>
+      </c>
     </row>
     <row r="72" ht="32" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
@@ -32868,6 +33728,11 @@
           <t>71, Порнофильмы, В диапазоне между отчаянием и надеждой</t>
         </is>
       </c>
+      <c r="AL72" t="inlineStr">
+        <is>
+          <t>71, Порнофильмы, В диапазоне между отчаянием и надеждой</t>
+        </is>
+      </c>
     </row>
     <row r="73" ht="16" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
@@ -33055,6 +33920,11 @@
           <t>72, Юрий Хой, Сектор Газа, Вой на Луну. Лучшее и неизданное</t>
         </is>
       </c>
+      <c r="AL73" t="inlineStr">
+        <is>
+          <t>72, Юрий Хой, Сектор Газа, Вой на Луну. Лучшее и неизданное</t>
+        </is>
+      </c>
     </row>
     <row r="74" ht="16" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
@@ -33242,6 +34112,11 @@
           <t>73, АК-47, Третий</t>
         </is>
       </c>
+      <c r="AL74" t="inlineStr">
+        <is>
+          <t>73, АК-47, Третий</t>
+        </is>
+      </c>
     </row>
     <row r="75" ht="32" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
@@ -33429,6 +34304,11 @@
           <t>74, Boulevard Depo, JEEMBO, ОМОФОР</t>
         </is>
       </c>
+      <c r="AL75" t="inlineStr">
+        <is>
+          <t>74, Boulevard Depo, JEEMBO, ОМОФОР</t>
+        </is>
+      </c>
     </row>
     <row r="76" ht="16" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
@@ -33616,6 +34496,11 @@
           <t>75, OG Buda, SEXY DRILL</t>
         </is>
       </c>
+      <c r="AL76" t="inlineStr">
+        <is>
+          <t>75, OG Buda, SEXY DRILL</t>
+        </is>
+      </c>
     </row>
     <row r="77" ht="32" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
@@ -33803,6 +34688,11 @@
           <t>76, Ramil', Всё, что есть у меня - это голод</t>
         </is>
       </c>
+      <c r="AL77" t="inlineStr">
+        <is>
+          <t>76, Ramil', Всё, что есть у меня - это голод</t>
+        </is>
+      </c>
     </row>
     <row r="78" ht="32" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
@@ -33990,6 +34880,11 @@
           <t>77, Баста, 40</t>
         </is>
       </c>
+      <c r="AL78" t="inlineStr">
+        <is>
+          <t>77, Баста, 40</t>
+        </is>
+      </c>
     </row>
     <row r="79" ht="32" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
@@ -34177,6 +35072,11 @@
           <t>78, Jah Khalib, Если Че Я Баха</t>
         </is>
       </c>
+      <c r="AL79" t="inlineStr">
+        <is>
+          <t>78, Jah Khalib, Если Че Я Баха</t>
+        </is>
+      </c>
     </row>
     <row r="80" ht="32" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
@@ -34364,6 +35264,11 @@
           <t>79, PHARAOH, Million Dollar Depression</t>
         </is>
       </c>
+      <c r="AL80" t="inlineStr">
+        <is>
+          <t>79, PHARAOH, Million Dollar Depression</t>
+        </is>
+      </c>
     </row>
     <row r="81" ht="16" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
@@ -34551,6 +35456,11 @@
           <t>80, Jah Khalib, E.G.O.</t>
         </is>
       </c>
+      <c r="AL81" t="inlineStr">
+        <is>
+          <t>80, Jah Khalib, E.G.O.</t>
+        </is>
+      </c>
     </row>
     <row r="82" ht="16" customHeight="1">
       <c r="A82" s="2" t="inlineStr">
@@ -34738,6 +35648,11 @@
           <t>81, Пошлая Молли, 8 способов как бросить…</t>
         </is>
       </c>
+      <c r="AL82" t="inlineStr">
+        <is>
+          <t>81, Пошлая Молли, 8 способов как бросить…</t>
+        </is>
+      </c>
     </row>
     <row r="83" ht="16" customHeight="1">
       <c r="A83" s="2" t="inlineStr">
@@ -34925,6 +35840,11 @@
           <t>82, Ramil', Хочешь со мной</t>
         </is>
       </c>
+      <c r="AL83" t="inlineStr">
+        <is>
+          <t>82, Ramil', Хочешь со мной</t>
+        </is>
+      </c>
     </row>
     <row r="84" ht="16" customHeight="1">
       <c r="A84" s="2" t="inlineStr">
@@ -35112,6 +36032,11 @@
           <t>83, LOVV66, PUZZLES</t>
         </is>
       </c>
+      <c r="AL84" t="inlineStr">
+        <is>
+          <t>83, LOVV66, PUZZLES</t>
+        </is>
+      </c>
     </row>
     <row r="85" ht="16" customHeight="1">
       <c r="A85" s="2" t="inlineStr">
@@ -35299,6 +36224,11 @@
           <t>84, MACAN, 1000 км до мечты</t>
         </is>
       </c>
+      <c r="AL85" t="inlineStr">
+        <is>
+          <t>84, MACAN, 1000 км до мечты</t>
+        </is>
+      </c>
     </row>
     <row r="86" ht="16" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
@@ -35486,6 +36416,11 @@
           <t>85, Billie Eilish, WHEN WE ALL FALL ASLEEP, WHERE DO WE GO?</t>
         </is>
       </c>
+      <c r="AL86" t="inlineStr">
+        <is>
+          <t>85, Billie Eilish, WHEN WE ALL FALL ASLEEP, WHERE DO WE GO?</t>
+        </is>
+      </c>
     </row>
     <row r="87" ht="16" customHeight="1">
       <c r="A87" s="2" t="inlineStr">
@@ -35673,6 +36608,11 @@
           <t>86, TARAS, В режиме полёта</t>
         </is>
       </c>
+      <c r="AL87" t="inlineStr">
+        <is>
+          <t>86, TARAS, В режиме полёта</t>
+        </is>
+      </c>
     </row>
     <row r="88" ht="32" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
@@ -35860,6 +36800,11 @@
           <t>87, Navai, Три песни</t>
         </is>
       </c>
+      <c r="AL88" t="inlineStr">
+        <is>
+          <t>87, Navai, Три песни</t>
+        </is>
+      </c>
     </row>
     <row r="89" ht="16" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
@@ -36047,6 +36992,11 @@
           <t>88, OG Buda, ОПГ СИТИ</t>
         </is>
       </c>
+      <c r="AL89" t="inlineStr">
+        <is>
+          <t>88, OG Buda, ОПГ СИТИ</t>
+        </is>
+      </c>
     </row>
     <row r="90" ht="16" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
@@ -36234,6 +37184,11 @@
           <t>89, ELMAN, Муза</t>
         </is>
       </c>
+      <c r="AL90" t="inlineStr">
+        <is>
+          <t>89, ELMAN, Муза</t>
+        </is>
+      </c>
     </row>
     <row r="91" ht="16" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
@@ -36421,6 +37376,11 @@
           <t>90, Jah Khalib, Все что мы любим</t>
         </is>
       </c>
+      <c r="AL91" t="inlineStr">
+        <is>
+          <t>90, Jah Khalib, Все что мы любим</t>
+        </is>
+      </c>
     </row>
     <row r="92" ht="16" customHeight="1">
       <c r="A92" s="2" t="inlineStr">
@@ -36608,6 +37568,11 @@
           <t>91, LIZER, Не Ангел</t>
         </is>
       </c>
+      <c r="AL92" t="inlineStr">
+        <is>
+          <t>91, LIZER, Не Ангел</t>
+        </is>
+      </c>
     </row>
     <row r="93" ht="32" customHeight="1">
       <c r="A93" s="2" t="inlineStr">
@@ -36795,6 +37760,11 @@
           <t>92, Платина, Опиаты Круг</t>
         </is>
       </c>
+      <c r="AL93" t="inlineStr">
+        <is>
+          <t>92, Платина, Опиаты Круг</t>
+        </is>
+      </c>
     </row>
     <row r="94" ht="32" customHeight="1">
       <c r="A94" s="2" t="inlineStr">
@@ -36982,6 +37952,11 @@
           <t>93, Леша Свик, Инсомния</t>
         </is>
       </c>
+      <c r="AL94" t="inlineStr">
+        <is>
+          <t>93, Леша Свик, Инсомния</t>
+        </is>
+      </c>
     </row>
     <row r="95" ht="32" customHeight="1">
       <c r="A95" s="2" t="inlineStr">
@@ -37169,6 +38144,11 @@
           <t>94, Бриллиантовый Ти, Альбом номер 1</t>
         </is>
       </c>
+      <c r="AL95" t="inlineStr">
+        <is>
+          <t>94, Бриллиантовый Ти, Альбом номер 1</t>
+        </is>
+      </c>
     </row>
     <row r="96" ht="32" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
@@ -37356,6 +38336,11 @@
           <t>95, MONATIK, LOVE IT ритм</t>
         </is>
       </c>
+      <c r="AL96" t="inlineStr">
+        <is>
+          <t>95, MONATIK, LOVE IT ритм</t>
+        </is>
+      </c>
     </row>
     <row r="97" ht="32" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
@@ -37543,6 +38528,11 @@
           <t>96, T-Fest, Иностранец</t>
         </is>
       </c>
+      <c r="AL97" t="inlineStr">
+        <is>
+          <t>96, T-Fest, Иностранец</t>
+        </is>
+      </c>
     </row>
     <row r="98" ht="32" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
@@ -37730,6 +38720,11 @@
           <t>97, Егор Крид, Что они знают?</t>
         </is>
       </c>
+      <c r="AL98" t="inlineStr">
+        <is>
+          <t>97, Егор Крид, Что они знают?</t>
+        </is>
+      </c>
     </row>
     <row r="99" ht="32" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
@@ -37917,6 +38912,11 @@
           <t>98, Каспийский Груз, Сторона А сторона Б</t>
         </is>
       </c>
+      <c r="AL99" t="inlineStr">
+        <is>
+          <t>98, Каспийский Груз, Сторона А сторона Б</t>
+        </is>
+      </c>
     </row>
     <row r="100" ht="32" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
@@ -38104,6 +39104,11 @@
           <t>99, Little Big, COVERS</t>
         </is>
       </c>
+      <c r="AL100" t="inlineStr">
+        <is>
+          <t>99, Little Big, COVERS</t>
+        </is>
+      </c>
     </row>
     <row r="101" ht="32" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
@@ -38287,6 +39292,11 @@
         </is>
       </c>
       <c r="AK101" t="inlineStr">
+        <is>
+          <t>100, lil krystalll, NO LABEL</t>
+        </is>
+      </c>
+      <c r="AL101" t="inlineStr">
         <is>
           <t>100, lil krystalll, NO LABEL</t>
         </is>
@@ -38303,7 +39313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK101"/>
+  <dimension ref="A1:AL101"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" zoomScale="91" workbookViewId="0">
       <selection activeCell="AG1" sqref="AG1:AG1048576"/>
@@ -38311,8 +39321,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.5" defaultRowHeight="15"/>
   <cols>
-    <col width="33.5" customWidth="1" style="2" min="1" max="19"/>
-    <col width="33.5" customWidth="1" style="2" min="20" max="16384"/>
+    <col width="33.5" customWidth="1" style="2" min="1" max="20"/>
+    <col width="33.5" customWidth="1" style="2" min="21" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -38499,6 +39509,11 @@
           <t>2021-06-07</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="16" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
@@ -38686,6 +39701,11 @@
           <t xml:space="preserve">1, HammAli &amp; Navai,   Птичка </t>
         </is>
       </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1, Джарахов, Markul,   Я в моменте </t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="64" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
@@ -38873,6 +39893,11 @@
           <t xml:space="preserve">2, Джарахов, Markul,   Я в моменте </t>
         </is>
       </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2, HammAli &amp; Navai,   Птичка </t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -39060,6 +40085,11 @@
           <t xml:space="preserve">3, Masked Wolf,   Astronaut In The Ocean </t>
         </is>
       </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3, Masked Wolf,   Astronaut In The Ocean </t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="64" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -39247,6 +40277,11 @@
           <t xml:space="preserve">4, DEAD BLONDE,   Мальчик на девятке </t>
         </is>
       </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4, DEAD BLONDE,   Мальчик на девятке </t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="32" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -39434,6 +40469,11 @@
           <t xml:space="preserve">5, GAYAZOV$ BROTHER$, Filatov &amp; Karas,   Пошла жара </t>
         </is>
       </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5, GAYAZOV$ BROTHER$, Filatov &amp; Karas,   Пошла жара </t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="48" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -39621,6 +40661,11 @@
           <t xml:space="preserve">6, ХАБИБ,   Ягода малинка </t>
         </is>
       </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>6, Måneskin,   ZITTI E BUONI Италия. Победитель на «Евровидении-2021»</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="32" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -39808,6 +40853,11 @@
           <t xml:space="preserve">7, Artik &amp; Asti,   Истеричка </t>
         </is>
       </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7, Minelli,   Rampampam </t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="32" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -39995,6 +41045,11 @@
           <t xml:space="preserve">8, Султан Лагучев,   Горький вкус </t>
         </is>
       </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8, Султан Лагучев,   Горький вкус </t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="16" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -40182,6 +41237,11 @@
           <t xml:space="preserve">9, Minelli,   Rampampam </t>
         </is>
       </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9, Artik &amp; Asti,   Истеричка </t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="64" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
@@ -40369,6 +41429,11 @@
           <t xml:space="preserve">10, Little Big,   Everybody (Little Big Are Back) </t>
         </is>
       </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10, MORGENSHTERN,   ДУЛО </t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="32" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
@@ -40556,6 +41621,11 @@
           <t>11, Måneskin,   ZITTI E BUONI Италия. Победитель на «Евровидении-2021»</t>
         </is>
       </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11, ХАБИБ,   Ягода малинка </t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="32" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
@@ -40743,6 +41813,11 @@
           <t xml:space="preserve">12, Miyagi &amp; Andy Panda, TumaniYO,   Оттепель </t>
         </is>
       </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12, Måneskin,   I WANNA BE YOUR SLAVE </t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="16" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -40930,6 +42005,11 @@
           <t xml:space="preserve">13, MORGENSHTERN,   ДУЛО </t>
         </is>
       </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13, Little Big,   Everybody (Little Big Are Back) </t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="16" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -41117,6 +42197,11 @@
           <t xml:space="preserve">14, Ramil',   Сон </t>
         </is>
       </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14, Ramil',   Сон </t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="32" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -41304,6 +42389,11 @@
           <t xml:space="preserve">15, Клава Кока &amp; Руки Вверх!,   Нокаут </t>
         </is>
       </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15, Miyagi &amp; Andy Panda, TumaniYO,   Оттепель </t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="32" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -41491,6 +42581,11 @@
           <t xml:space="preserve">16, Ваня Дмитриенко,   Венера-Юпитер </t>
         </is>
       </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16, Ваня Дмитриенко,   Венера-Юпитер </t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="32" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -41678,6 +42773,11 @@
           <t xml:space="preserve">17, Måneskin,   I WANNA BE YOUR SLAVE </t>
         </is>
       </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17, Клава Кока &amp; Руки Вверх!,   Нокаут </t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="64" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -41865,6 +42965,11 @@
           <t xml:space="preserve">18, Dabro,   На часах ноль-ноль </t>
         </is>
       </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18, Dabro,   На часах ноль-ноль </t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="32" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -42052,6 +43157,11 @@
           <t xml:space="preserve">19, SLAVA MARLOW,   ТЫ ГОРИШЬ КАК ОГОНЬ </t>
         </is>
       </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19, Miyagi &amp; Andy Panda,   Патрон </t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="32" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
@@ -42239,6 +43349,11 @@
           <t xml:space="preserve">20, Dabro,   Юность </t>
         </is>
       </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20, DEAD BLONDE,   Бесприданница </t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="64" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
@@ -42426,6 +43541,11 @@
           <t xml:space="preserve">21, Макс Барских, Zivert,   BESTSELLER </t>
         </is>
       </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21, MORGENSHTERN,   SHOW </t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="32" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -42613,6 +43733,11 @@
           <t xml:space="preserve">22, MORGENSHTERN,   SHOW </t>
         </is>
       </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22, SLAVA MARLOW,   ТЫ ГОРИШЬ КАК ОГОНЬ </t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="16" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -42800,6 +43925,11 @@
           <t xml:space="preserve">23, Miyagi &amp; Andy Panda,   Патрон </t>
         </is>
       </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23, Макс Барских, Zivert,   BESTSELLER </t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="32" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -42987,6 +44117,11 @@
           <t xml:space="preserve">24, MOT, LYRIQ,   Не Бруклин </t>
         </is>
       </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24, Mekhman,   Копия пиратская </t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="32" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -43174,6 +44309,11 @@
           <t xml:space="preserve">25, DEAD BLONDE,   Бесприданница </t>
         </is>
       </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25, MOT, LYRIQ,   Не Бруклин </t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="32" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -43361,6 +44501,11 @@
           <t xml:space="preserve">26, Король и Шут,   Кукла колдуна </t>
         </is>
       </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26, Король и Шут,   Кукла колдуна </t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="32" customHeight="1">
       <c r="A28" s="2" t="inlineStr">
@@ -43548,6 +44693,11 @@
           <t xml:space="preserve">27, The Weeknd,   Blinding Lights </t>
         </is>
       </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">27, The Weeknd,   Blinding Lights </t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="16" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
@@ -43735,6 +44885,11 @@
           <t xml:space="preserve">28, JONY,   Комета </t>
         </is>
       </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28, Dabro,   Юность </t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="48" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
@@ -43922,6 +45077,11 @@
           <t xml:space="preserve">29, VAVAN, Лилая,   АМУР </t>
         </is>
       </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>29, Masked Wolf, Alok,   Astronaut In The Ocean Alok Remix</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="32" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
@@ -44109,6 +45269,11 @@
           <t xml:space="preserve">30, Анет Сай, NILETTO,   Не люблю? </t>
         </is>
       </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30, Lil Nas X,   MONTERO (Call Me By Your Name) </t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="64" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
@@ -44296,6 +45461,11 @@
           <t xml:space="preserve">31, LOBODA,   Родной </t>
         </is>
       </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">31, Анет Сай, NILETTO,   Не люблю? </t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="32" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
@@ -44483,6 +45653,11 @@
           <t xml:space="preserve">32, Rauf &amp; Faik, NILETTO,   Если тебе будет грустно </t>
         </is>
       </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">32, VAVAN, Лилая,   АМУР </t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="32" customHeight="1">
       <c r="A34" s="2" t="inlineStr">
@@ -44670,6 +45845,11 @@
           <t xml:space="preserve">33, Клава Кока &amp; NILETTO,   Краш </t>
         </is>
       </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33, JONY,   Комета </t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="64" customHeight="1">
       <c r="A35" s="2" t="inlineStr">
@@ -44857,6 +46037,11 @@
           <t xml:space="preserve">34, Mekhman,   Копия пиратская </t>
         </is>
       </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">34, Rauf &amp; Faik, NILETTO,   Если тебе будет грустно </t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="32" customHeight="1">
       <c r="A36" s="2" t="inlineStr">
@@ -45044,6 +46229,11 @@
           <t xml:space="preserve">35, Nebezao,   Безумно любил </t>
         </is>
       </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">35, LOBODA,   Родной </t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="32" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
@@ -45231,6 +46421,11 @@
           <t xml:space="preserve">36, Ramil',   Сияй </t>
         </is>
       </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36, Ramil',   Сияй </t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="16" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
@@ -45418,6 +46613,11 @@
           <t>37, Masked Wolf, Alok,   Astronaut In The Ocean Alok Remix</t>
         </is>
       </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">37, Miyagi &amp; Andy Panda,   Minor </t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="32" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
@@ -45605,6 +46805,11 @@
           <t xml:space="preserve">38, Gaullin, Julian Perretta,   Seven Nation Army </t>
         </is>
       </c>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">38, Gaullin, Julian Perretta,   Seven Nation Army </t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="16" customHeight="1">
       <c r="A40" s="2" t="inlineStr">
@@ -45792,6 +46997,11 @@
           <t>39, David Guetta, MORTEN, John Martin,   Impossible feat. John Martin</t>
         </is>
       </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39, The Kiffness,   Alugalug Cat </t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="16" customHeight="1">
       <c r="A41" s="2" t="inlineStr">
@@ -45979,6 +47189,11 @@
           <t xml:space="preserve">40, Miyagi &amp; Andy Panda,   Minor </t>
         </is>
       </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">40, Nebezao,   Безумно любил </t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="32" customHeight="1">
       <c r="A42" s="2" t="inlineStr">
@@ -46166,6 +47381,11 @@
           <t xml:space="preserve">41, Lil Nas X,   MONTERO (Call Me By Your Name) </t>
         </is>
       </c>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">41, Клава Кока &amp; NILETTO,   Краш </t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="32" customHeight="1">
       <c r="A43" s="2" t="inlineStr">
@@ -46353,6 +47573,11 @@
           <t xml:space="preserve">42, Zivert,   Beverly Hills </t>
         </is>
       </c>
+      <c r="AL43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">42, Mary Gu,   Косички </t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="32" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
@@ -46540,6 +47765,11 @@
           <t xml:space="preserve">43, Billie Eilish,   Lost Cause </t>
         </is>
       </c>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">43, Else,   Paris </t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="32" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
@@ -46727,6 +47957,11 @@
           <t xml:space="preserve">44, Zivert,   Life </t>
         </is>
       </c>
+      <c r="AL45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">44, 10AGE,   Нету интереса </t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="48" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
@@ -46914,6 +48149,11 @@
           <t xml:space="preserve">45, Miyagi &amp; Andy Panda,   Там ревели горы </t>
         </is>
       </c>
+      <c r="AL46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45, Макс Корж,   Аттестат </t>
+        </is>
+      </c>
     </row>
     <row r="47" ht="32" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
@@ -47101,6 +48341,11 @@
           <t>46, Filatov &amp; Karas, Minelli,   Rampampam Filatov &amp; Karas Remix</t>
         </is>
       </c>
+      <c r="AL47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">46, Miyagi &amp; Andy Panda,   Там ревели горы </t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="48" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
@@ -47288,6 +48533,11 @@
           <t xml:space="preserve">47, Mary Gu,   Косички </t>
         </is>
       </c>
+      <c r="AL48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">47, Лилу45,   Восемь </t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="32" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
@@ -47475,6 +48725,11 @@
           <t xml:space="preserve">48, MOT, JONY,   Лилии </t>
         </is>
       </c>
+      <c r="AL49" t="inlineStr">
+        <is>
+          <t>48, Filatov &amp; Karas, Minelli,   Rampampam Filatov &amp; Karas Remix</t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="32" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
@@ -47662,6 +48917,11 @@
           <t xml:space="preserve">49, Monoir, Eneli,   3 to 1 </t>
         </is>
       </c>
+      <c r="AL50" t="inlineStr">
+        <is>
+          <t>49, Minelli, KEAN DYSSO,   Rampampam Kean Dysso Remix</t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="32" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
@@ -47849,6 +49109,11 @@
           <t xml:space="preserve">50, 10AGE,   Нету интереса </t>
         </is>
       </c>
+      <c r="AL51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">50, Måneskin,   Beggin' </t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="16" customHeight="1">
       <c r="A52" s="2" t="inlineStr">
@@ -48036,6 +49301,11 @@
           <t xml:space="preserve">51, NILETTO,   Любимка </t>
         </is>
       </c>
+      <c r="AL52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">51, Monoir, Eneli,   3 to 1 </t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="32" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
@@ -48223,6 +49493,11 @@
           <t xml:space="preserve">52, INNA,   Flashbacks </t>
         </is>
       </c>
+      <c r="AL53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">52, MOT, JONY,   Лилии </t>
+        </is>
+      </c>
     </row>
     <row r="54" ht="32" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
@@ -48410,6 +49685,11 @@
           <t xml:space="preserve">53, The Kiffness,   Alugalug Cat </t>
         </is>
       </c>
+      <c r="AL54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">53, INNA,   Flashbacks </t>
+        </is>
+      </c>
     </row>
     <row r="55" ht="32" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
@@ -48597,6 +49877,11 @@
           <t xml:space="preserve">54, HammAli &amp; Navai,   Прятки </t>
         </is>
       </c>
+      <c r="AL55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">54, Zivert,   Beverly Hills </t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="32" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
@@ -48784,6 +50069,11 @@
           <t xml:space="preserve">55, Tiësto,   The Business </t>
         </is>
       </c>
+      <c r="AL56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55, MORGENSHTERN,   ARISTOCRAT </t>
+        </is>
+      </c>
     </row>
     <row r="57" ht="32" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
@@ -48971,6 +50261,11 @@
           <t xml:space="preserve">56, Artik &amp; Asti,   Девочка, танцуй </t>
         </is>
       </c>
+      <c r="AL57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">56, Tiësto,   The Business </t>
+        </is>
+      </c>
     </row>
     <row r="58" ht="32" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
@@ -49158,6 +50453,11 @@
           <t xml:space="preserve">57, VAVAN, Руки Вверх!,   Ай-яй-яй </t>
         </is>
       </c>
+      <c r="AL58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">57, HammAli &amp; Navai,   Прятки </t>
+        </is>
+      </c>
     </row>
     <row r="59" ht="32" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
@@ -49345,6 +50645,11 @@
           <t xml:space="preserve">58, ter.bium,   Ты далеко </t>
         </is>
       </c>
+      <c r="AL59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">58, Zivert,   Life </t>
+        </is>
+      </c>
     </row>
     <row r="60" ht="32" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
@@ -49532,6 +50837,11 @@
           <t xml:space="preserve">59, SLAVA MARLOW,   Снова я напиваюсь </t>
         </is>
       </c>
+      <c r="AL60" t="inlineStr">
+        <is>
+          <t>59, Manizha,   RUSSIAN WOMAN Россия на «Евровидении-2021»</t>
+        </is>
+      </c>
     </row>
     <row r="61" ht="16" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
@@ -49719,6 +51029,11 @@
           <t xml:space="preserve">60, MORGENSHTERN,   ARISTOCRAT </t>
         </is>
       </c>
+      <c r="AL61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">60, Billie Eilish,   Lost Cause </t>
+        </is>
+      </c>
     </row>
     <row r="62" ht="32" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
@@ -49906,6 +51221,11 @@
           <t>61, Manizha,   RUSSIAN WOMAN Россия на «Евровидении-2021»</t>
         </is>
       </c>
+      <c r="AL62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">61, Linkin Park,   Numb </t>
+        </is>
+      </c>
     </row>
     <row r="63" ht="32" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
@@ -50093,6 +51413,11 @@
           <t xml:space="preserve">62, Лилу45,   Восемь </t>
         </is>
       </c>
+      <c r="AL63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">62, SLAVA MARLOW,   Снова я напиваюсь </t>
+        </is>
+      </c>
     </row>
     <row r="64" ht="32" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
@@ -50280,6 +51605,11 @@
           <t xml:space="preserve">63, MORGENSHTERN, Элджей,   Cadillac </t>
         </is>
       </c>
+      <c r="AL64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">63, Artik &amp; Asti,   Девочка, танцуй </t>
+        </is>
+      </c>
     </row>
     <row r="65" ht="16" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
@@ -50467,6 +51797,11 @@
           <t>64, Minelli, KEAN DYSSO,   Rampampam Kean Dysso Remix</t>
         </is>
       </c>
+      <c r="AL65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">64, VAVAN, Руки Вверх!,   Ай-яй-яй </t>
+        </is>
+      </c>
     </row>
     <row r="66" ht="32" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
@@ -50654,6 +51989,11 @@
           <t xml:space="preserve">65, Скриптонит,   Будьте здоровы </t>
         </is>
       </c>
+      <c r="AL66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">65, Скриптонит,   Будьте здоровы </t>
+        </is>
+      </c>
     </row>
     <row r="67" ht="32" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
@@ -50841,6 +52181,11 @@
           <t xml:space="preserve">66, Zivert,   ЯТЛ </t>
         </is>
       </c>
+      <c r="AL67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">66, NILETTO,   Любимка </t>
+        </is>
+      </c>
     </row>
     <row r="68" ht="16" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
@@ -51028,6 +52373,11 @@
           <t xml:space="preserve">67, Miyagi &amp; Эндшпиль, Рем Дигга,   I Got Love </t>
         </is>
       </c>
+      <c r="AL68" t="inlineStr">
+        <is>
+          <t>67, David Guetta, MORTEN, John Martin,   Impossible feat. John Martin</t>
+        </is>
+      </c>
     </row>
     <row r="69" ht="16" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
@@ -51215,6 +52565,11 @@
           <t xml:space="preserve">68, DOROFEEVA,   gorit </t>
         </is>
       </c>
+      <c r="AL69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">68, Miyagi &amp; Эндшпиль, Рем Дигга,   I Got Love </t>
+        </is>
+      </c>
     </row>
     <row r="70" ht="32" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
@@ -51402,6 +52757,11 @@
           <t xml:space="preserve">69, Artik &amp; Asti, Артём Качер,   Грустный дэнс </t>
         </is>
       </c>
+      <c r="AL70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">69, Basstrologe,   Somebody To Love </t>
+        </is>
+      </c>
     </row>
     <row r="71" ht="16" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
@@ -51589,6 +52949,11 @@
           <t xml:space="preserve">70, Король и Шут,   Лесник </t>
         </is>
       </c>
+      <c r="AL71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">70, Slider &amp; Magnit,   Down Low </t>
+        </is>
+      </c>
     </row>
     <row r="72" ht="32" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
@@ -51776,6 +53141,11 @@
           <t xml:space="preserve">71, Zivert,   Credo </t>
         </is>
       </c>
+      <c r="AL72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">71, MORGENSHTERN, Элджей,   Cadillac </t>
+        </is>
+      </c>
     </row>
     <row r="73" ht="32" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
@@ -51963,6 +53333,11 @@
           <t xml:space="preserve">72, Slider &amp; Magnit,   Down Low </t>
         </is>
       </c>
+      <c r="AL73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">72, Nessa Barrett, jxdn,   la di die </t>
+        </is>
+      </c>
     </row>
     <row r="74" ht="48" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
@@ -52150,6 +53525,11 @@
           <t xml:space="preserve">73, Else,   Paris </t>
         </is>
       </c>
+      <c r="AL74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">73, Король и Шут,   Лесник </t>
+        </is>
+      </c>
     </row>
     <row r="75" ht="16" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
@@ -52337,6 +53717,11 @@
           <t xml:space="preserve">74, Linkin Park,   Numb </t>
         </is>
       </c>
+      <c r="AL75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">74, DOROFEEVA,   gorit </t>
+        </is>
+      </c>
     </row>
     <row r="76" ht="32" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
@@ -52524,6 +53909,11 @@
           <t xml:space="preserve">75, Måneskin,   Beggin' </t>
         </is>
       </c>
+      <c r="AL76" t="inlineStr">
+        <is>
+          <t>75, The Hatters, Джарахов,   Я делаю шаг Live 2021</t>
+        </is>
+      </c>
     </row>
     <row r="77" ht="32" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
@@ -52711,6 +54101,11 @@
           <t xml:space="preserve">76, Элджей,   Первая Полоса </t>
         </is>
       </c>
+      <c r="AL77" t="inlineStr">
+        <is>
+          <t>76, Go_A,   SHUM Украина на «Евровидении-2021»</t>
+        </is>
+      </c>
     </row>
     <row r="78" ht="32" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
@@ -52898,6 +54293,11 @@
           <t xml:space="preserve">77, Basstrologe,   Somebody To Love </t>
         </is>
       </c>
+      <c r="AL78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">77, HENSY,   Поболело и прошло </t>
+        </is>
+      </c>
     </row>
     <row r="79" ht="32" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
@@ -53085,6 +54485,11 @@
           <t xml:space="preserve">78, HENSY,   Поболело и прошло </t>
         </is>
       </c>
+      <c r="AL79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">78, Zivert,   ЯТЛ </t>
+        </is>
+      </c>
     </row>
     <row r="80" ht="16" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
@@ -53272,6 +54677,11 @@
           <t xml:space="preserve">79, Mia Boyka &amp; ЕГОР ШИП,   Пикачу </t>
         </is>
       </c>
+      <c r="AL80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79, PIZZA,   Улыбка </t>
+        </is>
+      </c>
     </row>
     <row r="81" ht="32" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
@@ -53459,6 +54869,11 @@
           <t xml:space="preserve">80, Nessa Barrett, jxdn,   la di die </t>
         </is>
       </c>
+      <c r="AL81" t="inlineStr">
+        <is>
+          <t>80, Анет Сай,   СЛЁЗЫ OST «Пацанки»</t>
+        </is>
+      </c>
     </row>
     <row r="82" ht="32" customHeight="1">
       <c r="A82" s="2" t="inlineStr">
@@ -53646,6 +55061,11 @@
           <t xml:space="preserve">81, Тимати,   Падаем вместе </t>
         </is>
       </c>
+      <c r="AL82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">81, Баста,   Ты была права </t>
+        </is>
+      </c>
     </row>
     <row r="83" ht="32" customHeight="1">
       <c r="A83" s="2" t="inlineStr">
@@ -53833,6 +55253,11 @@
           <t xml:space="preserve">82, Клава Кока,   Покинула чат </t>
         </is>
       </c>
+      <c r="AL83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">82, Элджей,   Первая Полоса </t>
+        </is>
+      </c>
     </row>
     <row r="84" ht="32" customHeight="1">
       <c r="A84" s="2" t="inlineStr">
@@ -54020,6 +55445,11 @@
           <t xml:space="preserve">83, Artik &amp; Asti,   Все мимо </t>
         </is>
       </c>
+      <c r="AL84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">83, MORGENSHTERN,   Cristal &amp; МОЁТ </t>
+        </is>
+      </c>
     </row>
     <row r="85" ht="32" customHeight="1">
       <c r="A85" s="2" t="inlineStr">
@@ -54207,6 +55637,11 @@
           <t xml:space="preserve">84, MORGENSHTERN,   Cristal &amp; МОЁТ </t>
         </is>
       </c>
+      <c r="AL85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">84, Artik &amp; Asti, Артём Качер,   Грустный дэнс </t>
+        </is>
+      </c>
     </row>
     <row r="86" ht="32" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
@@ -54394,6 +55829,11 @@
           <t xml:space="preserve">85, дора,   Втюрилась </t>
         </is>
       </c>
+      <c r="AL86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85, Zivert,   Credo </t>
+        </is>
+      </c>
     </row>
     <row r="87" ht="48" customHeight="1">
       <c r="A87" s="2" t="inlineStr">
@@ -54581,6 +56021,11 @@
           <t xml:space="preserve">86, Timran, ZELL, Batrai, Aslai,   Не пускайте танцевать </t>
         </is>
       </c>
+      <c r="AL87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">86, Timran, ZELL, Batrai, Aslai,   Не пускайте танцевать </t>
+        </is>
+      </c>
     </row>
     <row r="88" ht="48" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
@@ -54768,6 +56213,11 @@
           <t xml:space="preserve">87, Султан Лагучев,   Между нами война </t>
         </is>
       </c>
+      <c r="AL88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">87, дора,   Втюрилась </t>
+        </is>
+      </c>
     </row>
     <row r="89" ht="16" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
@@ -54955,6 +56405,11 @@
           <t xml:space="preserve">88, Клава Кока,   Пьяную домой </t>
         </is>
       </c>
+      <c r="AL89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">88, Artik &amp; Asti,   Все мимо </t>
+        </is>
+      </c>
     </row>
     <row r="90" ht="32" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
@@ -55142,6 +56597,11 @@
           <t xml:space="preserve">89, GAYAZOV$ BROTHER$,   Увезите меня на Дип-хаус </t>
         </is>
       </c>
+      <c r="AL90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89, Imagine Dragons,   Believer </t>
+        </is>
+      </c>
     </row>
     <row r="91" ht="32" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
@@ -55329,6 +56789,11 @@
           <t xml:space="preserve">90, FEDUK,   Песня про лето </t>
         </is>
       </c>
+      <c r="AL91" t="inlineStr">
+        <is>
+          <t>90, Blind Channel,   Dark Side Финляндия на «Евровидении-2021»</t>
+        </is>
+      </c>
     </row>
     <row r="92" ht="32" customHeight="1">
       <c r="A92" s="2" t="inlineStr">
@@ -55516,6 +56981,11 @@
           <t xml:space="preserve">91, Imagine Dragons,   Believer </t>
         </is>
       </c>
+      <c r="AL92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">91, Клава Кока,   Пьяную домой </t>
+        </is>
+      </c>
     </row>
     <row r="93" ht="16" customHeight="1">
       <c r="A93" s="2" t="inlineStr">
@@ -55703,6 +57173,11 @@
           <t xml:space="preserve">92, Тайпан, Agunda,   Луна не знает пути </t>
         </is>
       </c>
+      <c r="AL93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">92, Клава Кока,   Покинула чат </t>
+        </is>
+      </c>
     </row>
     <row r="94" ht="16" customHeight="1">
       <c r="A94" s="2" t="inlineStr">
@@ -55890,6 +57365,11 @@
           <t xml:space="preserve">93, PIZZA,   Улыбка </t>
         </is>
       </c>
+      <c r="AL94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">93, GAYAZOV$ BROTHER$,   Увезите меня на Дип-хаус </t>
+        </is>
+      </c>
     </row>
     <row r="95" ht="32" customHeight="1">
       <c r="A95" s="2" t="inlineStr">
@@ -56077,6 +57557,11 @@
           <t xml:space="preserve">94, Zivert, Баста,   неболей </t>
         </is>
       </c>
+      <c r="AL95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">94, FEDUK,   Песня про лето </t>
+        </is>
+      </c>
     </row>
     <row r="96" ht="32" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
@@ -56264,6 +57749,11 @@
           <t xml:space="preserve">95, Артур Пирожков,   #туДЫМ-сюДЫМ </t>
         </is>
       </c>
+      <c r="AL96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">95, Ollane, Miyagi &amp; Andy Panda,   Where Are You </t>
+        </is>
+      </c>
     </row>
     <row r="97" ht="32" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
@@ -56451,6 +57941,11 @@
           <t>96, Анет Сай,   СЛЁЗЫ OST «Пацанки»</t>
         </is>
       </c>
+      <c r="AL97" t="inlineStr">
+        <is>
+          <t>96, Basstrologe, LIZOT,   Somebody To Love LIZOT Remix</t>
+        </is>
+      </c>
     </row>
     <row r="98" ht="32" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
@@ -56638,6 +58133,11 @@
           <t>97, Go_A,   SHUM Украина на «Евровидении-2021»</t>
         </is>
       </c>
+      <c r="AL98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">97, Тимати,   Падаем вместе </t>
+        </is>
+      </c>
     </row>
     <row r="99" ht="32" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
@@ -56825,6 +58325,11 @@
           <t xml:space="preserve">98, Ollane, Miyagi &amp; Andy Panda,   Where Are You </t>
         </is>
       </c>
+      <c r="AL99" t="inlineStr">
+        <is>
+          <t>98, HEDEGAARD,   P.I.M.P. HEDEGAARD Remix</t>
+        </is>
+      </c>
     </row>
     <row r="100" ht="32" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
@@ -57012,6 +58517,11 @@
           <t>99, The Hatters, Джарахов,   Я делаю шаг Live 2021</t>
         </is>
       </c>
+      <c r="AL100" t="inlineStr">
+        <is>
+          <t>99, Lvnx, Алина Селях,   Белая ночь Remix</t>
+        </is>
+      </c>
     </row>
     <row r="101" ht="32" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
@@ -57197,6 +58707,11 @@
       <c r="AK101" t="inlineStr">
         <is>
           <t xml:space="preserve">100, Intelligency,   August </t>
+        </is>
+      </c>
+      <c r="AL101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">100, Тайпан, Agunda,   Луна не знает пути </t>
         </is>
       </c>
     </row>
@@ -57211,7 +58726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK101"/>
+  <dimension ref="A1:AL101"/>
   <sheetViews>
     <sheetView topLeftCell="AB17" zoomScale="223" workbookViewId="0">
       <selection activeCell="AB21" sqref="AB21"/>
@@ -57219,8 +58734,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="29.83203125" customWidth="1" style="2" min="1" max="19"/>
-    <col width="29.83203125" customWidth="1" style="2" min="20" max="16384"/>
+    <col width="29.83203125" customWidth="1" style="2" min="1" max="20"/>
+    <col width="29.83203125" customWidth="1" style="2" min="21" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -57407,6 +58922,11 @@
           <t>2021-06-07</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="48" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
@@ -57594,6 +59114,11 @@
           <t>1, Джарахов,Markul, Я в моменте</t>
         </is>
       </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>1, Джарахов,Markul, Я в моменте</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="48" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
@@ -57781,6 +59306,11 @@
           <t>2, HammAli&amp;Navai, Птичка</t>
         </is>
       </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>2, HammAli&amp;Navai, Птичка</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="48" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -57968,6 +59498,11 @@
           <t>3, Måneskin, I WANNA BE YOUR SLAVE</t>
         </is>
       </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>3, Måneskin, I WANNA BE YOUR SLAVE</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="48" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -58155,6 +59690,11 @@
           <t>4, Мот,LYRIQ, Не Бруклин</t>
         </is>
       </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>4, Мот,LYRIQ, Не Бруклин</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="32" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -58342,6 +59882,11 @@
           <t>5, Скриптонит, Будьте здоровы</t>
         </is>
       </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>5, Скриптонит, Будьте здоровы</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="32" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -58529,6 +60074,11 @@
           <t>6, Ramil', Сон</t>
         </is>
       </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>6, Ramil', Сон</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="32" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -58716,6 +60266,11 @@
           <t>7, Måneskin, ZITTI E BUONI</t>
         </is>
       </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>7, Баста, Ты была права</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="32" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -58903,6 +60458,11 @@
           <t>8, FEDUK, Песня про лето</t>
         </is>
       </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>8, Måneskin, ZITTI E BUONI</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="32" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -59090,6 +60650,11 @@
           <t>9, Mekhman, Копия пиратская</t>
         </is>
       </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>9, Mekhman, Копия пиратская</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="32" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
@@ -59277,6 +60842,11 @@
           <t>10, Minelli, Rampampam</t>
         </is>
       </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>10, FEDUK, Песня про лето</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="32" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
@@ -59464,6 +61034,11 @@
           <t>11, Miyagi&amp;AndyPanda, Патрон</t>
         </is>
       </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>11, Måneskin, Beggin</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="32" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
@@ -59651,6 +61226,11 @@
           <t>12, Miyagi&amp;AndyPanda, Оттепель (feat. TumaniYO)</t>
         </is>
       </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>12, Minelli, Rampampam</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="16" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -59838,6 +61418,11 @@
           <t>13, MORGENSHTERN, ARISTOCRAT</t>
         </is>
       </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>13, Miyagi&amp;AndyPanda, Патрон</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="16" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -60025,6 +61610,11 @@
           <t>14, Måneskin, Beggin</t>
         </is>
       </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>14, Miyagi&amp;AndyPanda, Оттепель (feat. TumaniYO)</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="32" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -60212,6 +61802,11 @@
           <t>15, МаксБарских,Zivert, BESTSELLER</t>
         </is>
       </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>15, MORGENSHTERN, ARISTOCRAT</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="32" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -60399,6 +61994,11 @@
           <t>16, Artik&amp;Asti, Истеричка</t>
         </is>
       </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>16, Элджей, Candy Flip</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="32" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -60586,6 +62186,11 @@
           <t>17, DEADBLONDE, Мальчик на девятке</t>
         </is>
       </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>17, MORGENSHTERN, SHOW</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="32" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -60773,6 +62378,11 @@
           <t>18, MORGENSHTERN, SHOW</t>
         </is>
       </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>18, МаксБарских,Zivert, BESTSELLER</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="16" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -60960,6 +62570,11 @@
           <t>19, MaskedWolf, Astronaut In The Ocean</t>
         </is>
       </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>19, Artik&amp;Asti, Истеричка</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="32" customHeight="1">
       <c r="A21" s="2" t="inlineStr">
@@ -61147,6 +62762,11 @@
           <t>20, Элджей, Candy Flip</t>
         </is>
       </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>20, DEADBLONDE, Мальчик на девятке</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="32" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
@@ -61334,6 +62954,11 @@
           <t>21, Мот,JONY, Лилии</t>
         </is>
       </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>21, MaskedWolf, Astronaut In The Ocean</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="32" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -61521,6 +63146,11 @@
           <t>22, КлаваКока,РукиВверх, Нокаут</t>
         </is>
       </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>22, Мот,JONY, Лилии</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="32" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -61708,6 +63338,11 @@
           <t>23, MORGENSHTERN, ДУЛО</t>
         </is>
       </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>23, MORGENSHTERN, ДУЛО</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="32" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -61895,6 +63530,11 @@
           <t>24, СултанЛагучев, Горький вкус</t>
         </is>
       </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>24, КлаваКока,РукиВверх, Нокаут</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="32" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -62082,6 +63722,11 @@
           <t>25, LOBODA, Родной</t>
         </is>
       </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>25, MORGENSHTERN,SODALUV,blagowhite,OGBuda,MAYOT, Cristal &amp; МОЁТ (Remix)</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="32" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -62269,6 +63914,11 @@
           <t>26, 10AGE, Нету интереса</t>
         </is>
       </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>26, 10AGE, Нету интереса</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="32" customHeight="1">
       <c r="A28" s="2" t="inlineStr">
@@ -62456,6 +64106,11 @@
           <t>27, MORGENSHTERN, OLALA</t>
         </is>
       </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>27, MORGENSHTERN, OLALA</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="32" customHeight="1">
       <c r="A29" s="2" t="inlineStr">
@@ -62643,6 +64298,11 @@
           <t>28, MORGENSHTERN,SODALUV,blagowhite,OGBuda,MAYOT, Cristal &amp; МОЁТ (Remix)</t>
         </is>
       </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>28, LOBODA, Родной</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="32" customHeight="1">
       <c r="A30" s="2" t="inlineStr">
@@ -62830,6 +64490,11 @@
           <t>29, Manizha, RUSSIAN WOMAN</t>
         </is>
       </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>29, MAYOT, Снег</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="32" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
@@ -63017,6 +64682,11 @@
           <t>30, MORGENSHTERN,Imanbek,FettyWap, Leck (feat. KDDK)</t>
         </is>
       </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>30, СултанЛагучев, Горький вкус</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="32" customHeight="1">
       <c r="A32" s="2" t="inlineStr">
@@ -63204,6 +64874,11 @@
           <t>31, Måneskin, CORALINE</t>
         </is>
       </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>31, MORGENSHTERN,Imanbek,FettyWap, Leck (feat. KDDK)</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="32" customHeight="1">
       <c r="A33" s="2" t="inlineStr">
@@ -63391,6 +65066,11 @@
           <t>32, BillieEilish, Lost Cause</t>
         </is>
       </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>32, Måneskin, CORALINE</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="32" customHeight="1">
       <c r="A34" s="2" t="inlineStr">
@@ -63578,6 +65258,11 @@
           <t>33, Тимати, Падаем вместе</t>
         </is>
       </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>33, Manizha, RUSSIAN WOMAN</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="16" customHeight="1">
       <c r="A35" s="2" t="inlineStr">
@@ -63765,6 +65450,11 @@
           <t>34, LilNasX, MONTERO (Call Me By Your Name)</t>
         </is>
       </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>34, BillieEilish, Lost Cause</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="32" customHeight="1">
       <c r="A36" s="2" t="inlineStr">
@@ -63952,6 +65642,11 @@
           <t>35, MAYOT, Снег</t>
         </is>
       </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>35, LilNasX, MONTERO (Call Me By Your Name)</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="32" customHeight="1">
       <c r="A37" s="2" t="inlineStr">
@@ -64139,6 +65834,11 @@
           <t>36, kizaru, Moulin Rouge (feat. JABO)</t>
         </is>
       </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>36, kizaru, Moulin Rouge (feat. JABO)</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="32" customHeight="1">
       <c r="A38" s="2" t="inlineStr">
@@ -64326,6 +66026,11 @@
           <t>37, MORGENSHTERN, HUBLOT</t>
         </is>
       </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>37, Элджей, Первая полоса</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="32" customHeight="1">
       <c r="A39" s="2" t="inlineStr">
@@ -64513,6 +66218,11 @@
           <t>38, DEADBLONDE, Бесприданница</t>
         </is>
       </c>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>38, Тимати, Падаем вместе</t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="32" customHeight="1">
       <c r="A40" s="2" t="inlineStr">
@@ -64700,6 +66410,11 @@
           <t>39, LittleBig, Everybody (Little Big Are Back)</t>
         </is>
       </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>39, MORGENSHTERN, HUBLOT</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="32" customHeight="1">
       <c r="A41" s="2" t="inlineStr">
@@ -64887,6 +66602,11 @@
           <t>40, Элджей, Первая полоса</t>
         </is>
       </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>40, DEADBLONDE, Бесприданница</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="32" customHeight="1">
       <c r="A42" s="2" t="inlineStr">
@@ -65074,6 +66794,11 @@
           <t>41, ВаняДмитриенко, Венера-Юпитер</t>
         </is>
       </c>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>41, LittleBig, Everybody (Little Big Are Back)</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="16" customHeight="1">
       <c r="A43" s="2" t="inlineStr">
@@ -65261,6 +66986,11 @@
           <t>42, MORGENSHTERN, DINERO</t>
         </is>
       </c>
+      <c r="AL43" t="inlineStr">
+        <is>
+          <t>42, MORGENSHTERN, DINERO</t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="32" customHeight="1">
       <c r="A44" s="2" t="inlineStr">
@@ -65448,6 +67178,11 @@
           <t>43, ELMAN,JONY, Балкон</t>
         </is>
       </c>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>43, Miyagi&amp;AndyPanda, Minor</t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="32" customHeight="1">
       <c r="A45" s="2" t="inlineStr">
@@ -65635,6 +67370,11 @@
           <t>44, Miyagi&amp;AndyPanda, Minor</t>
         </is>
       </c>
+      <c r="AL45" t="inlineStr">
+        <is>
+          <t>44, ELMAN,JONY, Балкон</t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="32" customHeight="1">
       <c r="A46" s="2" t="inlineStr">
@@ -65822,6 +67562,11 @@
           <t>45, Ramil', Сияй</t>
         </is>
       </c>
+      <c r="AL46" t="inlineStr">
+        <is>
+          <t>45, ВаняДмитриенко, Венера-Юпитер</t>
+        </is>
+      </c>
     </row>
     <row r="47" ht="32" customHeight="1">
       <c r="A47" s="2" t="inlineStr">
@@ -66009,6 +67754,11 @@
           <t>46, JONY, Камнепад</t>
         </is>
       </c>
+      <c r="AL47" t="inlineStr">
+        <is>
+          <t>46, MaskedWolf, Astronaut in the Ocean (Remix) [feat. Egor Kreed]</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="16" customHeight="1">
       <c r="A48" s="2" t="inlineStr">
@@ -66196,6 +67946,11 @@
           <t>47, MaskedWolf, Astronaut in the Ocean (Remix) [feat. Egor Kreed]</t>
         </is>
       </c>
+      <c r="AL48" t="inlineStr">
+        <is>
+          <t>47, JONY, Камнепад</t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="32" customHeight="1">
       <c r="A49" s="2" t="inlineStr">
@@ -66383,6 +68138,11 @@
           <t>48, JONY, Комета</t>
         </is>
       </c>
+      <c r="AL49" t="inlineStr">
+        <is>
+          <t>48, Ramil', Сияй</t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="48" customHeight="1">
       <c r="A50" s="2" t="inlineStr">
@@ -66570,6 +68330,11 @@
           <t>49, АнетСай,NILETTO, Не люблю?</t>
         </is>
       </c>
+      <c r="AL50" t="inlineStr">
+        <is>
+          <t>49, JONY, Комета</t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="32" customHeight="1">
       <c r="A51" s="2" t="inlineStr">
@@ -66757,6 +68522,11 @@
           <t>50, SLAVAMARLOW, ТЫ ГОРИШЬ КАК ОГОНЬ</t>
         </is>
       </c>
+      <c r="AL51" t="inlineStr">
+        <is>
+          <t>50, АнетСай,NILETTO, Не люблю?</t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="48" customHeight="1">
       <c r="A52" s="2" t="inlineStr">
@@ -66944,6 +68714,11 @@
           <t>51, ЕгорКрид, (Не)идеальна</t>
         </is>
       </c>
+      <c r="AL52" t="inlineStr">
+        <is>
+          <t>51, Ollane, Where Are You (feat. Miyagi &amp; Andy Panda)</t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="48" customHeight="1">
       <c r="A53" s="2" t="inlineStr">
@@ -67131,6 +68906,11 @@
           <t>52, Ollane, Where Are You (feat. Miyagi &amp; Andy Panda)</t>
         </is>
       </c>
+      <c r="AL53" t="inlineStr">
+        <is>
+          <t>52, ЕгорКрид, (Не)идеальна</t>
+        </is>
+      </c>
     </row>
     <row r="54" ht="32" customHeight="1">
       <c r="A54" s="2" t="inlineStr">
@@ -67318,6 +69098,11 @@
           <t>53, MORGENSHTERN, NOMINALO</t>
         </is>
       </c>
+      <c r="AL54" t="inlineStr">
+        <is>
+          <t>53, MORGENSHTERN, NOMINALO</t>
+        </is>
+      </c>
     </row>
     <row r="55" ht="32" customHeight="1">
       <c r="A55" s="2" t="inlineStr">
@@ -67505,6 +69290,11 @@
           <t>54, MonaSongz, Салют, Вера</t>
         </is>
       </c>
+      <c r="AL55" t="inlineStr">
+        <is>
+          <t>54, SODALUV, Тысячи рук</t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="32" customHeight="1">
       <c r="A56" s="2" t="inlineStr">
@@ -67692,6 +69482,11 @@
           <t>55, Artik&amp;Asti, Лампочки</t>
         </is>
       </c>
+      <c r="AL56" t="inlineStr">
+        <is>
+          <t>55, Artik&amp;Asti, Лампочки</t>
+        </is>
+      </c>
     </row>
     <row r="57" ht="32" customHeight="1">
       <c r="A57" s="2" t="inlineStr">
@@ -67879,6 +69674,11 @@
           <t>56, TheHatters, Я делаю шаг (feat. Эльдар Джарахов) [Live 2021]</t>
         </is>
       </c>
+      <c r="AL57" t="inlineStr">
+        <is>
+          <t>56, SLAVAMARLOW, ТЫ ГОРИШЬ КАК ОГОНЬ</t>
+        </is>
+      </c>
     </row>
     <row r="58" ht="32" customHeight="1">
       <c r="A58" s="2" t="inlineStr">
@@ -68066,6 +69866,11 @@
           <t>57, Miyagi&amp;Эндшпиль, I Got Love (feat. Рем Дигга)</t>
         </is>
       </c>
+      <c r="AL58" t="inlineStr">
+        <is>
+          <t>57, TheHatters, Я делаю шаг (feat. Эльдар Джарахов) [Live 2021]</t>
+        </is>
+      </c>
     </row>
     <row r="59" ht="32" customHeight="1">
       <c r="A59" s="2" t="inlineStr">
@@ -68253,6 +70058,11 @@
           <t>58, Баста,Zivert, неболей</t>
         </is>
       </c>
+      <c r="AL59" t="inlineStr">
+        <is>
+          <t>58, MonaSongz, Салют, Вера</t>
+        </is>
+      </c>
     </row>
     <row r="60" ht="48" customHeight="1">
       <c r="A60" s="2" t="inlineStr">
@@ -68440,6 +70250,11 @@
           <t>59, ЕгорКрид, Голос</t>
         </is>
       </c>
+      <c r="AL60" t="inlineStr">
+        <is>
+          <t>59, ЕгорКрид, Голос</t>
+        </is>
+      </c>
     </row>
     <row r="61" ht="32" customHeight="1">
       <c r="A61" s="2" t="inlineStr">
@@ -68627,6 +70442,11 @@
           <t>60, MORGENSHTERN, PABLO</t>
         </is>
       </c>
+      <c r="AL61" t="inlineStr">
+        <is>
+          <t>60, Ханза,Ramil', Плачь и Танцуй</t>
+        </is>
+      </c>
     </row>
     <row r="62" ht="32" customHeight="1">
       <c r="A62" s="2" t="inlineStr">
@@ -68814,6 +70634,11 @@
           <t>61, SODALUV, Тысячи рук</t>
         </is>
       </c>
+      <c r="AL62" t="inlineStr">
+        <is>
+          <t>61, Miyagi&amp;Эндшпиль, I Got Love (feat. Рем Дигга)</t>
+        </is>
+      </c>
     </row>
     <row r="63" ht="32" customHeight="1">
       <c r="A63" s="2" t="inlineStr">
@@ -69001,6 +70826,11 @@
           <t>62, Ханза,Ramil', Плачь и Танцуй</t>
         </is>
       </c>
+      <c r="AL63" t="inlineStr">
+        <is>
+          <t>62, MORGENSHTERN, PABLO</t>
+        </is>
+      </c>
     </row>
     <row r="64" ht="32" customHeight="1">
       <c r="A64" s="2" t="inlineStr">
@@ -69188,6 +71018,11 @@
           <t>63, DojaCat, Kiss Me More (feat. SZA)</t>
         </is>
       </c>
+      <c r="AL64" t="inlineStr">
+        <is>
+          <t>63, Aarne,TheLimba,Markul, Noir</t>
+        </is>
+      </c>
     </row>
     <row r="65" ht="32" customHeight="1">
       <c r="A65" s="2" t="inlineStr">
@@ -69375,6 +71210,11 @@
           <t>64, МаксКорж, Аттестат</t>
         </is>
       </c>
+      <c r="AL65" t="inlineStr">
+        <is>
+          <t>64, DojaCat, Kiss Me More (feat. SZA)</t>
+        </is>
+      </c>
     </row>
     <row r="66" ht="32" customHeight="1">
       <c r="A66" s="2" t="inlineStr">
@@ -69562,6 +71402,11 @@
           <t>65, Miyagi&amp;AndyPanda, Там ревели горы</t>
         </is>
       </c>
+      <c r="AL66" t="inlineStr">
+        <is>
+          <t>65, Баста,Zivert, неболей</t>
+        </is>
+      </c>
     </row>
     <row r="67" ht="32" customHeight="1">
       <c r="A67" s="2" t="inlineStr">
@@ -69749,6 +71594,11 @@
           <t>66, MORGENSHTERN, КОГДА НАС ОТПУСТИТ</t>
         </is>
       </c>
+      <c r="AL67" t="inlineStr">
+        <is>
+          <t>66, Miyagi&amp;AndyPanda, Там ревели горы</t>
+        </is>
+      </c>
     </row>
     <row r="68" ht="48" customHeight="1">
       <c r="A68" s="2" t="inlineStr">
@@ -69936,6 +71786,11 @@
           <t>67, MORGENSHTERN,Элджей, Cadillac</t>
         </is>
       </c>
+      <c r="AL68" t="inlineStr">
+        <is>
+          <t>67, SEEMEE, Голодный пёс (feat. SODA LUV)</t>
+        </is>
+      </c>
     </row>
     <row r="69" ht="32" customHeight="1">
       <c r="A69" s="2" t="inlineStr">
@@ -70123,6 +71978,11 @@
           <t>68, SEEMEE, Голодный пёс (feat. SODA LUV)</t>
         </is>
       </c>
+      <c r="AL69" t="inlineStr">
+        <is>
+          <t>68, МаксКорж, Аттестат</t>
+        </is>
+      </c>
     </row>
     <row r="70" ht="32" customHeight="1">
       <c r="A70" s="2" t="inlineStr">
@@ -70310,6 +72170,11 @@
           <t>69, Aarne,TheLimba,Markul, Noir</t>
         </is>
       </c>
+      <c r="AL70" t="inlineStr">
+        <is>
+          <t>69, MORGENSHTERN, КОГДА НАС ОТПУСТИТ</t>
+        </is>
+      </c>
     </row>
     <row r="71" ht="32" customHeight="1">
       <c r="A71" s="2" t="inlineStr">
@@ -70497,6 +72362,11 @@
           <t>70, Tiësto, The Business</t>
         </is>
       </c>
+      <c r="AL71" t="inlineStr">
+        <is>
+          <t>70, Скриптонит, Положение</t>
+        </is>
+      </c>
     </row>
     <row r="72" ht="32" customHeight="1">
       <c r="A72" s="2" t="inlineStr">
@@ -70684,6 +72554,11 @@
           <t>71, Go_A, SHUM</t>
         </is>
       </c>
+      <c r="AL72" t="inlineStr">
+        <is>
+          <t>71, SODALUV,WHY,BERRY, Бигасс</t>
+        </is>
+      </c>
     </row>
     <row r="73" ht="32" customHeight="1">
       <c r="A73" s="2" t="inlineStr">
@@ -70871,6 +72746,11 @@
           <t>72, Скриптонит, Чистый (OST «Псих»)</t>
         </is>
       </c>
+      <c r="AL73" t="inlineStr">
+        <is>
+          <t>72, MORGENSHTERN,Элджей, Cadillac</t>
+        </is>
+      </c>
     </row>
     <row r="74" ht="32" customHeight="1">
       <c r="A74" s="2" t="inlineStr">
@@ -71058,6 +72938,11 @@
           <t>73, Inna, Flashbacks</t>
         </is>
       </c>
+      <c r="AL74" t="inlineStr">
+        <is>
+          <t>73, Скриптонит, Чистый (OST «Псих»)</t>
+        </is>
+      </c>
     </row>
     <row r="75" ht="32" customHeight="1">
       <c r="A75" s="2" t="inlineStr">
@@ -71245,6 +73130,11 @@
           <t>74, Скриптонит, Положение</t>
         </is>
       </c>
+      <c r="AL75" t="inlineStr">
+        <is>
+          <t>74, Inna, Flashbacks</t>
+        </is>
+      </c>
     </row>
     <row r="76" ht="32" customHeight="1">
       <c r="A76" s="2" t="inlineStr">
@@ -71432,6 +73322,11 @@
           <t>75, Måneskin, ZITTI E BUONI (Eurovision Version)</t>
         </is>
       </c>
+      <c r="AL76" t="inlineStr">
+        <is>
+          <t>75, CalvinHarris, By Your Side (feat. Tom Grennan)</t>
+        </is>
+      </c>
     </row>
     <row r="77" ht="16" customHeight="1">
       <c r="A77" s="2" t="inlineStr">
@@ -71619,6 +73514,11 @@
           <t>76, MORGENSHTERN, Я КОГДА-НИБУДЬ УЙДУ</t>
         </is>
       </c>
+      <c r="AL77" t="inlineStr">
+        <is>
+          <t>76, Måneskin, ZITTI E BUONI (Eurovision Version)</t>
+        </is>
+      </c>
     </row>
     <row r="78" ht="16" customHeight="1">
       <c r="A78" s="2" t="inlineStr">
@@ -71806,6 +73706,11 @@
           <t>77, SODALUV,WHY,BERRY, Бигасс</t>
         </is>
       </c>
+      <c r="AL78" t="inlineStr">
+        <is>
+          <t>77, LOVV66, Трап Трап</t>
+        </is>
+      </c>
     </row>
     <row r="79" ht="32" customHeight="1">
       <c r="A79" s="2" t="inlineStr">
@@ -71993,6 +73898,11 @@
           <t>78, CalvinHarris, By Your Side (feat. Tom Grennan)</t>
         </is>
       </c>
+      <c r="AL79" t="inlineStr">
+        <is>
+          <t>78, Go_A, SHUM</t>
+        </is>
+      </c>
     </row>
     <row r="80" ht="32" customHeight="1">
       <c r="A80" s="2" t="inlineStr">
@@ -72180,6 +74090,11 @@
           <t>79, LOVV66, Трап Трап</t>
         </is>
       </c>
+      <c r="AL80" t="inlineStr">
+        <is>
+          <t>79, MORGENSHTERN, Я КОГДА-НИБУДЬ УЙДУ</t>
+        </is>
+      </c>
     </row>
     <row r="81" ht="32" customHeight="1">
       <c r="A81" s="2" t="inlineStr">
@@ -72367,6 +74282,11 @@
           <t>80, Tesher, Jalebi Baby</t>
         </is>
       </c>
+      <c r="AL81" t="inlineStr">
+        <is>
+          <t>80, TheWeeknd, Blinding Lights</t>
+        </is>
+      </c>
     </row>
     <row r="82" ht="32" customHeight="1">
       <c r="A82" s="2" t="inlineStr">
@@ -72554,6 +74474,11 @@
           <t>81, Yanix,ПошлаяМолли, Из ладони в ладонь</t>
         </is>
       </c>
+      <c r="AL82" t="inlineStr">
+        <is>
+          <t>81, Tesher, Jalebi Baby</t>
+        </is>
+      </c>
     </row>
     <row r="83" ht="32" customHeight="1">
       <c r="A83" s="2" t="inlineStr">
@@ -72741,6 +74666,11 @@
           <t>82, MaryGu, Косички</t>
         </is>
       </c>
+      <c r="AL83" t="inlineStr">
+        <is>
+          <t>82, Tiësto, The Business</t>
+        </is>
+      </c>
     </row>
     <row r="84" ht="32" customHeight="1">
       <c r="A84" s="2" t="inlineStr">
@@ -72928,6 +74858,11 @@
           <t>83, TheWeeknd, Blinding Lights</t>
         </is>
       </c>
+      <c r="AL84" t="inlineStr">
+        <is>
+          <t>83, Скриптонит, Жить как я живу</t>
+        </is>
+      </c>
     </row>
     <row r="85" ht="32" customHeight="1">
       <c r="A85" s="2" t="inlineStr">
@@ -73115,6 +75050,11 @@
           <t>84, Хабиб, Ягода малинка</t>
         </is>
       </c>
+      <c r="AL85" t="inlineStr">
+        <is>
+          <t>84, LOBODA, moLOko (Remake)</t>
+        </is>
+      </c>
     </row>
     <row r="86" ht="32" customHeight="1">
       <c r="A86" s="2" t="inlineStr">
@@ -73302,6 +75242,11 @@
           <t>85, HammAli&amp;Navai, Я весь мир обошёл</t>
         </is>
       </c>
+      <c r="AL86" t="inlineStr">
+        <is>
+          <t>85, Yanix,ПошлаяМолли, Из ладони в ладонь</t>
+        </is>
+      </c>
     </row>
     <row r="87" ht="32" customHeight="1">
       <c r="A87" s="2" t="inlineStr">
@@ -73489,6 +75434,11 @@
           <t>86, Скриптонит, Жить как я живу</t>
         </is>
       </c>
+      <c r="AL87" t="inlineStr">
+        <is>
+          <t>86, Скриптонит, Москва любит...</t>
+        </is>
+      </c>
     </row>
     <row r="88" ht="32" customHeight="1">
       <c r="A88" s="2" t="inlineStr">
@@ -73676,6 +75626,11 @@
           <t>87, MaryGu, +1</t>
         </is>
       </c>
+      <c r="AL88" t="inlineStr">
+        <is>
+          <t>87, Idris&amp;Leos, Образ</t>
+        </is>
+      </c>
     </row>
     <row r="89" ht="32" customHeight="1">
       <c r="A89" s="2" t="inlineStr">
@@ -73863,6 +75818,11 @@
           <t>88, Лилу45, Восемь</t>
         </is>
       </c>
+      <c r="AL89" t="inlineStr">
+        <is>
+          <t>88, HammAli&amp;Navai, Я весь мир обошёл</t>
+        </is>
+      </c>
     </row>
     <row r="90" ht="32" customHeight="1">
       <c r="A90" s="2" t="inlineStr">
@@ -74050,6 +76010,11 @@
           <t>89, Тимати, Чокер</t>
         </is>
       </c>
+      <c r="AL90" t="inlineStr">
+        <is>
+          <t>89, MaryGu, Косички</t>
+        </is>
+      </c>
     </row>
     <row r="91" ht="32" customHeight="1">
       <c r="A91" s="2" t="inlineStr">
@@ -74237,6 +76202,11 @@
           <t>90, Idris&amp;Leos, Образ</t>
         </is>
       </c>
+      <c r="AL91" t="inlineStr">
+        <is>
+          <t>90, Лилу45, Восемь</t>
+        </is>
+      </c>
     </row>
     <row r="92" ht="32" customHeight="1">
       <c r="A92" s="2" t="inlineStr">
@@ -74424,6 +76394,11 @@
           <t>91, Скриптонит, Москва любит...</t>
         </is>
       </c>
+      <c r="AL92" t="inlineStr">
+        <is>
+          <t>91, MaryGu, +1</t>
+        </is>
+      </c>
     </row>
     <row r="93" ht="32" customHeight="1">
       <c r="A93" s="2" t="inlineStr">
@@ -74611,6 +76586,11 @@
           <t>92, Dabro, Юность</t>
         </is>
       </c>
+      <c r="AL93" t="inlineStr">
+        <is>
+          <t>92, OliviaRodrigo, good 4 u</t>
+        </is>
+      </c>
     </row>
     <row r="94" ht="32" customHeight="1">
       <c r="A94" s="2" t="inlineStr">
@@ -74798,6 +76778,11 @@
           <t>93, MORGENSHTERN, GTA</t>
         </is>
       </c>
+      <c r="AL94" t="inlineStr">
+        <is>
+          <t>93, Dabro, На часах ноль-ноль</t>
+        </is>
+      </c>
     </row>
     <row r="95" ht="32" customHeight="1">
       <c r="A95" s="2" t="inlineStr">
@@ -74985,6 +76970,11 @@
           <t>94, OliviaRodrigo, good 4 u</t>
         </is>
       </c>
+      <c r="AL95" t="inlineStr">
+        <is>
+          <t>94, MACAN, Fell in Love</t>
+        </is>
+      </c>
     </row>
     <row r="96" ht="48" customHeight="1">
       <c r="A96" s="2" t="inlineStr">
@@ -75172,6 +77162,11 @@
           <t>95, DomLaNena, Batuque (Jeremy Sole &amp; Atropolis Remix)</t>
         </is>
       </c>
+      <c r="AL96" t="inlineStr">
+        <is>
+          <t>95, Тимати, Чокер</t>
+        </is>
+      </c>
     </row>
     <row r="97" ht="32" customHeight="1">
       <c r="A97" s="2" t="inlineStr">
@@ -75359,6 +77354,11 @@
           <t>96, Dabro, На часах ноль-ноль</t>
         </is>
       </c>
+      <c r="AL97" t="inlineStr">
+        <is>
+          <t>96, MORGENSHTERN, GTA</t>
+        </is>
+      </c>
     </row>
     <row r="98" ht="32" customHeight="1">
       <c r="A98" s="2" t="inlineStr">
@@ -75546,6 +77546,11 @@
           <t>97, 104, НЕ ЖАЛЬ (feat. Miyagi &amp; Скриптонит)</t>
         </is>
       </c>
+      <c r="AL98" t="inlineStr">
+        <is>
+          <t>97, ImagineDragons, Follow You</t>
+        </is>
+      </c>
     </row>
     <row r="99" ht="48" customHeight="1">
       <c r="A99" s="2" t="inlineStr">
@@ -75733,6 +77738,11 @@
           <t>98, MACAN, Fell in Love</t>
         </is>
       </c>
+      <c r="AL99" t="inlineStr">
+        <is>
+          <t>98, 104, НЕ ЖАЛЬ (feat. Miyagi &amp; Скриптонит)</t>
+        </is>
+      </c>
     </row>
     <row r="100" ht="32" customHeight="1">
       <c r="A100" s="2" t="inlineStr">
@@ -75920,6 +77930,11 @@
           <t>99, Zivert, Многоточия (Radio Edit)</t>
         </is>
       </c>
+      <c r="AL100" t="inlineStr">
+        <is>
+          <t>99, HENSY,PIZZA, Неидеальная</t>
+        </is>
+      </c>
     </row>
     <row r="101" ht="32" customHeight="1">
       <c r="A101" s="2" t="inlineStr">
@@ -76105,6 +78120,11 @@
       <c r="AK101" t="inlineStr">
         <is>
           <t>100, NK, Красное Вино</t>
+        </is>
+      </c>
+      <c r="AL101" t="inlineStr">
+        <is>
+          <t>100, DomLaNena, Batuque (Jeremy Sole &amp; Atropolis Remix)</t>
         </is>
       </c>
     </row>
@@ -76119,13 +78139,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="170" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col width="55" customWidth="1" min="1" max="1"/>
+    <col width="55.6640625" customWidth="1" min="2" max="2"/>
+    <col width="85.83203125" customWidth="1" min="3" max="3"/>
+    <col width="80.1640625" customWidth="1" min="4" max="4"/>
+    <col width="27.33203125" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -76153,6 +78180,11 @@
           <t>2021-06-07</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -76180,6 +78212,11 @@
           <t>1, MORGENSHTERN , MILLION DOLLAR: BUSINESS</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1, MORGENSHTERN , MILLION DOLLAR: BUSINESS</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -76207,6 +78244,11 @@
           <t>2, MORGENSHTERN , MILLION DOLLAR: HAPPINESS</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2, Måneskin , Teatro d'Ira - Vol. I</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -76234,6 +78276,11 @@
           <t>3, Måneskin , Teatro d'Ira - Vol. I</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3, MORGENSHTERN , MILLION DOLLAR: HAPPINESS</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -76261,6 +78308,11 @@
           <t>4, Little Big , COVERS - EP</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4, Little Big , COVERS - EP</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -76288,6 +78340,11 @@
           <t>5, Скриптонит , Свистки и бумажки</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5, Скриптонит , Свистки и бумажки</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -76315,6 +78372,11 @@
           <t>6, OG Buda , FREERIO</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6, OG Buda , FREERIO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -76342,6 +78404,11 @@
           <t>7, Тимати , Шипы и розы - EP</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7, Тимати , Шипы и розы - EP</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -76369,6 +78436,11 @@
           <t>8, LOVV66 , ФИЗИКАЛ ПЭЙН</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8, Artik &amp; Asti , Миллениум - EP</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -76396,6 +78468,11 @@
           <t>9, Artik &amp; Asti , Миллениум - EP</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9, LOVV66 , ФИЗИКАЛ ПЭЙН</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -76423,6 +78500,11 @@
           <t>10, Miyagi &amp; Andy Panda , YAMAKASI</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10, Miyagi &amp; Andy Panda , YAMAKASI</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -76450,6 +78532,11 @@
           <t>11, Lil Baby &amp; Lil Durk , The Voice of the Heroes</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>11, EXO , DON'T FIGHT THE FEELING - Special Album - EP</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -76477,6 +78564,11 @@
           <t>12, Måneskin , Il ballo della vita</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>12, Måneskin , Il ballo della vita</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -76504,6 +78596,11 @@
           <t>13, MAYOT , GHETTO GARDEN</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>13, MAYOT , GHETTO GARDEN</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -76531,6 +78628,11 @@
           <t>14, Три дня дождя , Когда ты откроешь глаза</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>14, Boulevard Depo &amp; JEEMBO , ОМОФОР - EP</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -76558,6 +78660,11 @@
           <t>15, Детские сны Звезда Academy , Детские сны - Музыка для малышей и детей, колыбельные музыка, успокаивающие звуки для глубокого расслабления и сна</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>15, Три дня дождя , Когда ты откроешь глаза</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -76585,6 +78692,11 @@
           <t>16, Billie Eilish , Happier Than Ever</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>16, SALUKI &amp; 104 , СТЫД ИЛИ СЛАВА</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -76612,6 +78724,11 @@
           <t>17, белый шум для детей , Белые шумы для сна детей - EP</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>17, белый шум для детей , Белые шумы для сна детей - EP</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -76639,6 +78756,11 @@
           <t>18, Boulevard Depo &amp; JEEMBO , ОМОФОР - EP</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>18, Детские сны Звезда Academy , Детские сны - Музыка для малышей и детей, колыбельные музыка, успокаивающие звуки для глубокого расслабления и сна</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -76666,6 +78788,11 @@
           <t>19, SALUKI &amp; 104 , СТЫД ИЛИ СЛАВА</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>19, Billie Eilish , Happier Than Ever</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -76693,6 +78820,11 @@
           <t>20, Анна Седокова , Эгоистка - EP</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>20, Анна Седокова , Эгоистка - EP</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -76720,6 +78852,11 @@
           <t>21, twenty one pilots , Scaled And Icy</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>21, SODA LUV , Viva la vida</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -76747,6 +78884,11 @@
           <t>22, Земфира , бордерлайн</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>22, twenty one pilots , Scaled And Icy</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -76774,6 +78916,11 @@
           <t>23, SODA LUV , Viva la vida</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>23, Måneskin , Chosen</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -76801,6 +78948,11 @@
           <t>24, Olivia Rodrigo , SOUR</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>24, Olivia Rodrigo , SOUR</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -76828,6 +78980,11 @@
           <t>25, Måneskin , Chosen</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>25, Lil Baby &amp; Lil Durk , The Voice of the Heroes</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -76855,6 +79012,11 @@
           <t>26, HammAli &amp; Navai , Когда хорошему человеку плохо</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>26, Земфира , бордерлайн</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -76882,6 +79044,11 @@
           <t>27, Леонид Агутин , Включите свет</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>27, HammAli &amp; Navai , Когда хорошему человеку плохо</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -76909,6 +79076,11 @@
           <t>28, PHARAOH , Million Dollar Depression</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>28, PHARAOH , Million Dollar Depression</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -76936,6 +79108,11 @@
           <t>29, OBLADAET , PLAYERS CLUB</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>29, Moby , Reprise</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -76963,6 +79140,11 @@
           <t>30, Moby , Reprise</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>30, OBLADAET , PLAYERS CLUB</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -76990,6 +79172,11 @@
           <t>31, Скриптонит , Праздник на улице 36</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>31, Леонид Агутин , Включите свет</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -77017,6 +79204,11 @@
           <t>32, V $ X V PRiNCE , NERVЫ</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>32, OG Buda , SEXY DRILL</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -77044,6 +79236,11 @@
           <t>33, OG Buda , SEXY DRILL</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>33, Скриптонит , Праздник на улице 36</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -77071,6 +79268,11 @@
           <t>34, Елена Темникова , TEMNIKOVA 5 PARIS</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>34, Елена Темникова , TEMNIKOVA 5 PARIS</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -77098,6 +79300,11 @@
           <t>35, Miyagi , Buster Keaton</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>35, Скриптонит , 2004</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -77125,6 +79332,11 @@
           <t>36, Скриптонит , 2004</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>36, The Weeknd , After Hours (Deluxe Video Album)</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -77152,6 +79364,11 @@
           <t>37, Скриптонит , Уроборос: Улица 36</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>37, Скриптонит , Уроборос: Улица 36</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -77179,6 +79396,11 @@
           <t>38, The Weeknd , After Hours (Deluxe Video Album)</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>38, V $ X V PRiNCE , NERVЫ</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -77206,6 +79428,11 @@
           <t>39, Dua Lipa , Future Nostalgia</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>39, Miyagi , Buster Keaton</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -77233,6 +79460,11 @@
           <t>40, Скриптонит , Дом с нормальными явлениями</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>40, Скриптонит , Дом с нормальными явлениями</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -77260,6 +79492,11 @@
           <t>41, J. Cole , The Off-Season</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>41, J. Cole , The Off-Season</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -77287,6 +79524,11 @@
           <t>42, TOMORROW X TOGETHER , The Chaos Chapter : FREEZE</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>42, Dua Lipa , Future Nostalgia</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -77314,6 +79556,11 @@
           <t>43, Mary Gu , плохое и хорошее - EP</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>43, Mary Gu , плохое и хорошее - EP</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -77341,6 +79588,11 @@
           <t>44, Разные артисты, Cruella (Original Motion Picture Soundtrack)</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>44, L'One , Восход 1</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -77368,6 +79620,11 @@
           <t>45, Алсу , Фея добрых снов. Колыбельные для малышей</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>45, Mary Gu , хорошее и плохое - EP</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -77395,6 +79652,11 @@
           <t>46, L'One , Восход 1</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>46, kizaru , BORN TO TRAP</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -77422,6 +79684,11 @@
           <t>47, kizaru , BORN TO TRAP</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>47, FACE , Искренний</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -77449,6 +79716,11 @@
           <t>48, LOVV66 , PUZZLES</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>48, TOMORROW X TOGETHER , The Chaos Chapter : FREEZE</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -77476,6 +79748,11 @@
           <t>49, Artik &amp; Asti , 7 (Part 2)</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>49, Разные артисты, Cruella (Original Motion Picture Soundtrack)</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -77501,6 +79778,11 @@
       <c r="E51" t="inlineStr">
         <is>
           <t>50, Мари Краймбрери , Нас узнает весь мир, Pt. 1</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>50, Алсу , Фея добрых снов. Колыбельные для малышей</t>
         </is>
       </c>
     </row>
@@ -77515,7 +79797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView topLeftCell="A30" zoomScale="200" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
@@ -77553,6 +79835,11 @@
           <t>2021-06-07</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>2021-06-08</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -77580,6 +79867,11 @@
           <t>1, Måneskin, ZITTI E BUONI</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1, Dzharakhov, Я в моменте</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -77607,6 +79899,11 @@
           <t>2, Dzharakhov, Я в моменте</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2, Måneskin, ZITTI E BUONI</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -77634,6 +79931,11 @@
           <t>3, Måneskin, I WANNA BE YOUR SLAVE</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3, Måneskin, I WANNA BE YOUR SLAVE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -77661,6 +79963,11 @@
           <t>4, MORGENSHTERN, SHOW</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4, MORGENSHTERN, SHOW</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -77688,6 +79995,11 @@
           <t>5, MORGENSHTERN, Cristal &amp; МОЁТ (feat. SODA LUV &amp; blago white &amp; OG Buda &amp; MAYOT) - Remix</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5, MORGENSHTERN, Cristal &amp; МОЁТ (feat. SODA LUV &amp; blago white &amp; OG Buda &amp; MAYOT) - Remix</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -77715,6 +80027,11 @@
           <t>6, DEAD BLONDE, Мальчик на девятке</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6, DEAD BLONDE, Мальчик на девятке</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -77742,6 +80059,11 @@
           <t>7, Måneskin, CORALINE</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7, Måneskin, Beggin'</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -77769,6 +80091,11 @@
           <t>8, Måneskin, Beggin'</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8, Måneskin, CORALINE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -77796,6 +80123,11 @@
           <t>9, MORGENSHTERN, ARISTOCRAT</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9, MORGENSHTERN, ARISTOCRAT</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -77823,6 +80155,11 @@
           <t>10, LOVV66, Трап Трап</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10, BTS, Butter</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -77850,6 +80187,11 @@
           <t>11, BTS, Butter</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>11, LOVV66, Трап Трап</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -77877,6 +80219,11 @@
           <t>12, MORGENSHTERN, ДУЛО</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>12, MORGENSHTERN, ДУЛО</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -77904,6 +80251,11 @@
           <t>13, GONE.Fludd, Плохая Сука</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>13, HammAli &amp; Navai, Птичка</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -77931,6 +80283,11 @@
           <t>14, kizaru, Moulin Rouge (feat. JABO)</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>14, Miyagi &amp; Andy Panda, Патрон</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -77958,6 +80315,11 @@
           <t>15, HammAli &amp; Navai, Птичка</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>15, DEAD BLONDE, Бесприданница</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -77985,6 +80347,11 @@
           <t>16, Miyagi &amp; Andy Panda, Патрон</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>16, SODA LUV, Тысячи рук</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -78012,6 +80379,11 @@
           <t>17, DEAD BLONDE, Бесприданница</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>17, GONE.Fludd, Плохая Сука</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -78039,6 +80411,11 @@
           <t>18, SODA LUV, Тысячи рук</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>18, ooes, зима</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -78066,6 +80443,11 @@
           <t>19, MORGENSHTERN, OLALA</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>19, MORGENSHTERN, OLALA</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -78093,6 +80475,11 @@
           <t>20, Lil Nas X, MONTERO (Call Me By Your Name)</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>20, Lil Nas X, MONTERO (Call Me By Your Name)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -78120,6 +80507,11 @@
           <t>21, 10AGE, Нету интереса</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>21, 10AGE, Нету интереса</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -78147,6 +80539,11 @@
           <t>22, Masked Wolf, Astronaut In The Ocean</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>22, Miyagi &amp; Andy Panda, Оттепель</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -78174,6 +80571,11 @@
           <t>23, ooes, зима</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>23, kizaru, Moulin Rouge (feat. JABO)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -78201,6 +80603,11 @@
           <t>24, Miyagi &amp; Andy Panda, Оттепель</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>24, Masked Wolf, Astronaut In The Ocean</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -78228,6 +80635,11 @@
           <t>25, MORGENSHTERN, PABLO</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>25, MORGENSHTERN, PABLO</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -78255,6 +80667,11 @@
           <t>26, SODA LUV, Бигасс</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>26, SODA LUV, Бигасс</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -78282,6 +80699,11 @@
           <t>27, SEEMEE, Голодный пёс [prod. by Pretty Scream]</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>27, SEEMEE, Голодный пёс [prod. by Pretty Scream]</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -78309,6 +80731,11 @@
           <t>28, MORGENSHTERN, DINERO</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>28, fem.love, Фотографирую закат</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -78336,6 +80763,11 @@
           <t>29, MORGENSHTERN, HUBLOT</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>29, MORGENSHTERN, DINERO</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -78363,6 +80795,11 @@
           <t>30, fem.love, Фотографирую закат</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>30, MORGENSHTERN, HUBLOT</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -78390,6 +80827,11 @@
           <t>31, MORGENSHTERN, Leck</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>31, MORGENSHTERN, Leck</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -78417,6 +80859,11 @@
           <t>32, SLAVA MARLOW, ТЫ ГОРИШЬ КАК ОГОНЬ</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>32, PlayaPhonk, PHONKY TOWN</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -78444,6 +80891,11 @@
           <t>33, Max Korzh, Аттестат</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>33, kizaru, Дежавю</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -78471,6 +80923,11 @@
           <t>34, Go_A, SHUM</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>34, SLAVA MARLOW, ТЫ ГОРИШЬ КАК ОГОНЬ</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -78498,6 +80955,11 @@
           <t>35, kizaru, Дежавю</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>35, OG Buda, ГАНЬГ Аутро (feat. Bushido Zho, Scally Milano, MAYOT, Magnum Opus, SEEMEE, YUNGWAY)</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -78525,6 +80987,11 @@
           <t>36, OG Buda, ГАНЬГ Аутро (feat. Bushido Zho, Scally Milano, MAYOT, Magnum Opus, SEEMEE, YUNGWAY)</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>36, Go_A, SHUM</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -78552,6 +81019,11 @@
           <t>37, PlayaPhonk, PHONKY TOWN</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>37, OG Buda, Старшие (feat. Polyana)</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -78579,6 +81051,11 @@
           <t>38, MORGENSHTERN, NOMINALO</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>38, MORGENSHTERN, NOMINALO</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -78606,6 +81083,11 @@
           <t>39, OG Buda, Старшие (feat. Polyana)</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>39, Mekhman, Копия пиратская</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -78633,6 +81115,11 @@
           <t>40, Korol i Shut, Кукла колдуна</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>40, OG Buda, Добро Пожаловать (Prod. by wex &amp; treepside)</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -78660,6 +81147,11 @@
           <t>41, Scriptonite, Будьте здоровы</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>41, Korol i Shut, Кукла колдуна</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -78687,6 +81179,11 @@
           <t>42, Mekhman, Копия пиратская</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>42, Max Korzh, Аттестат</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -78714,6 +81211,11 @@
           <t>43, OG Buda, Добро Пожаловать (Prod. by wex &amp; treepside)</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>43, MORGENSHTERN, Cristal &amp; МОЁТ</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -78741,6 +81243,11 @@
           <t>44, MORGENSHTERN, Cristal &amp; МОЁТ</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>44, Doja Cat, Kiss Me More (feat. SZA)</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -78768,6 +81275,11 @@
           <t>45, Doja Cat, Kiss Me More (feat. SZA)</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>45, Ramil', Сон</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -78795,6 +81307,11 @@
           <t>46, Ramil', Сон</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>46, Scriptonite, Будьте здоровы</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -78822,6 +81339,11 @@
           <t>47, MORGENSHTERN, GTA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>47, Benedixhion, toxin</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -78849,6 +81371,11 @@
           <t>48, Billie Eilish, Lost Cause</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>48, Scriptonite, Положение</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -78874,6 +81401,11 @@
       <c r="E50" t="inlineStr">
         <is>
           <t>49, kizaru, Stick Out</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>49, MORGENSHTERN, GTA</t>
         </is>
       </c>
     </row>
